--- a/teaching/traditional_assets/database/data/united_states/united_states_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/united_states/united_states_insurance_prop_cas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ53"/>
+  <dimension ref="A1:AQ56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0442</v>
+        <v>0.0348</v>
       </c>
       <c r="E2">
-        <v>0.08515</v>
+        <v>0.0437</v>
       </c>
       <c r="F2">
-        <v>0.0922</v>
+        <v>0.06995000000000001</v>
       </c>
       <c r="G2">
-        <v>0.1053529018434095</v>
+        <v>0.1608947631791562</v>
       </c>
       <c r="H2">
-        <v>0.1053529018434095</v>
+        <v>0.1608947631791562</v>
       </c>
       <c r="I2">
-        <v>0.1073278233245733</v>
+        <v>0.108941285413497</v>
       </c>
       <c r="J2">
-        <v>0.09226616525446371</v>
+        <v>0.09688912848103508</v>
       </c>
       <c r="K2">
-        <v>15637.639</v>
+        <v>15026.437</v>
       </c>
       <c r="L2">
-        <v>0.07322335840659897</v>
+        <v>0.06677876278452143</v>
       </c>
       <c r="M2">
-        <v>11025.236</v>
+        <v>12178.897</v>
       </c>
       <c r="N2">
-        <v>0.04223063369491941</v>
+        <v>0.04408396127296764</v>
       </c>
       <c r="O2">
-        <v>0.7050447960846264</v>
+        <v>0.8104979909741744</v>
       </c>
       <c r="P2">
-        <v>5600.985</v>
+        <v>5769.161</v>
       </c>
       <c r="Q2">
-        <v>0.02145379435558007</v>
+        <v>0.02088263576755064</v>
       </c>
       <c r="R2">
-        <v>0.3581733150381589</v>
+        <v>0.3839340623462502</v>
       </c>
       <c r="S2">
-        <v>5424.251</v>
+        <v>6409.736</v>
       </c>
       <c r="T2">
-        <v>0.4919850241754462</v>
+        <v>0.5262985638190387</v>
       </c>
       <c r="U2">
-        <v>12737.566</v>
+        <v>20581.895</v>
       </c>
       <c r="V2">
-        <v>0.04878947570018999</v>
+        <v>0.07450029851671183</v>
       </c>
       <c r="W2">
-        <v>0.1055209260908281</v>
+        <v>0.05504618758288563</v>
       </c>
       <c r="X2">
-        <v>0.04869129136679325</v>
+        <v>0.04495329183857832</v>
       </c>
       <c r="Y2">
-        <v>0.05682963472403489</v>
+        <v>0.01009289574430731</v>
       </c>
       <c r="Z2">
-        <v>1.135592628828853</v>
+        <v>1.105706601852553</v>
       </c>
       <c r="AA2">
-        <v>0.10887052475563</v>
+        <v>0.06295338858609414</v>
       </c>
       <c r="AB2">
-        <v>0.04510277866258115</v>
+        <v>0.03987553383669774</v>
       </c>
       <c r="AC2">
-        <v>0.0640803625499492</v>
+        <v>0.02353058230469765</v>
       </c>
       <c r="AD2">
-        <v>64337.318</v>
+        <v>64554.32</v>
       </c>
       <c r="AE2">
-        <v>4479.035942727346</v>
+        <v>4681.5702528432</v>
       </c>
       <c r="AF2">
-        <v>68816.35394272735</v>
+        <v>69235.89025284321</v>
       </c>
       <c r="AG2">
-        <v>56078.78794272735</v>
+        <v>48653.9952528432</v>
       </c>
       <c r="AH2">
-        <v>0.208604981413423</v>
+        <v>0.2003922532108597</v>
       </c>
       <c r="AI2">
-        <v>0.287775174172101</v>
+        <v>0.2788535626295075</v>
       </c>
       <c r="AJ2">
-        <v>0.1768205852695354</v>
+        <v>0.1497414900534868</v>
       </c>
       <c r="AK2">
-        <v>0.2477035323800148</v>
+        <v>0.2136704865989347</v>
       </c>
       <c r="AL2">
-        <v>3077.192</v>
+        <v>2931.714</v>
       </c>
       <c r="AM2">
-        <v>3043.392</v>
+        <v>2900.714</v>
       </c>
       <c r="AN2">
-        <v>2.323373143973056</v>
+        <v>2.148455137817253</v>
       </c>
       <c r="AO2">
-        <v>7.407511133526929</v>
+        <v>8.325734706727873</v>
       </c>
       <c r="AP2">
-        <v>2.025138036569892</v>
+        <v>1.619270810633699</v>
       </c>
       <c r="AQ2">
-        <v>7.489779167455261</v>
+        <v>8.414712032968435</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>First Acceptance Corporation (OTCPK:FACO)</t>
+          <t>Trean Insurance Group, Inc. (NasdaqGS:TIG)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,98 +727,110 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.0442</v>
-      </c>
-      <c r="E3">
-        <v>0.173</v>
-      </c>
       <c r="G3">
-        <v>0.0810898475510866</v>
+        <v>0.2017121455323703</v>
       </c>
       <c r="H3">
-        <v>0.0810898475510866</v>
+        <v>0.2017121455323703</v>
       </c>
       <c r="I3">
-        <v>0.08173856633149529</v>
+        <v>0.594741449362156</v>
       </c>
       <c r="J3">
-        <v>0.06519623743107363</v>
+        <v>0.5513318202379073</v>
       </c>
       <c r="K3">
-        <v>20.1</v>
+        <v>93.3</v>
       </c>
       <c r="L3">
-        <v>0.06519623743107363</v>
+        <v>0.4991974317817014</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>19.5</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.0291044776119403</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.2090032154340836</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>19.5</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.0291044776119403</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.2090032154340836</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>0</v>
+        <v>165.3</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.2467164179104478</v>
       </c>
       <c r="X3">
-        <v>0.0961927037444316</v>
+        <v>0.04175802205539272</v>
+      </c>
+      <c r="Z3">
+        <v>29.6003451150752</v>
+      </c>
+      <c r="AA3">
+        <v>16.31961215196466</v>
       </c>
       <c r="AB3">
-        <v>0.04526488914836792</v>
+        <v>0.04047573002511663</v>
+      </c>
+      <c r="AC3">
+        <v>16.27913642193954</v>
       </c>
       <c r="AD3">
-        <v>86.2</v>
+        <v>39.9</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>6.314115571065198</v>
       </c>
       <c r="AF3">
-        <v>86.2</v>
+        <v>46.21411557106519</v>
       </c>
       <c r="AG3">
-        <v>86.2</v>
+        <v>-119.0858844289348</v>
       </c>
       <c r="AH3">
-        <v>0.7219430485762144</v>
+        <v>0.06452555816247336</v>
       </c>
       <c r="AI3">
-        <v>0.4908883826879271</v>
+        <v>0.1031532578212585</v>
       </c>
       <c r="AJ3">
-        <v>0.7219430485762144</v>
+        <v>-0.2161605249585828</v>
       </c>
       <c r="AK3">
-        <v>0.4908883826879271</v>
+        <v>-0.4212236951394827</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AN3">
-        <v>3.134545454545455</v>
+        <v>0.348106787646135</v>
+      </c>
+      <c r="AO3">
+        <v>56.19289340101523</v>
       </c>
       <c r="AP3">
-        <v>3.134545454545455</v>
+        <v>-1.038962523372316</v>
+      </c>
+      <c r="AQ3">
+        <v>56.19289340101523</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +841,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ProSight Global, Inc. (NYSE:PROS)</t>
+          <t>GAINSCO, Inc. (OTCPK:GANS)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -837,32 +849,38 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.113</v>
+      </c>
+      <c r="E4">
+        <v>0.06619999999999999</v>
+      </c>
       <c r="G4">
-        <v>0.09457092819614711</v>
+        <v>0.1056873129173382</v>
       </c>
       <c r="H4">
-        <v>0.09457092819614711</v>
+        <v>0.1056873129173382</v>
       </c>
       <c r="I4">
-        <v>0.09851640045745266</v>
+        <v>0.0926097647837725</v>
       </c>
       <c r="J4">
-        <v>0.07803628853439799</v>
+        <v>0.07240621346647055</v>
       </c>
       <c r="K4">
-        <v>44.5</v>
+        <v>29.7</v>
       </c>
       <c r="L4">
-        <v>0.05195563339171045</v>
+        <v>0.06838590835827768</v>
       </c>
       <c r="M4">
-        <v>0.149</v>
+        <v>27</v>
       </c>
       <c r="N4">
-        <v>0.0002174230264117905</v>
+        <v>0.0703125</v>
       </c>
       <c r="O4">
-        <v>0.003348314606741573</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -874,73 +892,73 @@
         <v>-0</v>
       </c>
       <c r="S4">
-        <v>0.149</v>
+        <v>27</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4">
-        <v>24.6</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.03589668758208085</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0504179857574851</v>
+        <v>0.04175866824314835</v>
       </c>
       <c r="Z4">
-        <v>62.96166817334748</v>
+        <v>16.3899806888929</v>
       </c>
       <c r="AA4">
-        <v>4.913294904182367</v>
+        <v>1.18673644047131</v>
       </c>
       <c r="AB4">
-        <v>0.04589471279267701</v>
+        <v>0.04047583635538361</v>
       </c>
       <c r="AC4">
-        <v>4.86740019138969</v>
+        <v>1.146260604115926</v>
       </c>
       <c r="AD4">
-        <v>164.6</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>13.60351504095897</v>
+        <v>26.49789577203801</v>
       </c>
       <c r="AF4">
-        <v>178.203515040959</v>
+        <v>26.49789577203801</v>
       </c>
       <c r="AG4">
-        <v>153.603515040959</v>
+        <v>26.49789577203801</v>
       </c>
       <c r="AH4">
-        <v>0.2063726573626121</v>
+        <v>0.06455062509444166</v>
       </c>
       <c r="AI4">
-        <v>0.2514145475571764</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.183100335481917</v>
+        <v>0.06455062509444166</v>
       </c>
       <c r="AK4">
-        <v>0.2244997455643935</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>12.9</v>
+        <v>3.21</v>
       </c>
       <c r="AM4">
-        <v>12.9</v>
+        <v>3.21</v>
       </c>
       <c r="AN4">
-        <v>1.839106145251397</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>6.434108527131783</v>
+        <v>12.83489096573209</v>
       </c>
       <c r="AP4">
-        <v>1.716240391519095</v>
+        <v>0.527636315651892</v>
       </c>
       <c r="AQ4">
-        <v>6.434108527131783</v>
+        <v>12.83489096573209</v>
       </c>
     </row>
     <row r="5">
@@ -951,7 +969,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Palomar Holdings, Inc. (NasdaqGS:PLMR)</t>
+          <t>Fidelity National Financial, Inc. (NYSE:FNF)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -959,107 +977,122 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.009979999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.0437</v>
+      </c>
       <c r="G5">
-        <v>0.2195121951219512</v>
+        <v>0.1755019653670456</v>
       </c>
       <c r="H5">
-        <v>0.2195121951219512</v>
+        <v>0.1755019653670456</v>
       </c>
       <c r="I5">
-        <v>0.1027337710478903</v>
+        <v>0.156921419838645</v>
       </c>
       <c r="J5">
-        <v>0.05136688552394517</v>
+        <v>0.1218095006103811</v>
       </c>
       <c r="K5">
-        <v>3.87</v>
+        <v>966</v>
       </c>
       <c r="L5">
-        <v>0.04103923647932132</v>
+        <v>0.1026240305959843</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>496</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.04320670400794446</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0.5134575569358178</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>372</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.03240502800595834</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.3850931677018634</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="T5">
+        <v>0.25</v>
       </c>
       <c r="U5">
-        <v>16.5</v>
+        <v>2482</v>
       </c>
       <c r="V5">
-        <v>0.0144660704892162</v>
+        <v>0.2162077406203995</v>
+      </c>
+      <c r="W5">
+        <v>0.187974314068885</v>
       </c>
       <c r="X5">
-        <v>0.04538783128566683</v>
+        <v>0.04633992202088506</v>
+      </c>
+      <c r="Y5">
+        <v>0.1416343920479999</v>
       </c>
       <c r="Z5">
-        <v>25.07293918139569</v>
+        <v>3.535407857666492</v>
       </c>
       <c r="AA5">
-        <v>1.287918796679592</v>
+        <v>0.4306462655963728</v>
       </c>
       <c r="AB5">
-        <v>0.04533232818209015</v>
+        <v>0.03942612216211095</v>
       </c>
       <c r="AC5">
-        <v>1.242586468497502</v>
+        <v>0.3912201434342618</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2664</v>
       </c>
       <c r="AE5">
-        <v>3.761026950919712</v>
+        <v>459.4933752941733</v>
       </c>
       <c r="AF5">
-        <v>3.761026950919712</v>
+        <v>3123.493375294173</v>
       </c>
       <c r="AG5">
-        <v>-12.73897304908029</v>
+        <v>641.4933752941733</v>
       </c>
       <c r="AH5">
-        <v>0.003286573784272206</v>
+        <v>0.2138911192245478</v>
       </c>
       <c r="AI5">
-        <v>0.01771887663480192</v>
+        <v>0.3030901347025525</v>
       </c>
       <c r="AJ5">
-        <v>-0.01129480737845784</v>
+        <v>0.05292328530965332</v>
       </c>
       <c r="AK5">
-        <v>-0.06507410206973498</v>
+        <v>0.08199577152067984</v>
       </c>
       <c r="AL5">
-        <v>1.93</v>
+        <v>73</v>
       </c>
       <c r="AM5">
-        <v>1.93</v>
+        <v>73</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1.476718403547672</v>
       </c>
       <c r="AO5">
-        <v>5.036269430051814</v>
+        <v>19.50684931506849</v>
       </c>
       <c r="AP5">
-        <v>-1.191671940980382</v>
+        <v>0.3555949973914486</v>
       </c>
       <c r="AQ5">
-        <v>5.036269430051814</v>
+        <v>19.50684931506849</v>
       </c>
     </row>
     <row r="6">
@@ -1070,7 +1103,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GAINSCO, Inc. (OTCPK:GANS)</t>
+          <t>Stewart Information Services Corporation (NYSE:STC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1079,115 +1112,121 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.131</v>
+        <v>0.00577</v>
       </c>
       <c r="E6">
-        <v>0.165</v>
+        <v>0.99</v>
       </c>
       <c r="G6">
-        <v>0.09072426937738247</v>
+        <v>0.0785660162909642</v>
       </c>
       <c r="H6">
-        <v>0.09072426937738247</v>
+        <v>0.0785660162909642</v>
       </c>
       <c r="I6">
-        <v>0.07563588754762232</v>
+        <v>0.1172115456213593</v>
       </c>
       <c r="J6">
-        <v>0.05735247563291512</v>
+        <v>0.09180441868031321</v>
       </c>
       <c r="K6">
-        <v>20.2</v>
+        <v>95.2</v>
       </c>
       <c r="L6">
-        <v>0.05133418043202033</v>
+        <v>0.04508429626823263</v>
       </c>
       <c r="M6">
-        <v>12.7</v>
+        <v>30.177</v>
       </c>
       <c r="N6">
-        <v>0.0798240100565682</v>
+        <v>0.02335500348270258</v>
       </c>
       <c r="O6">
-        <v>0.6287128712871287</v>
+        <v>0.316985294117647</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>29.3</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.02267626344710162</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>0.3077731092436975</v>
       </c>
       <c r="S6">
-        <v>12.7</v>
+        <v>0.8769999999999989</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.02906186831030251</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>360.5</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.2790031731290148</v>
+      </c>
+      <c r="W6">
+        <v>0.1263269639065817</v>
       </c>
       <c r="X6">
-        <v>0.04849254313703091</v>
+        <v>0.04413514237147308</v>
+      </c>
+      <c r="Y6">
+        <v>0.08219182153510866</v>
       </c>
       <c r="Z6">
-        <v>15.28963389531889</v>
+        <v>4.305166044879398</v>
       </c>
       <c r="AA6">
-        <v>0.87689835541747</v>
+        <v>0.3952332660723764</v>
       </c>
       <c r="AB6">
-        <v>0.04570880607757865</v>
+        <v>0.03966345218755429</v>
       </c>
       <c r="AC6">
-        <v>0.8311895493398913</v>
+        <v>0.3555698138848221</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>101.3</v>
       </c>
       <c r="AE6">
-        <v>25.73639125005307</v>
+        <v>123.9805013296886</v>
       </c>
       <c r="AF6">
-        <v>25.73639125005307</v>
+        <v>225.2805013296886</v>
       </c>
       <c r="AG6">
-        <v>25.73639125005307</v>
+        <v>-135.2194986703114</v>
       </c>
       <c r="AH6">
-        <v>0.1392387671929603</v>
+        <v>0.1484667169060589</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.191535653817595</v>
       </c>
       <c r="AJ6">
-        <v>0.1392387671929603</v>
+        <v>-0.1168828574039355</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>-0.1657750779255875</v>
       </c>
       <c r="AL6">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="AM6">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>0.3483493810178817</v>
       </c>
       <c r="AO6">
-        <v>10.26315789473684</v>
+        <v>76.88524590163935</v>
       </c>
       <c r="AP6">
-        <v>0.6530421530081976</v>
+        <v>-0.4649913984536155</v>
       </c>
       <c r="AQ6">
-        <v>10.26315789473684</v>
+        <v>76.88524590163935</v>
       </c>
     </row>
     <row r="7">
@@ -1198,7 +1237,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>First American Financial Corporation (NYSE:FAF)</t>
+          <t>Erie Indemnity Company (NasdaqGS:ERIE)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1207,121 +1246,121 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0488</v>
+        <v>-0.164</v>
       </c>
       <c r="E7">
-        <v>0.23</v>
+        <v>0.112</v>
       </c>
       <c r="G7">
-        <v>0.1343858755623462</v>
+        <v>0.148256735340729</v>
       </c>
       <c r="H7">
-        <v>0.1343858755623462</v>
+        <v>0.148256735340729</v>
       </c>
       <c r="I7">
-        <v>0.138059981175999</v>
+        <v>0.1374123299155347</v>
       </c>
       <c r="J7">
-        <v>0.1085856582977942</v>
+        <v>0.1089537107690934</v>
       </c>
       <c r="K7">
-        <v>575.1</v>
+        <v>290.1</v>
       </c>
       <c r="L7">
-        <v>0.09763177998472117</v>
+        <v>0.1149366085578447</v>
       </c>
       <c r="M7">
-        <v>209</v>
+        <v>176.7</v>
       </c>
       <c r="N7">
-        <v>0.03197821197423382</v>
+        <v>0.01557651622002821</v>
       </c>
       <c r="O7">
-        <v>0.363415058250739</v>
+        <v>0.6091003102378489</v>
       </c>
       <c r="P7">
-        <v>188.1</v>
+        <v>176.7</v>
       </c>
       <c r="Q7">
-        <v>0.02878039077681044</v>
+        <v>0.01557651622002821</v>
       </c>
       <c r="R7">
-        <v>0.3270735524256651</v>
+        <v>0.6091003102378489</v>
       </c>
       <c r="S7">
-        <v>20.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1711</v>
+        <v>216.4</v>
       </c>
       <c r="V7">
-        <v>0.261792921951742</v>
+        <v>0.01907616361071932</v>
       </c>
       <c r="W7">
-        <v>0.1565238691415819</v>
+        <v>0.2591798445456983</v>
       </c>
       <c r="X7">
-        <v>0.05007643087250363</v>
+        <v>0.04043619029449015</v>
       </c>
       <c r="Y7">
-        <v>0.1064474382690782</v>
+        <v>0.2187436542512081</v>
       </c>
       <c r="Z7">
-        <v>4.062726470580478</v>
+        <v>2.823088129537386</v>
       </c>
       <c r="AA7">
-        <v>0.4411538282918552</v>
+        <v>0.3075859275412773</v>
       </c>
       <c r="AB7">
-        <v>0.04442887704993602</v>
+        <v>0.0402456022082394</v>
       </c>
       <c r="AC7">
-        <v>0.3967249512419191</v>
+        <v>0.2673403253330379</v>
       </c>
       <c r="AD7">
-        <v>1281.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AE7">
-        <v>304.2884044138889</v>
+        <v>21.35639646595193</v>
       </c>
       <c r="AF7">
-        <v>1585.588404413889</v>
+        <v>117.7563964659519</v>
       </c>
       <c r="AG7">
-        <v>-125.4115955861112</v>
+        <v>-98.64360353404807</v>
       </c>
       <c r="AH7">
-        <v>0.1952385293387842</v>
+        <v>0.01027385266208068</v>
       </c>
       <c r="AI7">
-        <v>0.2718871629865393</v>
+        <v>0.08627117816425377</v>
       </c>
       <c r="AJ7">
-        <v>-0.01956411126522129</v>
+        <v>-0.008771941062272472</v>
       </c>
       <c r="AK7">
-        <v>-0.03043388382955538</v>
+        <v>-0.08588485845150423</v>
       </c>
       <c r="AL7">
-        <v>47</v>
+        <v>0.032</v>
       </c>
       <c r="AM7">
-        <v>47</v>
+        <v>-30.968</v>
       </c>
       <c r="AN7">
-        <v>1.274925373134328</v>
+        <v>0.2601889338731444</v>
       </c>
       <c r="AO7">
-        <v>16.97234042553191</v>
+        <v>10603.125</v>
       </c>
       <c r="AP7">
-        <v>-0.1247876572996131</v>
+        <v>-0.2662445439515467</v>
       </c>
       <c r="AQ7">
-        <v>16.97234042553191</v>
+        <v>-10.95647119607337</v>
       </c>
     </row>
     <row r="8">
@@ -1332,7 +1371,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fidelity National Financial, Inc. (NYSE:FNF)</t>
+          <t>The Progressive Corporation (NYSE:PGR)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1341,121 +1380,124 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0257</v>
+        <v>0.153</v>
       </c>
       <c r="E8">
-        <v>0.238</v>
+        <v>0.312</v>
+      </c>
+      <c r="F8">
+        <v>0.0338</v>
       </c>
       <c r="G8">
-        <v>0.1245679170400717</v>
+        <v>0.1347890740802524</v>
       </c>
       <c r="H8">
-        <v>0.1245679170400717</v>
+        <v>0.1347890740802524</v>
       </c>
       <c r="I8">
-        <v>0.1476051575975393</v>
+        <v>0.1585027748816911</v>
       </c>
       <c r="J8">
-        <v>0.1143792954291689</v>
+        <v>0.126064376238269</v>
       </c>
       <c r="K8">
-        <v>766</v>
+        <v>5091.1</v>
       </c>
       <c r="L8">
-        <v>0.09806682883113557</v>
+        <v>0.1213247034263845</v>
       </c>
       <c r="M8">
-        <v>446</v>
+        <v>1628.6</v>
       </c>
       <c r="N8">
-        <v>0.03594194489439032</v>
+        <v>0.02814019991533405</v>
       </c>
       <c r="O8">
-        <v>0.5822454308093995</v>
+        <v>0.3198915754944904</v>
       </c>
       <c r="P8">
-        <v>336</v>
+        <v>1550.9</v>
       </c>
       <c r="Q8">
-        <v>0.02707733965137925</v>
+        <v>0.02679763972042955</v>
       </c>
       <c r="R8">
-        <v>0.4386422976501306</v>
+        <v>0.3046296478167783</v>
       </c>
       <c r="S8">
-        <v>110</v>
+        <v>77.70000000000005</v>
       </c>
       <c r="T8">
-        <v>0.2466367713004484</v>
+        <v>0.04770968930369645</v>
       </c>
       <c r="U8">
-        <v>1048</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="V8">
-        <v>0.08445551176977814</v>
+        <v>0.00155681690554562</v>
       </c>
       <c r="W8">
-        <v>0.163361057794839</v>
+        <v>0.3735380867829839</v>
       </c>
       <c r="X8">
-        <v>0.04803937913330923</v>
+        <v>0.04238400866295508</v>
       </c>
       <c r="Y8">
-        <v>0.1153216786615297</v>
+        <v>0.3311540781200288</v>
       </c>
       <c r="Z8">
-        <v>3.432983212221394</v>
+        <v>2.301368792179148</v>
       </c>
       <c r="AA8">
-        <v>0.3926622010340481</v>
+        <v>0.290120621280283</v>
       </c>
       <c r="AB8">
-        <v>0.04476549667183971</v>
+        <v>0.0398820903857257</v>
       </c>
       <c r="AC8">
-        <v>0.3478967043622084</v>
+        <v>0.2502385308945573</v>
       </c>
       <c r="AD8">
-        <v>1260</v>
+        <v>5395.4</v>
       </c>
       <c r="AE8">
-        <v>460.2805700281026</v>
+        <v>202.5572937477542</v>
       </c>
       <c r="AF8">
-        <v>1720.280570028103</v>
+        <v>5597.957293747754</v>
       </c>
       <c r="AG8">
-        <v>672.2805700281026</v>
+        <v>5507.857293747754</v>
       </c>
       <c r="AH8">
-        <v>0.1217537394686068</v>
+        <v>0.08819506180201363</v>
       </c>
       <c r="AI8">
-        <v>0.2394173133898061</v>
+        <v>0.2363487488945435</v>
       </c>
       <c r="AJ8">
-        <v>0.05139295848942313</v>
+        <v>0.08689890261135913</v>
       </c>
       <c r="AK8">
-        <v>0.1095404654157801</v>
+        <v>0.2334326730033935</v>
       </c>
       <c r="AL8">
-        <v>48</v>
+        <v>208.2</v>
       </c>
       <c r="AM8">
-        <v>48</v>
+        <v>208.2</v>
       </c>
       <c r="AN8">
-        <v>0.8866995073891626</v>
+        <v>0.7686740465301818</v>
       </c>
       <c r="AO8">
-        <v>22.91666666666667</v>
+        <v>31.76801152737752</v>
       </c>
       <c r="AP8">
-        <v>0.4731038494216063</v>
+        <v>0.7846956580968719</v>
       </c>
       <c r="AQ8">
-        <v>22.91666666666667</v>
+        <v>31.76801152737752</v>
       </c>
     </row>
     <row r="9">
@@ -1466,7 +1508,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Erie Indemnity Company (NasdaqGS:ERIE)</t>
+          <t>First American Financial Corporation (NYSE:FAF)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1475,121 +1517,121 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.17</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="E9">
-        <v>0.124</v>
+        <v>0.174</v>
       </c>
       <c r="G9">
-        <v>0.1462759462759463</v>
+        <v>0.1623324980117345</v>
       </c>
       <c r="H9">
-        <v>0.1462759462759463</v>
+        <v>0.1623324980117345</v>
       </c>
       <c r="I9">
-        <v>0.1598778816196788</v>
+        <v>0.146197610867562</v>
       </c>
       <c r="J9">
-        <v>0.1265716397464685</v>
+        <v>0.1134507560162142</v>
       </c>
       <c r="K9">
-        <v>319.5</v>
+        <v>640.1</v>
       </c>
       <c r="L9">
-        <v>0.13003663003663</v>
+        <v>0.09605198001230474</v>
       </c>
       <c r="M9">
-        <v>164.9</v>
+        <v>263.9</v>
       </c>
       <c r="N9">
-        <v>0.02150271228875443</v>
+        <v>0.04578258908434821</v>
       </c>
       <c r="O9">
-        <v>0.5161189358372457</v>
+        <v>0.4122793313544758</v>
       </c>
       <c r="P9">
-        <v>164.9</v>
+        <v>195</v>
       </c>
       <c r="Q9">
-        <v>0.02150271228875443</v>
+        <v>0.03382949932341001</v>
       </c>
       <c r="R9">
-        <v>0.5161189358372457</v>
+        <v>0.3046399000156225</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>68.89999999999998</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.2610837438423645</v>
       </c>
       <c r="U9">
-        <v>344.9</v>
+        <v>1512.4</v>
       </c>
       <c r="V9">
-        <v>0.04497444189442937</v>
+        <v>0.2623781270601298</v>
       </c>
       <c r="W9">
-        <v>0.3469055374592834</v>
+        <v>0.1508922467645741</v>
       </c>
       <c r="X9">
-        <v>0.04591773471651101</v>
+        <v>0.04755136277491587</v>
       </c>
       <c r="Y9">
-        <v>0.3009878027427724</v>
+        <v>0.1033408839896583</v>
       </c>
       <c r="Z9">
-        <v>2.770322898421864</v>
+        <v>2.484080996970176</v>
       </c>
       <c r="AA9">
-        <v>0.3506443118804448</v>
+        <v>0.2818208671117775</v>
       </c>
       <c r="AB9">
-        <v>0.04518832166071379</v>
+        <v>0.03931061388873275</v>
       </c>
       <c r="AC9">
-        <v>0.305455990219731</v>
+        <v>0.2425102532230447</v>
       </c>
       <c r="AD9">
-        <v>121.8</v>
+        <v>1538.3</v>
       </c>
       <c r="AE9">
-        <v>110.9002243022461</v>
+        <v>339.6225070874007</v>
       </c>
       <c r="AF9">
-        <v>232.7002243022461</v>
+        <v>1877.922507087401</v>
       </c>
       <c r="AG9">
-        <v>-112.1997756977539</v>
+        <v>365.5225070874005</v>
       </c>
       <c r="AH9">
-        <v>0.02945013196184463</v>
+        <v>0.2457331069144458</v>
       </c>
       <c r="AI9">
-        <v>0.1721155219647544</v>
+        <v>0.2839819918158557</v>
       </c>
       <c r="AJ9">
-        <v>-0.01484791736592286</v>
+        <v>0.05963116709847315</v>
       </c>
       <c r="AK9">
-        <v>-0.1114087485935075</v>
+        <v>0.07166514275620912</v>
       </c>
       <c r="AL9">
-        <v>1.43</v>
+        <v>53.3</v>
       </c>
       <c r="AM9">
-        <v>-32.37</v>
+        <v>53.3</v>
       </c>
       <c r="AN9">
-        <v>0.2850456353849755</v>
+        <v>1.298801080715974</v>
       </c>
       <c r="AO9">
-        <v>255.3146853146853</v>
+        <v>17.93621013133208</v>
       </c>
       <c r="AP9">
-        <v>-0.2625784593909523</v>
+        <v>0.3086140721778119</v>
       </c>
       <c r="AQ9">
-        <v>-11.27896200185357</v>
+        <v>17.93621013133208</v>
       </c>
     </row>
     <row r="10">
@@ -1600,7 +1642,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Universal Insurance Holdings, Inc. (NYSE:UVE)</t>
+          <t>AMERISAFE, Inc. (NasdaqGS:AMSF)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1609,121 +1651,115 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.218</v>
+        <v>-0.0321</v>
       </c>
       <c r="E10">
-        <v>0.06150000000000001</v>
+        <v>0.0747</v>
       </c>
       <c r="G10">
-        <v>0.1724326094073993</v>
+        <v>0.3394522144522145</v>
       </c>
       <c r="H10">
-        <v>0.1724326094073993</v>
+        <v>0.3394522144522145</v>
       </c>
       <c r="I10">
-        <v>0.125723016479319</v>
+        <v>0.3331912574383949</v>
       </c>
       <c r="J10">
-        <v>0.09442182029073341</v>
+        <v>0.2687120386171293</v>
       </c>
       <c r="K10">
-        <v>91.09999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="L10">
-        <v>0.0994215868165448</v>
+        <v>0.2683566433566433</v>
       </c>
       <c r="M10">
-        <v>94.5</v>
+        <v>20.5</v>
       </c>
       <c r="N10">
-        <v>0.1020628577600173</v>
+        <v>0.01847013244436435</v>
       </c>
       <c r="O10">
-        <v>1.037321624588365</v>
+        <v>0.2225841476655809</v>
       </c>
       <c r="P10">
-        <v>22.2</v>
+        <v>20.5</v>
       </c>
       <c r="Q10">
-        <v>0.02397667134679771</v>
+        <v>0.01847013244436435</v>
       </c>
       <c r="R10">
-        <v>0.2436882546652031</v>
+        <v>0.2225841476655809</v>
       </c>
       <c r="S10">
-        <v>72.3</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.765079365079365</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>159.6</v>
+        <v>88.2</v>
       </c>
       <c r="V10">
-        <v>0.1723728264391403</v>
+        <v>0.07946661861428957</v>
       </c>
       <c r="W10">
-        <v>0.1715630885122411</v>
+        <v>0.1965009601024109</v>
       </c>
       <c r="X10">
-        <v>0.04557715190074245</v>
+        <v>0.04021073733685054</v>
       </c>
       <c r="Y10">
-        <v>0.1259859366114986</v>
+        <v>0.1562902227655604</v>
       </c>
       <c r="Z10">
-        <v>2.856296758104738</v>
+        <v>0.999720933856195</v>
       </c>
       <c r="AA10">
-        <v>0.26969673919077</v>
+        <v>0.2686370501847185</v>
       </c>
       <c r="AB10">
-        <v>0.04526461770433675</v>
+        <v>0.04020062108848216</v>
       </c>
       <c r="AC10">
-        <v>0.2244321214864332</v>
+        <v>0.2284364290962363</v>
       </c>
       <c r="AD10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.4288022357143677</v>
       </c>
       <c r="AF10">
-        <v>12</v>
+        <v>0.4288022357143677</v>
       </c>
       <c r="AG10">
-        <v>-147.6</v>
+        <v>-87.77119776428563</v>
       </c>
       <c r="AH10">
-        <v>0.01279454099584177</v>
+        <v>0.0003861939227830066</v>
       </c>
       <c r="AI10">
-        <v>0.02065404475043029</v>
+        <v>0.000889024735256867</v>
       </c>
       <c r="AJ10">
-        <v>-0.1896440961068997</v>
+        <v>-0.08587097592035627</v>
       </c>
       <c r="AK10">
-        <v>-0.3502610346464167</v>
+        <v>-0.2226967358548762</v>
       </c>
       <c r="AL10">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>0.1</v>
-      </c>
-      <c r="AO10">
-        <v>332.9479768786127</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>-1.23</v>
-      </c>
-      <c r="AQ10">
-        <v>332.9479768786127</v>
+        <v>-0.76033852026894</v>
       </c>
     </row>
     <row r="11">
@@ -1743,97 +1779,97 @@
         </is>
       </c>
       <c r="G11">
-        <v>0.1467857142857143</v>
+        <v>0.1855345911949686</v>
       </c>
       <c r="H11">
-        <v>0.1467857142857143</v>
+        <v>0.1855345911949686</v>
       </c>
       <c r="I11">
-        <v>0.2142695647812143</v>
+        <v>0.2334821167497925</v>
       </c>
       <c r="J11">
-        <v>0.1792889797926033</v>
+        <v>0.2010130486809212</v>
       </c>
       <c r="K11">
-        <v>49.9</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="L11">
-        <v>0.1782142857142857</v>
+        <v>0.1647314949201742</v>
       </c>
       <c r="M11">
-        <v>7.257</v>
+        <v>9.6</v>
       </c>
       <c r="N11">
-        <v>0.003265829620629134</v>
+        <v>0.002115282919090428</v>
       </c>
       <c r="O11">
-        <v>0.1454308617234469</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="P11">
-        <v>6.64</v>
+        <v>7.8</v>
       </c>
       <c r="Q11">
-        <v>0.002988164349039197</v>
+        <v>0.001718667371760973</v>
       </c>
       <c r="R11">
-        <v>0.1330661322645291</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="S11">
-        <v>0.617</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
-        <v>0.08502135868816316</v>
+        <v>0.1875</v>
       </c>
       <c r="U11">
-        <v>86.3</v>
+        <v>78.7</v>
       </c>
       <c r="V11">
-        <v>0.03883713604248234</v>
+        <v>0.01734091309712674</v>
       </c>
       <c r="W11">
-        <v>0.1934858472276076</v>
+        <v>0.1746153846153846</v>
       </c>
       <c r="X11">
-        <v>0.04542856998026135</v>
+        <v>0.04040329302234194</v>
       </c>
       <c r="Y11">
-        <v>0.1480572772473463</v>
+        <v>0.1342120915930426</v>
       </c>
       <c r="Z11">
-        <v>1.443688844639473</v>
+        <v>1.311163590357163</v>
       </c>
       <c r="AA11">
-        <v>0.2588375000933733</v>
+        <v>0.2635609906171158</v>
       </c>
       <c r="AB11">
-        <v>0.04529872902815653</v>
+        <v>0.04016994259122737</v>
       </c>
       <c r="AC11">
-        <v>0.2135387710652168</v>
+        <v>0.2233910480258884</v>
       </c>
       <c r="AD11">
-        <v>11.2</v>
+        <v>40.1</v>
       </c>
       <c r="AE11">
-        <v>0.7476093062999414</v>
+        <v>0.3924646781789639</v>
       </c>
       <c r="AF11">
-        <v>11.94760930629994</v>
+        <v>40.49246467817896</v>
       </c>
       <c r="AG11">
-        <v>-74.35239069370006</v>
+        <v>-38.20753532182104</v>
       </c>
       <c r="AH11">
-        <v>0.005347965395424059</v>
+        <v>0.008843287976413511</v>
       </c>
       <c r="AI11">
-        <v>0.02972429498192485</v>
+        <v>0.07047162496441406</v>
       </c>
       <c r="AJ11">
-        <v>-0.03461877474407485</v>
+        <v>-0.008490200279590345</v>
       </c>
       <c r="AK11">
-        <v>-0.2355550572903264</v>
+        <v>-0.0770480256170392</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1842,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>0.183772253671343</v>
+        <v>0.4121274409044193</v>
       </c>
       <c r="AP11">
-        <v>-1.219991643181558</v>
+        <v>-0.3926776497617784</v>
       </c>
     </row>
     <row r="12">
@@ -1856,7 +1892,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The Progressive Corporation (NYSE:PGR)</t>
+          <t>Investors Title Company (NasdaqGS:ITIC)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1865,124 +1901,115 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.14</v>
+        <v>0.102</v>
       </c>
       <c r="E12">
-        <v>0.212</v>
-      </c>
-      <c r="F12">
-        <v>0.06900000000000001</v>
+        <v>0.213</v>
       </c>
       <c r="G12">
-        <v>0.09898957612897716</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="H12">
-        <v>0.09898957612897716</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="I12">
-        <v>0.1177950051540956</v>
+        <v>0.2031237755785268</v>
       </c>
       <c r="J12">
-        <v>0.09175232560137399</v>
+        <v>0.1620244322021239</v>
       </c>
       <c r="K12">
-        <v>3164.2</v>
+        <v>34.2</v>
       </c>
       <c r="L12">
-        <v>0.08718797962068463</v>
+        <v>0.1612446958981613</v>
       </c>
       <c r="M12">
-        <v>1673.1</v>
+        <v>3.258</v>
       </c>
       <c r="N12">
-        <v>0.03957349278471461</v>
+        <v>0.01125388601036269</v>
       </c>
       <c r="O12">
-        <v>0.5287592440427281</v>
+        <v>0.09526315789473684</v>
       </c>
       <c r="P12">
-        <v>1584.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q12">
-        <v>0.03748258562903428</v>
+        <v>0.01122625215889465</v>
       </c>
       <c r="R12">
-        <v>0.5008216926869351</v>
+        <v>0.09502923976608187</v>
       </c>
       <c r="S12">
-        <v>88.40000000000009</v>
+        <v>0.008000000000000007</v>
       </c>
       <c r="T12">
-        <v>0.05283605283605289</v>
+        <v>0.002455494168201352</v>
       </c>
       <c r="U12">
-        <v>45.9</v>
+        <v>41.5</v>
       </c>
       <c r="V12">
-        <v>0.001085663330834021</v>
+        <v>0.1433506044905009</v>
       </c>
       <c r="W12">
-        <v>0.278418639847249</v>
+        <v>0.1745788667687596</v>
       </c>
       <c r="X12">
-        <v>0.04755489484063243</v>
+        <v>0.04057115786218998</v>
       </c>
       <c r="Y12">
-        <v>0.2308637450066165</v>
+        <v>0.1340077089065696</v>
       </c>
       <c r="Z12">
-        <v>2.364404117912919</v>
+        <v>1.392762818293132</v>
       </c>
       <c r="AA12">
-        <v>0.2169395764799756</v>
+        <v>0.2256616048261745</v>
       </c>
       <c r="AB12">
-        <v>0.04485480703927783</v>
+        <v>0.04014361833152501</v>
       </c>
       <c r="AC12">
-        <v>0.1720847694406978</v>
+        <v>0.1855179864946495</v>
       </c>
       <c r="AD12">
-        <v>4610.6</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>205.0950572455477</v>
+        <v>4.73723599897234</v>
       </c>
       <c r="AF12">
-        <v>4815.695057245548</v>
+        <v>4.73723599897234</v>
       </c>
       <c r="AG12">
-        <v>4769.795057245548</v>
+        <v>-36.76276400102766</v>
       </c>
       <c r="AH12">
-        <v>0.1022570935294783</v>
+        <v>0.01610005607512193</v>
       </c>
       <c r="AI12">
-        <v>0.2513162212223171</v>
+        <v>0.02176666128490397</v>
       </c>
       <c r="AJ12">
-        <v>0.1013812578690364</v>
+        <v>-0.1454584396941697</v>
       </c>
       <c r="AK12">
-        <v>0.2495185337180577</v>
+        <v>-0.2087165941518587</v>
       </c>
       <c r="AL12">
-        <v>188.3</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>188.3</v>
+        <v>0</v>
       </c>
       <c r="AN12">
-        <v>1.000282038487406</v>
-      </c>
-      <c r="AO12">
-        <v>22.58045671800318</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.034819833216659</v>
-      </c>
-      <c r="AQ12">
-        <v>22.58045671800318</v>
+        <v>-0.7934980358520972</v>
       </c>
     </row>
     <row r="13">
@@ -1993,7 +2020,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Employers Holdings, Inc. (NYSE:EIG)</t>
+          <t>The Allstate Corporation (NYSE:ALL)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2002,121 +2029,124 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.00805</v>
+        <v>0.0437</v>
       </c>
       <c r="E13">
-        <v>0.12</v>
+        <v>0.135</v>
+      </c>
+      <c r="F13">
+        <v>0.073</v>
       </c>
       <c r="G13">
-        <v>0.2202758106597093</v>
+        <v>0.1628206577014352</v>
       </c>
       <c r="H13">
-        <v>0.2202758106597093</v>
+        <v>0.1628206577014352</v>
       </c>
       <c r="I13">
-        <v>0.2300202309025344</v>
+        <v>0.1690546725040832</v>
       </c>
       <c r="J13">
-        <v>0.1899018855455587</v>
+        <v>0.1358475046907812</v>
       </c>
       <c r="K13">
-        <v>151</v>
+        <v>4725</v>
       </c>
       <c r="L13">
-        <v>0.1876009442166729</v>
+        <v>0.1067917278788564</v>
       </c>
       <c r="M13">
-        <v>80.30000000000001</v>
+        <v>3199</v>
       </c>
       <c r="N13">
-        <v>0.06024006001500376</v>
+        <v>0.09570337041003764</v>
       </c>
       <c r="O13">
-        <v>0.5317880794701988</v>
+        <v>0.677037037037037</v>
       </c>
       <c r="P13">
-        <v>28.6</v>
+        <v>663</v>
       </c>
       <c r="Q13">
-        <v>0.02145536384096024</v>
+        <v>0.0198347404132088</v>
       </c>
       <c r="R13">
-        <v>0.1894039735099338</v>
+        <v>0.1403174603174603</v>
       </c>
       <c r="S13">
-        <v>51.70000000000001</v>
+        <v>2536</v>
       </c>
       <c r="T13">
-        <v>0.6438356164383562</v>
+        <v>0.7927477336667709</v>
       </c>
       <c r="U13">
-        <v>140.3</v>
+        <v>370</v>
       </c>
       <c r="V13">
-        <v>0.1052513128282071</v>
+        <v>0.01106916131657203</v>
       </c>
       <c r="W13">
-        <v>0.1523405972558515</v>
+        <v>0.2046517671517671</v>
       </c>
       <c r="X13">
-        <v>0.04588150930249386</v>
+        <v>0.0450853299562351</v>
       </c>
       <c r="Y13">
-        <v>0.1064590879533576</v>
+        <v>0.159566437195532</v>
       </c>
       <c r="Z13">
-        <v>1.015924120572562</v>
+        <v>1.463182495179897</v>
       </c>
       <c r="AA13">
-        <v>0.1929259060679431</v>
+        <v>0.19876969087742</v>
       </c>
       <c r="AB13">
-        <v>0.0451963141670919</v>
+        <v>0.03955649460972754</v>
       </c>
       <c r="AC13">
-        <v>0.1477295919008512</v>
+        <v>0.1592131962676924</v>
       </c>
       <c r="AD13">
-        <v>17.7</v>
+        <v>6635</v>
       </c>
       <c r="AE13">
-        <v>20.28358073275039</v>
+        <v>600.8800752841909</v>
       </c>
       <c r="AF13">
-        <v>37.98358073275038</v>
+        <v>7235.880075284191</v>
       </c>
       <c r="AG13">
-        <v>-102.3164192672496</v>
+        <v>6865.880075284191</v>
       </c>
       <c r="AH13">
-        <v>0.02770535057206832</v>
+        <v>0.1779515475324246</v>
       </c>
       <c r="AI13">
-        <v>0.03169567853184817</v>
+        <v>0.2097424629290545</v>
       </c>
       <c r="AJ13">
-        <v>-0.08313787627387563</v>
+        <v>0.1704027208934252</v>
       </c>
       <c r="AK13">
-        <v>-0.09669975144722767</v>
+        <v>0.201175076947702</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="AN13">
-        <v>0.08989334687658709</v>
+        <v>0.8022004594365857</v>
       </c>
       <c r="AO13">
-        <v>183.9</v>
+        <v>23.334375</v>
       </c>
       <c r="AP13">
-        <v>-0.5196364614893327</v>
+        <v>0.8301148682486025</v>
       </c>
       <c r="AQ13">
-        <v>183.9</v>
+        <v>23.334375</v>
       </c>
     </row>
     <row r="14">
@@ -2127,7 +2157,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Amerisafe, Inc. (NasdaqGS:AMSF)</t>
+          <t>Kemper Corporation (NYSE:KMPR)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2136,118 +2166,121 @@
         </is>
       </c>
       <c r="D14">
-        <v>-0.0106</v>
+        <v>0.17</v>
       </c>
       <c r="E14">
-        <v>0.07389999999999999</v>
-      </c>
-      <c r="F14">
-        <v>0.1</v>
+        <v>0.244</v>
       </c>
       <c r="G14">
-        <v>0.2374698472259447</v>
+        <v>0.1736711990111248</v>
       </c>
       <c r="H14">
-        <v>0.2374698472259447</v>
+        <v>0.1736711990111248</v>
       </c>
       <c r="I14">
-        <v>0.2557679255575229</v>
+        <v>0.1310743749817035</v>
       </c>
       <c r="J14">
-        <v>0.207777926946625</v>
+        <v>0.104854702241037</v>
       </c>
       <c r="K14">
-        <v>77.5</v>
+        <v>437.1</v>
       </c>
       <c r="L14">
-        <v>0.2077191101581345</v>
+        <v>0.08714462299134734</v>
       </c>
       <c r="M14">
-        <v>18.8</v>
+        <v>188.4</v>
       </c>
       <c r="N14">
-        <v>0.01470358204285938</v>
+        <v>0.03749029908662169</v>
       </c>
       <c r="O14">
-        <v>0.2425806451612903</v>
+        <v>0.4310226492793411</v>
       </c>
       <c r="P14">
-        <v>18.8</v>
+        <v>78</v>
       </c>
       <c r="Q14">
-        <v>0.01470358204285938</v>
+        <v>0.01552146140528924</v>
       </c>
       <c r="R14">
-        <v>0.2425806451612903</v>
+        <v>0.1784488675360329</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>110.4</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>0.5859872611464968</v>
       </c>
       <c r="U14">
-        <v>125.9</v>
+        <v>352.2</v>
       </c>
       <c r="V14">
-        <v>0.09846707336148915</v>
+        <v>0.07008536803772909</v>
       </c>
       <c r="W14">
-        <v>0.1688453159041394</v>
+        <v>0.1122438498279493</v>
       </c>
       <c r="X14">
-        <v>0.04533917762130268</v>
+        <v>0.0459191242217504</v>
       </c>
       <c r="Y14">
-        <v>0.1235061382828367</v>
+        <v>0.06632472560619887</v>
       </c>
       <c r="Z14">
-        <v>0.8754004692875392</v>
+        <v>1.369245335218803</v>
       </c>
       <c r="AA14">
-        <v>0.1818888947566675</v>
+        <v>0.1435718119192964</v>
       </c>
       <c r="AB14">
-        <v>0.04531950072770269</v>
+        <v>0.03946856042400691</v>
       </c>
       <c r="AC14">
-        <v>0.1365693940289648</v>
+        <v>0.1041032514952895</v>
       </c>
       <c r="AD14">
-        <v>0.536</v>
+        <v>1173.3</v>
       </c>
       <c r="AE14">
-        <v>0.5049348724410946</v>
+        <v>100.2857498338577</v>
       </c>
       <c r="AF14">
-        <v>1.040934872441095</v>
+        <v>1273.585749833858</v>
       </c>
       <c r="AG14">
-        <v>-124.8590651275589</v>
+        <v>921.3857498338575</v>
       </c>
       <c r="AH14">
-        <v>0.0008134585601896663</v>
+        <v>0.2021922289775537</v>
       </c>
       <c r="AI14">
-        <v>0.002215976499309693</v>
+        <v>0.2265729089565127</v>
       </c>
       <c r="AJ14">
-        <v>-0.1082210584314264</v>
+        <v>0.1549410526459381</v>
       </c>
       <c r="AK14">
-        <v>-0.3631303095830618</v>
+        <v>0.1748729795218868</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>34.7</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>34.7</v>
       </c>
       <c r="AN14">
-        <v>0.005558551458082715</v>
+        <v>1.60968582795994</v>
+      </c>
+      <c r="AO14">
+        <v>18.93371757925072</v>
       </c>
       <c r="AP14">
-        <v>-1.294842422611263</v>
+        <v>1.264077033658743</v>
+      </c>
+      <c r="AQ14">
+        <v>18.93371757925072</v>
       </c>
     </row>
     <row r="15">
@@ -2258,7 +2291,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Stewart Information Services Corporation (NYSE:STC)</t>
+          <t>Safety Insurance Group, Inc. (NasdaqGS:SAFT)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2267,121 +2300,118 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.00582</v>
-      </c>
-      <c r="E15">
-        <v>0.205</v>
+        <v>0.00975</v>
       </c>
       <c r="G15">
-        <v>0.0631891891891892</v>
+        <v>0.1548317566758472</v>
       </c>
       <c r="H15">
-        <v>0.0631891891891892</v>
+        <v>0.1548317566758472</v>
       </c>
       <c r="I15">
-        <v>0.06504391912969931</v>
+        <v>0.1687135468282385</v>
       </c>
       <c r="J15">
-        <v>0.04996978286788788</v>
+        <v>0.1342362700536476</v>
       </c>
       <c r="K15">
-        <v>90</v>
+        <v>113.3</v>
       </c>
       <c r="L15">
-        <v>0.04864864864864865</v>
+        <v>0.1356723745659202</v>
       </c>
       <c r="M15">
-        <v>29.269</v>
+        <v>95</v>
       </c>
       <c r="N15">
-        <v>0.03013384124369402</v>
+        <v>0.08188243406309256</v>
       </c>
       <c r="O15">
-        <v>0.3252111111111111</v>
+        <v>0.8384819064430715</v>
       </c>
       <c r="P15">
-        <v>28.3</v>
+        <v>55</v>
       </c>
       <c r="Q15">
-        <v>0.02913620920415938</v>
+        <v>0.0474056197207378</v>
       </c>
       <c r="R15">
-        <v>0.3144444444444445</v>
+        <v>0.4854368932038835</v>
       </c>
       <c r="S15">
-        <v>0.9690000000000012</v>
+        <v>40</v>
       </c>
       <c r="T15">
-        <v>0.0331066999214186</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="U15">
-        <v>243.6</v>
+        <v>59.7</v>
       </c>
       <c r="V15">
-        <v>0.250797899722022</v>
+        <v>0.05145664540596449</v>
       </c>
       <c r="W15">
-        <v>0.1341481591891489</v>
+        <v>0.1430374952657493</v>
       </c>
       <c r="X15">
-        <v>0.0518273487421073</v>
+        <v>0.04144712439993888</v>
       </c>
       <c r="Y15">
-        <v>0.08232081044704161</v>
+        <v>0.1015903708658104</v>
       </c>
       <c r="Z15">
-        <v>3.606633294648624</v>
+        <v>1.072515748493184</v>
       </c>
       <c r="AA15">
-        <v>0.1802226826176868</v>
+        <v>0.143970513651521</v>
       </c>
       <c r="AB15">
-        <v>0.04418153841563589</v>
+        <v>0.040012274668694</v>
       </c>
       <c r="AC15">
-        <v>0.1360411442020509</v>
+        <v>0.103958238982827</v>
       </c>
       <c r="AD15">
-        <v>217.6</v>
+        <v>30</v>
       </c>
       <c r="AE15">
-        <v>104.8437480502815</v>
+        <v>34.03658521869011</v>
       </c>
       <c r="AF15">
-        <v>322.4437480502814</v>
+        <v>64.03658521869011</v>
       </c>
       <c r="AG15">
-        <v>78.84374805028145</v>
+        <v>4.336585218690104</v>
       </c>
       <c r="AH15">
-        <v>0.2492330869511183</v>
+        <v>0.05230736116847137</v>
       </c>
       <c r="AI15">
-        <v>0.2979125149760665</v>
+        <v>0.07099898847452045</v>
       </c>
       <c r="AJ15">
-        <v>0.07507900532347536</v>
+        <v>0.003723872030929565</v>
       </c>
       <c r="AK15">
-        <v>0.094002188670329</v>
+        <v>0.005148892003502902</v>
       </c>
       <c r="AL15">
-        <v>4.52</v>
+        <v>0.331</v>
       </c>
       <c r="AM15">
-        <v>4.52</v>
+        <v>0.331</v>
       </c>
       <c r="AN15">
-        <v>1.317989097516656</v>
+        <v>0.193923723335488</v>
       </c>
       <c r="AO15">
-        <v>22.25663716814159</v>
+        <v>431.1178247734138</v>
       </c>
       <c r="AP15">
-        <v>0.4775514721398028</v>
+        <v>0.02803222507233422</v>
       </c>
       <c r="AQ15">
-        <v>22.25663716814159</v>
+        <v>431.1178247734138</v>
       </c>
     </row>
     <row r="16">
@@ -2392,7 +2422,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kemper Corporation (NYSE:KMPR)</t>
+          <t>Mercury General Corporation (NYSE:MCY)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2401,49 +2431,46 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.168</v>
+        <v>0.04679999999999999</v>
       </c>
       <c r="E16">
-        <v>0.317</v>
-      </c>
-      <c r="F16">
-        <v>0.1</v>
+        <v>0.514</v>
       </c>
       <c r="G16">
-        <v>0.1044905902569305</v>
+        <v>0.1242400497176362</v>
       </c>
       <c r="H16">
-        <v>0.1044905902569305</v>
+        <v>0.1242400497176362</v>
       </c>
       <c r="I16">
-        <v>0.1368010614247774</v>
+        <v>0.08150902824467852</v>
       </c>
       <c r="J16">
-        <v>0.110180024804529</v>
+        <v>0.06977335894042506</v>
       </c>
       <c r="K16">
-        <v>412.9</v>
+        <v>239.6</v>
       </c>
       <c r="L16">
-        <v>0.08548477257199642</v>
+        <v>0.06474100894377043</v>
       </c>
       <c r="M16">
-        <v>64.8</v>
+        <v>139.5</v>
       </c>
       <c r="N16">
-        <v>0.01259279412336274</v>
+        <v>0.04826655594768529</v>
       </c>
       <c r="O16">
-        <v>0.1569387260837975</v>
+        <v>0.582220367278798</v>
       </c>
       <c r="P16">
-        <v>64.8</v>
+        <v>139.5</v>
       </c>
       <c r="Q16">
-        <v>0.01259279412336274</v>
+        <v>0.04826655594768529</v>
       </c>
       <c r="R16">
-        <v>0.1569387260837975</v>
+        <v>0.582220367278798</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2452,73 +2479,73 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>133.6</v>
+        <v>322.1</v>
       </c>
       <c r="V16">
-        <v>0.02596292121730343</v>
+        <v>0.1114455747007128</v>
       </c>
       <c r="W16">
-        <v>0.1347672824596906</v>
+        <v>0.1329264909847434</v>
       </c>
       <c r="X16">
-        <v>0.04918964776019872</v>
+        <v>0.0434889016271446</v>
       </c>
       <c r="Y16">
-        <v>0.08557763469949184</v>
+        <v>0.08943758935759881</v>
       </c>
       <c r="Z16">
-        <v>1.551746643466403</v>
+        <v>1.983103579362916</v>
       </c>
       <c r="AA16">
-        <v>0.1709714836674729</v>
+        <v>0.1383677978589304</v>
       </c>
       <c r="AB16">
-        <v>0.04456823123276926</v>
+        <v>0.03974068936103021</v>
       </c>
       <c r="AC16">
-        <v>0.1264032524347036</v>
+        <v>0.09862710849790024</v>
       </c>
       <c r="AD16">
-        <v>916.3</v>
+        <v>372.4</v>
       </c>
       <c r="AE16">
-        <v>99.18596606091383</v>
+        <v>48.71618684634596</v>
       </c>
       <c r="AF16">
-        <v>1015.485966060914</v>
+        <v>421.116186846346</v>
       </c>
       <c r="AG16">
-        <v>881.8859660609138</v>
+        <v>99.01618684634593</v>
       </c>
       <c r="AH16">
-        <v>0.1648172105068097</v>
+        <v>0.1271748643391894</v>
       </c>
       <c r="AI16">
-        <v>0.2068331809978567</v>
+        <v>0.1813658000370422</v>
       </c>
       <c r="AJ16">
-        <v>0.1463058910212645</v>
+        <v>0.03312446496243854</v>
       </c>
       <c r="AK16">
-        <v>0.184646166825228</v>
+        <v>0.04951264396078906</v>
       </c>
       <c r="AL16">
-        <v>46.6</v>
+        <v>17</v>
       </c>
       <c r="AM16">
-        <v>46.6</v>
+        <v>17</v>
       </c>
       <c r="AN16">
-        <v>1.172188819240118</v>
+        <v>0.9818085947798575</v>
       </c>
       <c r="AO16">
-        <v>14.16523605150215</v>
+        <v>17.46470588235294</v>
       </c>
       <c r="AP16">
-        <v>1.128164213970722</v>
+        <v>0.2610497939529289</v>
       </c>
       <c r="AQ16">
-        <v>14.16523605150215</v>
+        <v>17.46470588235294</v>
       </c>
     </row>
     <row r="17">
@@ -2529,7 +2556,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Heritage Insurance Holdings, Inc. (NYSE:HRTG)</t>
+          <t>NI Holdings, Inc. (NasdaqCM:NODK)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2537,122 +2564,110 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D17">
-        <v>0.223</v>
-      </c>
-      <c r="E17">
-        <v>-0.06900000000000001</v>
-      </c>
       <c r="G17">
-        <v>0.1940928270042194</v>
+        <v>0.1227891156462585</v>
       </c>
       <c r="H17">
-        <v>0.1940928270042194</v>
+        <v>0.1227891156462585</v>
       </c>
       <c r="I17">
-        <v>0.09929636233744121</v>
+        <v>0.153845346592561</v>
       </c>
       <c r="J17">
-        <v>0.06950745363620885</v>
+        <v>0.1221274513479273</v>
       </c>
       <c r="K17">
-        <v>19.7</v>
+        <v>35.9</v>
       </c>
       <c r="L17">
-        <v>0.0395820775567611</v>
+        <v>0.122108843537415</v>
       </c>
       <c r="M17">
-        <v>20.68</v>
+        <v>11.4</v>
       </c>
       <c r="N17">
-        <v>0.05364461738002594</v>
+        <v>0.03258073735352959</v>
       </c>
       <c r="O17">
-        <v>1.049746192893401</v>
+        <v>0.3175487465181059</v>
       </c>
       <c r="P17">
-        <v>6.78</v>
+        <v>-0</v>
       </c>
       <c r="Q17">
-        <v>0.01758754863813229</v>
+        <v>-0</v>
       </c>
       <c r="R17">
-        <v>0.3441624365482234</v>
+        <v>-0</v>
       </c>
       <c r="S17">
-        <v>13.9</v>
+        <v>11.4</v>
       </c>
       <c r="T17">
-        <v>0.6721470019342359</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>230</v>
+        <v>71.3</v>
       </c>
       <c r="V17">
-        <v>0.5966277561608301</v>
+        <v>0.2037725064304087</v>
       </c>
       <c r="W17">
-        <v>0.05043522785458269</v>
+        <v>0.1243074792243767</v>
       </c>
       <c r="X17">
-        <v>0.0528964726327123</v>
+        <v>0.0403759228287542</v>
       </c>
       <c r="Y17">
-        <v>-0.002461244778129611</v>
+        <v>0.08393155639562253</v>
       </c>
       <c r="Z17">
-        <v>2.434800447839316</v>
+        <v>1.104029050527207</v>
       </c>
       <c r="AA17">
-        <v>0.1692367792416118</v>
+        <v>0.1348322541549598</v>
       </c>
       <c r="AB17">
-        <v>0.04530069971292745</v>
+        <v>0.04017427159804503</v>
       </c>
       <c r="AC17">
-        <v>0.1239360795286844</v>
+        <v>0.09465798255691479</v>
       </c>
       <c r="AD17">
-        <v>139.5</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>9.511002323277546</v>
+        <v>2.69734050893523</v>
       </c>
       <c r="AF17">
-        <v>149.0110023232776</v>
+        <v>2.69734050893523</v>
       </c>
       <c r="AG17">
-        <v>-80.98899767672245</v>
+        <v>-68.60265949106477</v>
       </c>
       <c r="AH17">
-        <v>0.2787800469505662</v>
+        <v>0.007649917339257064</v>
       </c>
       <c r="AI17">
-        <v>0.2507711936343596</v>
+        <v>0.008218654376517701</v>
       </c>
       <c r="AJ17">
-        <v>-0.2659641098640574</v>
+        <v>-0.2438795168377557</v>
       </c>
       <c r="AK17">
-        <v>-0.2223683446136967</v>
+        <v>-0.2670430894891988</v>
       </c>
       <c r="AL17">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="AN17">
-        <v>2.138848854680936</v>
-      </c>
-      <c r="AO17">
-        <v>4.54054054054054</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>-1.241743547832364</v>
-      </c>
-      <c r="AQ17">
-        <v>4.54054054054054</v>
+        <v>-1.4636795282924</v>
       </c>
     </row>
     <row r="18">
@@ -2663,7 +2678,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Investors Title Company (NasdaqGS:ITIC)</t>
+          <t>Donegal Group Inc. (NasdaqGS:DGIC.A)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2672,115 +2687,121 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.0573</v>
+        <v>0.0459</v>
       </c>
       <c r="E18">
-        <v>0.182</v>
+        <v>0.174</v>
       </c>
       <c r="G18">
-        <v>0.1798649478207489</v>
+        <v>0.08217074107257136</v>
       </c>
       <c r="H18">
-        <v>0.1798649478207489</v>
+        <v>0.08217074107257136</v>
       </c>
       <c r="I18">
-        <v>0.1604281534076411</v>
+        <v>0.08242672468961988</v>
       </c>
       <c r="J18">
-        <v>0.1260328567042908</v>
+        <v>0.06834114515405193</v>
       </c>
       <c r="K18">
-        <v>20.2</v>
+        <v>52.4</v>
       </c>
       <c r="L18">
-        <v>0.1240024554941682</v>
+        <v>0.06706770766670933</v>
       </c>
       <c r="M18">
-        <v>3.031</v>
+        <v>16.7</v>
       </c>
       <c r="N18">
-        <v>0.01020882452004042</v>
+        <v>0.04110263352202805</v>
       </c>
       <c r="O18">
-        <v>0.1500495049504951</v>
+        <v>0.3187022900763359</v>
       </c>
       <c r="P18">
-        <v>3.02</v>
+        <v>16.7</v>
       </c>
       <c r="Q18">
-        <v>0.01017177500842035</v>
+        <v>0.04110263352202805</v>
       </c>
       <c r="R18">
-        <v>0.1495049504950495</v>
+        <v>0.3187022900763359</v>
       </c>
       <c r="S18">
-        <v>0.01100000000000012</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>0.003629165291982884</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>44</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="V18">
-        <v>0.1481980464802964</v>
+        <v>0.2163426039872016</v>
       </c>
       <c r="W18">
-        <v>0.1033248081841432</v>
+        <v>0.1183913239945775</v>
       </c>
       <c r="X18">
-        <v>0.04587432696687745</v>
+        <v>0.04519897709980214</v>
       </c>
       <c r="Y18">
-        <v>0.05745048121726577</v>
+        <v>0.07319234689477534</v>
       </c>
       <c r="Z18">
-        <v>1.031134899599922</v>
+        <v>1.852870728294638</v>
       </c>
       <c r="AA18">
-        <v>0.1299568770440702</v>
+        <v>0.1266273073940777</v>
       </c>
       <c r="AB18">
-        <v>0.04519790223910949</v>
+        <v>0.03954419584051906</v>
       </c>
       <c r="AC18">
-        <v>0.08475897480496075</v>
+        <v>0.08708311155355868</v>
       </c>
       <c r="AD18">
-        <v>4.62</v>
+        <v>90</v>
       </c>
       <c r="AE18">
-        <v>3.731269049476313</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>8.351269049476313</v>
+        <v>90</v>
       </c>
       <c r="AG18">
-        <v>-35.64873095052369</v>
+        <v>2.099999999999994</v>
       </c>
       <c r="AH18">
-        <v>0.02735867102365006</v>
+        <v>0.1813419302841024</v>
       </c>
       <c r="AI18">
-        <v>0.04088723212512018</v>
+        <v>0.1514896482073725</v>
       </c>
       <c r="AJ18">
-        <v>-0.1364538096990927</v>
+        <v>0.005142017629774717</v>
       </c>
       <c r="AK18">
-        <v>-0.2224552177463095</v>
+        <v>0.004148557882259965</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AN18">
-        <v>0.1588720770288858</v>
+        <v>1.272984441301273</v>
+      </c>
+      <c r="AO18">
+        <v>56.49122807017545</v>
       </c>
       <c r="AP18">
-        <v>-1.225884833236716</v>
+        <v>0.02970297029702962</v>
+      </c>
+      <c r="AQ18">
+        <v>56.49122807017545</v>
       </c>
     </row>
     <row r="19">
@@ -2791,7 +2812,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Safety Insurance Group, Inc. (NasdaqGS:SAFT)</t>
+          <t>Heritage Insurance Holdings, Inc. (NYSE:HRTG)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2800,121 +2821,124 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.0211</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E19">
-        <v>0.0818</v>
+        <v>-0.268</v>
+      </c>
+      <c r="F19">
+        <v>0.07000000000000001</v>
       </c>
       <c r="G19">
-        <v>0.1281512605042017</v>
+        <v>0.1048401188188013</v>
       </c>
       <c r="H19">
-        <v>0.1281512605042017</v>
+        <v>0.1048401188188013</v>
       </c>
       <c r="I19">
-        <v>0.1267483336582872</v>
+        <v>0.06349857078865266</v>
       </c>
       <c r="J19">
-        <v>0.1021723551392656</v>
+        <v>0.04264105413376883</v>
       </c>
       <c r="K19">
-        <v>89.8</v>
+        <v>19.3</v>
       </c>
       <c r="L19">
-        <v>0.1048085901027078</v>
+        <v>0.0337235715533811</v>
       </c>
       <c r="M19">
-        <v>51.1</v>
+        <v>24.84</v>
       </c>
       <c r="N19">
-        <v>0.03585713283278367</v>
+        <v>0.08843004627981489</v>
       </c>
       <c r="O19">
-        <v>0.5690423162583519</v>
+        <v>1.287046632124352</v>
       </c>
       <c r="P19">
-        <v>51.1</v>
+        <v>6.94</v>
       </c>
       <c r="Q19">
-        <v>0.03585713283278367</v>
+        <v>0.0247063011747953</v>
       </c>
       <c r="R19">
-        <v>0.5690423162583519</v>
+        <v>0.3595854922279793</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>0.7206119162640902</v>
       </c>
       <c r="U19">
-        <v>47.5</v>
+        <v>509.6</v>
       </c>
       <c r="V19">
-        <v>0.03333099431618834</v>
+        <v>1.814168743325027</v>
       </c>
       <c r="W19">
-        <v>0.1261413119820199</v>
+        <v>0.04335130278526505</v>
       </c>
       <c r="X19">
-        <v>0.04629260760712649</v>
+        <v>0.05083468866001463</v>
       </c>
       <c r="Y19">
-        <v>0.07984870437489346</v>
+        <v>-0.00748338587474958</v>
       </c>
       <c r="Z19">
-        <v>1.23225587033065</v>
+        <v>2.813683700836782</v>
       </c>
       <c r="AA19">
-        <v>0.1259024844058681</v>
+        <v>0.1199784390026842</v>
       </c>
       <c r="AB19">
-        <v>0.04510726611900807</v>
+        <v>0.03903995035127322</v>
       </c>
       <c r="AC19">
-        <v>0.08079521828686</v>
+        <v>0.08093848865141101</v>
       </c>
       <c r="AD19">
-        <v>35.8</v>
+        <v>122.9</v>
       </c>
       <c r="AE19">
-        <v>34.71013860789761</v>
+        <v>9.498839688270401</v>
       </c>
       <c r="AF19">
-        <v>70.5101386078976</v>
+        <v>132.3988396882704</v>
       </c>
       <c r="AG19">
-        <v>23.0101386078976</v>
+        <v>-377.2011603117296</v>
       </c>
       <c r="AH19">
-        <v>0.04714473163008102</v>
+        <v>0.3203465071136709</v>
       </c>
       <c r="AI19">
-        <v>0.08174044733776104</v>
+        <v>0.2300592643418476</v>
       </c>
       <c r="AJ19">
-        <v>0.01588977108468959</v>
+        <v>3.916891126656404</v>
       </c>
       <c r="AK19">
-        <v>0.02822948398997457</v>
+        <v>-5.723942365238171</v>
       </c>
       <c r="AL19">
-        <v>0.09</v>
+        <v>7.96</v>
       </c>
       <c r="AM19">
-        <v>0.09</v>
+        <v>7.96</v>
       </c>
       <c r="AN19">
-        <v>0.2957699933906147</v>
+        <v>2.646425495262705</v>
       </c>
       <c r="AO19">
-        <v>1238.888888888889</v>
+        <v>4.623115577889447</v>
       </c>
       <c r="AP19">
-        <v>0.1901035906138268</v>
+        <v>-8.122333340045857</v>
       </c>
       <c r="AQ19">
-        <v>1238.888888888889</v>
+        <v>4.623115577889447</v>
       </c>
     </row>
     <row r="20">
@@ -2925,7 +2949,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mercury General Corporation (NYSE:MCY)</t>
+          <t>RLI Corp. (NYSE:RLI)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2934,49 +2958,46 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.04849999999999999</v>
+        <v>0.0361</v>
       </c>
       <c r="E20">
-        <v>-0.00735</v>
-      </c>
-      <c r="F20">
-        <v>0.352</v>
+        <v>-0.0215</v>
       </c>
       <c r="G20">
-        <v>0.01189129462524006</v>
+        <v>0.2410212946286683</v>
       </c>
       <c r="H20">
-        <v>0.01189129462524006</v>
+        <v>0.2410212946286683</v>
       </c>
       <c r="I20">
-        <v>0.06748687257409763</v>
+        <v>0.1456378207388115</v>
       </c>
       <c r="J20">
-        <v>0.05928056068796161</v>
+        <v>0.1227546478397706</v>
       </c>
       <c r="K20">
-        <v>206.5</v>
+        <v>126.7</v>
       </c>
       <c r="L20">
-        <v>0.05432637920601931</v>
+        <v>0.1342303210085814</v>
       </c>
       <c r="M20">
-        <v>138.9</v>
+        <v>42.3</v>
       </c>
       <c r="N20">
-        <v>0.05155710626925504</v>
+        <v>0.009014384656366541</v>
       </c>
       <c r="O20">
-        <v>0.6726392251815981</v>
+        <v>0.3338595106550907</v>
       </c>
       <c r="P20">
-        <v>138.9</v>
+        <v>42.3</v>
       </c>
       <c r="Q20">
-        <v>0.05155710626925504</v>
+        <v>0.009014384656366541</v>
       </c>
       <c r="R20">
-        <v>0.6726392251815981</v>
+        <v>0.3338595106550907</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2985,73 +3006,73 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>315.4</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="V20">
-        <v>0.1170706358338592</v>
+        <v>0.01504528502930208</v>
       </c>
       <c r="W20">
-        <v>0.1190750778456925</v>
+        <v>0.126750700280112</v>
       </c>
       <c r="X20">
-        <v>0.04869961782775825</v>
+        <v>0.0410383192002471</v>
       </c>
       <c r="Y20">
-        <v>0.07037546001793428</v>
+        <v>0.08571238107986494</v>
       </c>
       <c r="Z20">
-        <v>2.060576154036787</v>
+        <v>0.8876560656148376</v>
       </c>
       <c r="AA20">
-        <v>0.1221521097515443</v>
+        <v>0.1089639077373857</v>
       </c>
       <c r="AB20">
-        <v>0.04464985330204745</v>
+        <v>0.04007234748599076</v>
       </c>
       <c r="AC20">
-        <v>0.07750225644949681</v>
+        <v>0.06889156025139492</v>
       </c>
       <c r="AD20">
-        <v>421.9</v>
+        <v>149.4</v>
       </c>
       <c r="AE20">
-        <v>42.37824329298738</v>
+        <v>24.56230502317888</v>
       </c>
       <c r="AF20">
-        <v>464.2782432929873</v>
+        <v>173.9623050231789</v>
       </c>
       <c r="AG20">
-        <v>148.8782432929873</v>
+        <v>103.3623050231789</v>
       </c>
       <c r="AH20">
-        <v>0.1469989366469678</v>
+        <v>0.03574718021418032</v>
       </c>
       <c r="AI20">
-        <v>0.2048185545572038</v>
+        <v>0.1366272325324294</v>
       </c>
       <c r="AJ20">
-        <v>0.05236700057209846</v>
+        <v>0.02155239213496963</v>
       </c>
       <c r="AK20">
-        <v>0.07629389320327386</v>
+        <v>0.08594457861651097</v>
       </c>
       <c r="AL20">
-        <v>17</v>
+        <v>7.71</v>
       </c>
       <c r="AM20">
-        <v>17</v>
+        <v>7.71</v>
       </c>
       <c r="AN20">
-        <v>1.28824427480916</v>
+        <v>0.9921636339487317</v>
       </c>
       <c r="AO20">
-        <v>14.83529411764706</v>
+        <v>17.69130998702983</v>
       </c>
       <c r="AP20">
-        <v>0.4545900558564499</v>
+        <v>0.6864278458173655</v>
       </c>
       <c r="AQ20">
-        <v>14.83529411764706</v>
+        <v>17.69130998702983</v>
       </c>
     </row>
     <row r="21">
@@ -3062,7 +3083,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HCI Group, Inc. (NYSE:HCI)</t>
+          <t>The Hanover Insurance Group, Inc. (NYSE:THG)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3071,124 +3092,124 @@
         </is>
       </c>
       <c r="D21">
-        <v>-0.0272</v>
+        <v>-0.0131</v>
       </c>
       <c r="E21">
-        <v>-0.288</v>
+        <v>-0.0244</v>
       </c>
       <c r="F21">
-        <v>0.25</v>
+        <v>0.025</v>
       </c>
       <c r="G21">
-        <v>0.2088716623600345</v>
+        <v>0.1213817300864626</v>
       </c>
       <c r="H21">
-        <v>0.2088716623600345</v>
+        <v>0.1213817300864626</v>
       </c>
       <c r="I21">
-        <v>0.13713474180452</v>
+        <v>0.08812647610136318</v>
       </c>
       <c r="J21">
-        <v>0.1003654891581831</v>
+        <v>0.07271858736489101</v>
       </c>
       <c r="K21">
-        <v>11.7</v>
+        <v>303.9</v>
       </c>
       <c r="L21">
-        <v>0.05038759689922481</v>
+        <v>0.0634685267950378</v>
       </c>
       <c r="M21">
-        <v>29.4</v>
+        <v>356.8</v>
       </c>
       <c r="N21">
-        <v>0.0801526717557252</v>
+        <v>0.08381292429118412</v>
       </c>
       <c r="O21">
-        <v>2.512820512820513</v>
+        <v>1.174070417900625</v>
       </c>
       <c r="P21">
-        <v>12.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="Q21">
-        <v>0.03489640130861505</v>
+        <v>0.02323177750111578</v>
       </c>
       <c r="R21">
-        <v>1.094017094017094</v>
+        <v>0.3254359986837776</v>
       </c>
       <c r="S21">
-        <v>16.6</v>
+        <v>257.9</v>
       </c>
       <c r="T21">
-        <v>0.564625850340136</v>
+        <v>0.7228139013452916</v>
       </c>
       <c r="U21">
-        <v>214.6</v>
+        <v>231.5</v>
       </c>
       <c r="V21">
-        <v>0.5850599781897492</v>
+        <v>0.05437974207794038</v>
       </c>
       <c r="W21">
-        <v>0.06090577824049974</v>
+        <v>0.09845147077880004</v>
       </c>
       <c r="X21">
-        <v>0.05461849319808655</v>
+        <v>0.04456345829797796</v>
       </c>
       <c r="Y21">
-        <v>0.006287285042413188</v>
+        <v>0.05388801248082208</v>
       </c>
       <c r="Z21">
-        <v>1.207981010267673</v>
+        <v>1.383527336141264</v>
       </c>
       <c r="AA21">
-        <v>0.1212396049893112</v>
+        <v>0.1006081534649034</v>
       </c>
       <c r="AB21">
-        <v>0.04529722562362354</v>
+        <v>0.03961430426883</v>
       </c>
       <c r="AC21">
-        <v>0.07594237936568765</v>
+        <v>0.06099384919607342</v>
       </c>
       <c r="AD21">
-        <v>173.3</v>
+        <v>780.4</v>
       </c>
       <c r="AE21">
-        <v>0.7215647649522622</v>
+        <v>42.66403565726431</v>
       </c>
       <c r="AF21">
-        <v>174.0215647649523</v>
+        <v>823.0640356572643</v>
       </c>
       <c r="AG21">
-        <v>-40.57843523504772</v>
+        <v>591.5640356572643</v>
       </c>
       <c r="AH21">
-        <v>0.3217726069051706</v>
+        <v>0.1620152479093674</v>
       </c>
       <c r="AI21">
-        <v>0.4857931009238286</v>
+        <v>0.2069006502358316</v>
       </c>
       <c r="AJ21">
-        <v>-0.1243891870369916</v>
+        <v>0.1220055733511085</v>
       </c>
       <c r="AK21">
-        <v>-0.2825372032497867</v>
+        <v>0.1578950820077163</v>
       </c>
       <c r="AL21">
-        <v>14.7</v>
+        <v>38</v>
       </c>
       <c r="AM21">
-        <v>14.7</v>
+        <v>38</v>
       </c>
       <c r="AN21">
-        <v>5.099008444405214</v>
+        <v>1.737310774710596</v>
       </c>
       <c r="AO21">
-        <v>2.156462585034014</v>
+        <v>10.93157894736842</v>
       </c>
       <c r="AP21">
-        <v>-1.193939895696817</v>
+        <v>1.316927951151523</v>
       </c>
       <c r="AQ21">
-        <v>2.156462585034014</v>
+        <v>10.93157894736842</v>
       </c>
     </row>
     <row r="22">
@@ -3199,7 +3220,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Selective Insurance Group, Inc. (NasdaqGS:SIGI)</t>
+          <t>Palomar Holdings, Inc. (NasdaqGS:PLMR)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3207,125 +3228,107 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D22">
-        <v>0.0645</v>
-      </c>
-      <c r="E22">
-        <v>0.134</v>
-      </c>
-      <c r="F22">
-        <v>0.0771</v>
-      </c>
       <c r="G22">
-        <v>0.1017894660581033</v>
+        <v>0.1206467661691542</v>
       </c>
       <c r="H22">
-        <v>0.1017894660581033</v>
+        <v>0.1206467661691542</v>
       </c>
       <c r="I22">
-        <v>0.1162141600141174</v>
+        <v>0.1436828817474868</v>
       </c>
       <c r="J22">
-        <v>0.09529399262996044</v>
+        <v>0.1183822003962989</v>
       </c>
       <c r="K22">
-        <v>235.5</v>
+        <v>19</v>
       </c>
       <c r="L22">
-        <v>0.08530754183873071</v>
+        <v>0.1181592039800995</v>
       </c>
       <c r="M22">
-        <v>54</v>
+        <v>-0</v>
       </c>
       <c r="N22">
-        <v>0.01402670268585381</v>
+        <v>-0</v>
       </c>
       <c r="O22">
-        <v>0.2292993630573248</v>
+        <v>-0</v>
       </c>
       <c r="P22">
-        <v>45.8</v>
+        <v>-0</v>
       </c>
       <c r="Q22">
-        <v>0.01189672190763156</v>
+        <v>-0</v>
       </c>
       <c r="R22">
-        <v>0.1944798301486199</v>
+        <v>-0</v>
       </c>
       <c r="S22">
-        <v>8.200000000000003</v>
-      </c>
-      <c r="T22">
-        <v>0.1518518518518519</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0.516</v>
+        <v>14</v>
       </c>
       <c r="V22">
-        <v>0.0001340329367759364</v>
+        <v>0.006175290018084778</v>
       </c>
       <c r="W22">
-        <v>0.1354616048317515</v>
+        <v>0.09112709832134293</v>
       </c>
       <c r="X22">
-        <v>0.04844187105185674</v>
+        <v>0.04023877831141814</v>
       </c>
       <c r="Y22">
-        <v>0.08701973377989478</v>
+        <v>0.05088832000992478</v>
       </c>
       <c r="Z22">
-        <v>1.253393899439529</v>
+        <v>0.8216911624318028</v>
       </c>
       <c r="AA22">
-        <v>0.1194409090156279</v>
+        <v>0.09727360785486944</v>
       </c>
       <c r="AB22">
-        <v>0.04469419857153484</v>
+        <v>0.04020395856907379</v>
       </c>
       <c r="AC22">
-        <v>0.07474671044409302</v>
+        <v>0.05706964928579564</v>
       </c>
       <c r="AD22">
-        <v>579.9</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>32.89594932513802</v>
+        <v>3.69396307502064</v>
       </c>
       <c r="AF22">
-        <v>612.7959493251381</v>
+        <v>3.69396307502064</v>
       </c>
       <c r="AG22">
-        <v>612.2799493251381</v>
+        <v>-10.30603692497936</v>
       </c>
       <c r="AH22">
-        <v>0.1373182686229545</v>
+        <v>0.001626727538952243</v>
       </c>
       <c r="AI22">
-        <v>0.2228190138508168</v>
+        <v>0.01010400457368228</v>
       </c>
       <c r="AJ22">
-        <v>0.1372185071264224</v>
+        <v>-0.004566671611854522</v>
       </c>
       <c r="AK22">
-        <v>0.2226731694630176</v>
+        <v>-0.0293123261697765</v>
       </c>
       <c r="AL22">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="AM22">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="AN22">
-        <v>1.527660695468914</v>
-      </c>
-      <c r="AO22">
-        <v>9.864197530864198</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.612960878095727</v>
-      </c>
-      <c r="AQ22">
-        <v>9.864197530864198</v>
+        <v>-0.4268747431959309</v>
       </c>
     </row>
     <row r="23">
@@ -3336,7 +3339,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NI Holdings, Inc. (NasdaqCM:NODK)</t>
+          <t>HCI Group, Inc. (NYSE:HCI)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3344,110 +3347,125 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D23">
+        <v>-0.015</v>
+      </c>
+      <c r="E23">
+        <v>-0.147</v>
+      </c>
+      <c r="F23">
+        <v>0.25</v>
+      </c>
       <c r="G23">
-        <v>0.1485380116959064</v>
+        <v>0.1993243243243243</v>
       </c>
       <c r="H23">
-        <v>0.1485380116959064</v>
+        <v>0.1993243243243243</v>
       </c>
       <c r="I23">
-        <v>0.1227780235110697</v>
+        <v>0.06764104040022598</v>
       </c>
       <c r="J23">
-        <v>0.09554648752720425</v>
+        <v>0.04946646178801573</v>
       </c>
       <c r="K23">
-        <v>24.2</v>
+        <v>31.3</v>
       </c>
       <c r="L23">
-        <v>0.09434697855750487</v>
+        <v>0.1174924924924925</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="N23">
-        <v>0.0134698275862069</v>
+        <v>0.05508982035928144</v>
       </c>
       <c r="O23">
-        <v>0.2066115702479339</v>
+        <v>0.7348242811501597</v>
       </c>
       <c r="P23">
-        <v>-0</v>
+        <v>12.7</v>
       </c>
       <c r="Q23">
-        <v>-0</v>
+        <v>0.0304191616766467</v>
       </c>
       <c r="R23">
-        <v>-0</v>
+        <v>0.4057507987220447</v>
       </c>
       <c r="S23">
-        <v>5</v>
+        <v>10.3</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0.4478260869565218</v>
       </c>
       <c r="U23">
-        <v>25.2</v>
+        <v>410.7</v>
       </c>
       <c r="V23">
-        <v>0.06788793103448276</v>
+        <v>0.9837125748502994</v>
       </c>
       <c r="W23">
-        <v>0.09090909090909091</v>
+        <v>0.1699239956568947</v>
       </c>
       <c r="X23">
-        <v>0.04535184424773367</v>
+        <v>0.04911395111673386</v>
       </c>
       <c r="Y23">
-        <v>0.04555724666135724</v>
+        <v>0.1208100445401608</v>
       </c>
       <c r="Z23">
-        <v>1.207557844125996</v>
+        <v>1.865061221764796</v>
       </c>
       <c r="AA23">
-        <v>0.1153779104921621</v>
+        <v>0.09225797965873819</v>
       </c>
       <c r="AB23">
-        <v>0.04531654593143615</v>
+        <v>0.03917475745404351</v>
       </c>
       <c r="AC23">
-        <v>0.07006136456072597</v>
+        <v>0.05308322220469468</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>164.4</v>
       </c>
       <c r="AE23">
-        <v>0.5421848470530939</v>
+        <v>0.5371341868990249</v>
       </c>
       <c r="AF23">
-        <v>0.5421848470530939</v>
+        <v>164.937134186899</v>
       </c>
       <c r="AG23">
-        <v>-24.65781515294691</v>
+        <v>-245.7628658131009</v>
       </c>
       <c r="AH23">
-        <v>0.001458496961479275</v>
+        <v>0.283184440870441</v>
       </c>
       <c r="AI23">
-        <v>0.001851457457661944</v>
+        <v>0.4523322468368199</v>
       </c>
       <c r="AJ23">
-        <v>-0.07115386302487148</v>
+        <v>-1.43104091597127</v>
       </c>
       <c r="AK23">
-        <v>-0.09212977829723618</v>
+        <v>5.335379409745765</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>7.497605691613079</v>
+      </c>
+      <c r="AO23">
+        <v>1.508474576271186</v>
       </c>
       <c r="AP23">
-        <v>-0.6811362988024338</v>
+        <v>-11.20823030114019</v>
+      </c>
+      <c r="AQ23">
+        <v>1.508474576271186</v>
       </c>
     </row>
     <row r="24">
@@ -3458,7 +3476,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RLI Corp. (NYSE:RLI)</t>
+          <t>The Travelers Companies, Inc. (NYSE:TRV)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3467,121 +3485,124 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.0377</v>
+        <v>0.0329</v>
       </c>
       <c r="E24">
-        <v>-0.0226</v>
+        <v>-0.0895</v>
+      </c>
+      <c r="F24">
+        <v>0.0699</v>
       </c>
       <c r="G24">
-        <v>0.0724399078037537</v>
+        <v>0.1341359370556451</v>
       </c>
       <c r="H24">
-        <v>0.0724399078037537</v>
+        <v>0.1341359370556451</v>
       </c>
       <c r="I24">
-        <v>0.1386888397547597</v>
+        <v>0.09684156369921187</v>
       </c>
       <c r="J24">
-        <v>0.1192237394383022</v>
+        <v>0.08121036510583259</v>
       </c>
       <c r="K24">
-        <v>117.6</v>
+        <v>2260</v>
       </c>
       <c r="L24">
-        <v>0.1290747448139611</v>
+        <v>0.07141277214269914</v>
       </c>
       <c r="M24">
-        <v>40.3</v>
+        <v>1701</v>
       </c>
       <c r="N24">
-        <v>0.009970311726867886</v>
+        <v>0.04783868155356188</v>
       </c>
       <c r="O24">
-        <v>0.342687074829932</v>
+        <v>0.7526548672566372</v>
       </c>
       <c r="P24">
-        <v>40.3</v>
+        <v>854</v>
       </c>
       <c r="Q24">
-        <v>0.009970311726867886</v>
+        <v>0.02401777427791996</v>
       </c>
       <c r="R24">
-        <v>0.342687074829932</v>
+        <v>0.3778761061946903</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>0.4979423868312757</v>
       </c>
       <c r="U24">
-        <v>64</v>
+        <v>583</v>
       </c>
       <c r="V24">
-        <v>0.01583374567046017</v>
+        <v>0.01639620890401327</v>
       </c>
       <c r="W24">
-        <v>0.1348778529647895</v>
+        <v>0.08825711719451712</v>
       </c>
       <c r="X24">
-        <v>0.04631376875422287</v>
+        <v>0.04491982823690761</v>
       </c>
       <c r="Y24">
-        <v>0.08856408421056668</v>
+        <v>0.04333728895760951</v>
       </c>
       <c r="Z24">
-        <v>0.9644811472204914</v>
+        <v>1.125655910060909</v>
       </c>
       <c r="AA24">
-        <v>0.1149890489893706</v>
+        <v>0.09141492743958468</v>
       </c>
       <c r="AB24">
-        <v>0.04510277866258115</v>
+        <v>0.03981384826704731</v>
       </c>
       <c r="AC24">
-        <v>0.06988627032678946</v>
+        <v>0.05160107917253737</v>
       </c>
       <c r="AD24">
-        <v>175.1</v>
+        <v>7050</v>
       </c>
       <c r="AE24">
-        <v>29.25299049719239</v>
+        <v>386.2751680552079</v>
       </c>
       <c r="AF24">
-        <v>204.3529904971924</v>
+        <v>7436.275168055208</v>
       </c>
       <c r="AG24">
-        <v>140.3529904971924</v>
+        <v>6853.275168055208</v>
       </c>
       <c r="AH24">
-        <v>0.04812435305178558</v>
+        <v>0.1729636818546101</v>
       </c>
       <c r="AI24">
-        <v>0.1697350246314862</v>
+        <v>0.2107472630619439</v>
       </c>
       <c r="AJ24">
-        <v>0.03355837989191521</v>
+        <v>0.1615946876293158</v>
       </c>
       <c r="AK24">
-        <v>0.1231217354287366</v>
+        <v>0.197487776662088</v>
       </c>
       <c r="AL24">
-        <v>7.44</v>
+        <v>339</v>
       </c>
       <c r="AM24">
-        <v>7.44</v>
+        <v>339</v>
       </c>
       <c r="AN24">
-        <v>1.2578119387975</v>
+        <v>1.807228915662651</v>
       </c>
       <c r="AO24">
-        <v>16.9758064516129</v>
+        <v>8.949852507374631</v>
       </c>
       <c r="AP24">
-        <v>1.00821054879098</v>
+        <v>1.756799581659884</v>
       </c>
       <c r="AQ24">
-        <v>16.9758064516129</v>
+        <v>8.949852507374631</v>
       </c>
     </row>
     <row r="25">
@@ -3592,7 +3613,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hallmark Financial Services, Inc. (NasdaqGM:HALL)</t>
+          <t>Cincinnati Financial Corporation (NasdaqGS:CINF)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3601,121 +3622,124 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.0554</v>
+        <v>0.0635</v>
       </c>
       <c r="E25">
-        <v>0.166</v>
+        <v>0.04219999999999999</v>
+      </c>
+      <c r="F25">
+        <v>-0.0414</v>
       </c>
       <c r="G25">
-        <v>0.0508819538670285</v>
+        <v>0.3713182728052616</v>
       </c>
       <c r="H25">
-        <v>0.0508819538670285</v>
+        <v>0.3713182728052616</v>
       </c>
       <c r="I25">
-        <v>0.08696734854763562</v>
+        <v>0.1457224977850252</v>
       </c>
       <c r="J25">
-        <v>0.06903644016730849</v>
+        <v>0.1198733825140301</v>
       </c>
       <c r="K25">
-        <v>28.3</v>
+        <v>793</v>
       </c>
       <c r="L25">
-        <v>0.06399819086386251</v>
+        <v>0.1133828996282528</v>
       </c>
       <c r="M25">
-        <v>1.72</v>
+        <v>688</v>
       </c>
       <c r="N25">
-        <v>0.005448210326259107</v>
+        <v>0.0489414978374687</v>
       </c>
       <c r="O25">
-        <v>0.0607773851590106</v>
+        <v>0.8675914249684742</v>
       </c>
       <c r="P25">
-        <v>-0</v>
+        <v>370</v>
       </c>
       <c r="Q25">
-        <v>-0</v>
+        <v>0.02632028226724334</v>
       </c>
       <c r="R25">
-        <v>-0</v>
+        <v>0.4665825977301387</v>
       </c>
       <c r="S25">
-        <v>1.72</v>
+        <v>318</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0.4622093023255814</v>
       </c>
       <c r="U25">
-        <v>64</v>
+        <v>914</v>
       </c>
       <c r="V25">
-        <v>0.2027241051631296</v>
+        <v>0.06501821078989301</v>
       </c>
       <c r="W25">
-        <v>0.1059528266566829</v>
+        <v>0.08462277238288336</v>
       </c>
       <c r="X25">
-        <v>0.05431980280177706</v>
+        <v>0.04168652087080141</v>
       </c>
       <c r="Y25">
-        <v>0.05163302385490583</v>
+        <v>0.04293625151208195</v>
       </c>
       <c r="Z25">
-        <v>1.632546419660894</v>
+        <v>0.7445110999691362</v>
       </c>
       <c r="AA25">
-        <v>0.112705193221273</v>
+        <v>0.08924706387254154</v>
       </c>
       <c r="AB25">
-        <v>0.04388170823010833</v>
+        <v>0.03997804442669021</v>
       </c>
       <c r="AC25">
-        <v>0.06882348499116468</v>
+        <v>0.04926901944585133</v>
       </c>
       <c r="AD25">
-        <v>122.4</v>
+        <v>911</v>
       </c>
       <c r="AE25">
-        <v>22.56519236117767</v>
+        <v>14.08425245766941</v>
       </c>
       <c r="AF25">
-        <v>144.9651923611777</v>
+        <v>925.0842524576694</v>
       </c>
       <c r="AG25">
-        <v>80.96519236117769</v>
+        <v>11.08425245766944</v>
       </c>
       <c r="AH25">
-        <v>0.3146866634705925</v>
+        <v>0.06174355922276906</v>
       </c>
       <c r="AI25">
-        <v>0.3284472696762863</v>
+        <v>0.08669887046530043</v>
       </c>
       <c r="AJ25">
-        <v>0.2041146889628168</v>
+        <v>0.000787867028555504</v>
       </c>
       <c r="AK25">
-        <v>0.2145539493310914</v>
+        <v>0.001136137426742413</v>
       </c>
       <c r="AL25">
-        <v>5.09</v>
+        <v>53</v>
       </c>
       <c r="AM25">
-        <v>5.09</v>
+        <v>53</v>
       </c>
       <c r="AN25">
-        <v>2.535736482287135</v>
+        <v>0.8266787658802178</v>
       </c>
       <c r="AO25">
-        <v>7.996070726915521</v>
+        <v>19.18867924528302</v>
       </c>
       <c r="AP25">
-        <v>1.677339804457793</v>
+        <v>0.01005830531548951</v>
       </c>
       <c r="AQ25">
-        <v>7.996070726915521</v>
+        <v>19.18867924528302</v>
       </c>
     </row>
     <row r="26">
@@ -3726,7 +3750,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cincinnati Financial Corporation (NasdaqGS:CINF)</t>
+          <t>Employers Holdings, Inc. (NYSE:EIG)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3735,124 +3759,115 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.0595</v>
+        <v>-0.007890000000000001</v>
       </c>
       <c r="E26">
-        <v>0.139</v>
-      </c>
-      <c r="F26">
-        <v>0.0193</v>
+        <v>-0.02</v>
       </c>
       <c r="G26">
-        <v>0.05661832767664301</v>
+        <v>0.2783632133570549</v>
       </c>
       <c r="H26">
-        <v>0.05661832767664301</v>
+        <v>0.2783632133570549</v>
       </c>
       <c r="I26">
-        <v>0.1794199321197161</v>
+        <v>0.1512848068483794</v>
       </c>
       <c r="J26">
-        <v>0.1485467726288461</v>
+        <v>0.121779398337012</v>
       </c>
       <c r="K26">
-        <v>919</v>
+        <v>87.5</v>
       </c>
       <c r="L26">
-        <v>0.1417772292502314</v>
+        <v>0.1197481866703161</v>
       </c>
       <c r="M26">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="N26">
-        <v>0.0208054949949598</v>
+        <v>0.1412973667308927</v>
       </c>
       <c r="O26">
-        <v>0.3862894450489663</v>
+        <v>1.508571428571429</v>
       </c>
       <c r="P26">
-        <v>350</v>
+        <v>30.4</v>
       </c>
       <c r="Q26">
-        <v>0.02051245985418572</v>
+        <v>0.03254121173196317</v>
       </c>
       <c r="R26">
-        <v>0.3808487486398259</v>
+        <v>0.3474285714285714</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>101.6</v>
       </c>
       <c r="T26">
-        <v>0.01408450704225352</v>
+        <v>0.7696969696969697</v>
       </c>
       <c r="U26">
-        <v>787</v>
+        <v>237.3</v>
       </c>
       <c r="V26">
-        <v>0.04612373115784045</v>
+        <v>0.2540141297366731</v>
       </c>
       <c r="W26">
-        <v>0.1102711783057355</v>
+        <v>0.0754050327473285</v>
       </c>
       <c r="X26">
-        <v>0.04633943139492451</v>
+        <v>0.04150069089488463</v>
       </c>
       <c r="Y26">
-        <v>0.06393174691081104</v>
+        <v>0.03390434185244387</v>
       </c>
       <c r="Z26">
-        <v>0.7556539986010725</v>
+        <v>0.7286735892219074</v>
       </c>
       <c r="AA26">
-        <v>0.1122499627162719</v>
+        <v>0.08873743127951488</v>
       </c>
       <c r="AB26">
-        <v>0.04509734897900121</v>
+        <v>0.04000455577268898</v>
       </c>
       <c r="AC26">
-        <v>0.06715261373727066</v>
+        <v>0.0487328755068259</v>
       </c>
       <c r="AD26">
-        <v>885</v>
+        <v>35.5</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>18.28095817944569</v>
       </c>
       <c r="AF26">
-        <v>885</v>
+        <v>53.78095817944569</v>
       </c>
       <c r="AG26">
-        <v>98</v>
+        <v>-183.5190418205543</v>
       </c>
       <c r="AH26">
-        <v>0.04930966469428008</v>
+        <v>0.05443521733308298</v>
       </c>
       <c r="AI26">
-        <v>0.08629095163806552</v>
+        <v>0.04404012183388703</v>
       </c>
       <c r="AJ26">
-        <v>0.005710689478345998</v>
+        <v>-0.2444700905503523</v>
       </c>
       <c r="AK26">
-        <v>0.01034956172774316</v>
+        <v>-0.186525656681205</v>
       </c>
       <c r="AL26">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AM26">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AN26">
-        <v>0.7183441558441559</v>
-      </c>
-      <c r="AO26">
-        <v>21.94339622641509</v>
+        <v>0.2886178861788618</v>
       </c>
       <c r="AP26">
-        <v>0.07954545454545454</v>
-      </c>
-      <c r="AQ26">
-        <v>21.94339622641509</v>
+        <v>-1.492024730248409</v>
       </c>
     </row>
     <row r="27">
@@ -3863,7 +3878,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Old Republic International Corporation (NYSE:ORI)</t>
+          <t>Selective Insurance Group, Inc. (NasdaqGS:SIGI)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3872,121 +3887,121 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.0365</v>
+        <v>0.065</v>
       </c>
       <c r="E27">
-        <v>0.0885</v>
+        <v>0.0445</v>
       </c>
       <c r="G27">
-        <v>0.07739174142841912</v>
+        <v>0.1489466119816314</v>
       </c>
       <c r="H27">
-        <v>0.07739174142841912</v>
+        <v>0.1489466119816314</v>
       </c>
       <c r="I27">
-        <v>0.1344719638117941</v>
+        <v>0.09728379119955051</v>
       </c>
       <c r="J27">
-        <v>0.1080810192029693</v>
+        <v>0.07978699188511258</v>
       </c>
       <c r="K27">
-        <v>674.1</v>
+        <v>201.2</v>
       </c>
       <c r="L27">
-        <v>0.1026761914916302</v>
+        <v>0.07052967364251411</v>
       </c>
       <c r="M27">
-        <v>233.7</v>
+        <v>60.33000000000001</v>
       </c>
       <c r="N27">
-        <v>0.03509641376824653</v>
+        <v>0.01505352197020735</v>
       </c>
       <c r="O27">
-        <v>0.3466844681797953</v>
+        <v>0.2998508946322068</v>
       </c>
       <c r="P27">
-        <v>233.7</v>
+        <v>53.2</v>
       </c>
       <c r="Q27">
-        <v>0.03509641376824653</v>
+        <v>0.01327444669012152</v>
       </c>
       <c r="R27">
-        <v>0.3466844681797953</v>
+        <v>0.26441351888668</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>7.130000000000003</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>0.1181833250455827</v>
       </c>
       <c r="U27">
-        <v>109.6</v>
+        <v>0.785</v>
       </c>
       <c r="V27">
-        <v>0.01645942211809935</v>
+        <v>0.0001958729445816803</v>
       </c>
       <c r="W27">
-        <v>0.1269204699502937</v>
+        <v>0.09413305885655468</v>
       </c>
       <c r="X27">
-        <v>0.04899954537351298</v>
+        <v>0.04441906530201777</v>
       </c>
       <c r="Y27">
-        <v>0.07792092457678076</v>
+        <v>0.04971399355453691</v>
       </c>
       <c r="Z27">
-        <v>1.017425449858947</v>
+        <v>1.052141764650857</v>
       </c>
       <c r="AA27">
-        <v>0.1099643795837946</v>
+        <v>0.08394722643818595</v>
       </c>
       <c r="AB27">
-        <v>0.04459948758092561</v>
+        <v>0.0396306972244194</v>
       </c>
       <c r="AC27">
-        <v>0.06536489200286895</v>
+        <v>0.04431652921376655</v>
       </c>
       <c r="AD27">
-        <v>973.7</v>
+        <v>717.6</v>
       </c>
       <c r="AE27">
-        <v>275.7560799321417</v>
+        <v>31.59264422521152</v>
       </c>
       <c r="AF27">
-        <v>1249.456079932142</v>
+        <v>749.1926442252116</v>
       </c>
       <c r="AG27">
-        <v>1139.856079932142</v>
+        <v>748.4076442252116</v>
       </c>
       <c r="AH27">
-        <v>0.157993882254615</v>
+        <v>0.1574962271084085</v>
       </c>
       <c r="AI27">
-        <v>0.1773949897964238</v>
+        <v>0.238384369901664</v>
       </c>
       <c r="AJ27">
-        <v>0.146160577957178</v>
+        <v>0.1573571710753679</v>
       </c>
       <c r="AK27">
-        <v>0.1643922957184986</v>
+        <v>0.2381940876562576</v>
       </c>
       <c r="AL27">
-        <v>38.7</v>
+        <v>30.7</v>
       </c>
       <c r="AM27">
-        <v>38.7</v>
+        <v>30.7</v>
       </c>
       <c r="AN27">
-        <v>1.008075370121131</v>
+        <v>2.104152005629838</v>
       </c>
       <c r="AO27">
-        <v>22.67700258397933</v>
+        <v>8.977198697068404</v>
       </c>
       <c r="AP27">
-        <v>1.180097401317054</v>
+        <v>2.19448640694702</v>
       </c>
       <c r="AQ27">
-        <v>22.67700258397933</v>
+        <v>8.977198697068404</v>
       </c>
     </row>
     <row r="28">
@@ -3997,7 +4012,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The Hanover Insurance Group, Inc. (NYSE:THG)</t>
+          <t>ProSight Global, Inc. (NYSE:PROS)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4005,125 +4020,116 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D28">
-        <v>-0.0113</v>
-      </c>
-      <c r="E28">
-        <v>0.109</v>
-      </c>
-      <c r="F28">
-        <v>-0.011</v>
-      </c>
       <c r="G28">
-        <v>0.08032773038263366</v>
+        <v>0.1037433155080214</v>
       </c>
       <c r="H28">
-        <v>0.08032773038263366</v>
+        <v>0.1037433155080214</v>
       </c>
       <c r="I28">
-        <v>0.09779106185620801</v>
+        <v>0.08072356613316016</v>
       </c>
       <c r="J28">
-        <v>0.08050577667946934</v>
+        <v>0.06344809478170566</v>
       </c>
       <c r="K28">
-        <v>438.9</v>
+        <v>34.7</v>
       </c>
       <c r="L28">
-        <v>0.09268096967649293</v>
+        <v>0.04123588829471183</v>
       </c>
       <c r="M28">
-        <v>511.6</v>
+        <v>3.7</v>
       </c>
       <c r="N28">
-        <v>0.09539081145584727</v>
+        <v>0.006607142857142857</v>
       </c>
       <c r="O28">
-        <v>1.165641376167692</v>
+        <v>0.106628242074928</v>
       </c>
       <c r="P28">
-        <v>98.09999999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q28">
-        <v>0.01829131861575179</v>
+        <v>-0</v>
       </c>
       <c r="R28">
-        <v>0.2235133287764867</v>
+        <v>-0</v>
       </c>
       <c r="S28">
-        <v>413.5</v>
+        <v>3.7</v>
       </c>
       <c r="T28">
-        <v>0.8082486317435497</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>157.6</v>
+        <v>26.6</v>
       </c>
       <c r="V28">
-        <v>0.0293854415274463</v>
+        <v>0.0475</v>
       </c>
       <c r="W28">
-        <v>0.1471633583690987</v>
+        <v>0.06539766302299284</v>
       </c>
       <c r="X28">
-        <v>0.04790343843960713</v>
+        <v>0.04965868003387525</v>
       </c>
       <c r="Y28">
-        <v>0.09925991992949156</v>
+        <v>0.01573898298911759</v>
       </c>
       <c r="Z28">
-        <v>1.352331835628315</v>
+        <v>1.235400553949516</v>
       </c>
       <c r="AA28">
-        <v>0.10887052475563</v>
+        <v>0.07838381144036052</v>
       </c>
       <c r="AB28">
-        <v>0.0447901622056808</v>
+        <v>0.0391305143640609</v>
       </c>
       <c r="AC28">
-        <v>0.0640803625499492</v>
+        <v>0.03925329707629962</v>
       </c>
       <c r="AD28">
-        <v>667.8</v>
+        <v>224.2</v>
       </c>
       <c r="AE28">
-        <v>38.50323736870664</v>
+        <v>10.55559549472862</v>
       </c>
       <c r="AF28">
-        <v>706.3032373687066</v>
+        <v>234.7555954947286</v>
       </c>
       <c r="AG28">
-        <v>548.7032373687066</v>
+        <v>208.1555954947286</v>
       </c>
       <c r="AH28">
-        <v>0.1163692002040859</v>
+        <v>0.2953808652943113</v>
       </c>
       <c r="AI28">
-        <v>0.1862072274781196</v>
+        <v>0.2785902054764166</v>
       </c>
       <c r="AJ28">
-        <v>0.09281329807639505</v>
+        <v>0.2709810313373641</v>
       </c>
       <c r="AK28">
-        <v>0.1509291015694007</v>
+        <v>0.2550752628177687</v>
       </c>
       <c r="AL28">
-        <v>39.3</v>
+        <v>13.5</v>
       </c>
       <c r="AM28">
-        <v>39.3</v>
+        <v>13.5</v>
       </c>
       <c r="AN28">
-        <v>1.359527687296417</v>
+        <v>3.116485960522658</v>
       </c>
       <c r="AO28">
-        <v>11.63613231552163</v>
+        <v>4.874074074074074</v>
       </c>
       <c r="AP28">
-        <v>1.117066851320657</v>
+        <v>2.893461155056</v>
       </c>
       <c r="AQ28">
-        <v>11.63613231552163</v>
+        <v>4.874074074074074</v>
       </c>
     </row>
     <row r="29">
@@ -4134,7 +4140,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>W. R. Berkley Corporation (NYSE:WRB)</t>
+          <t>Markel Corporation (NYSE:MKL)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4143,124 +4149,124 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.0227</v>
+        <v>0.111</v>
       </c>
       <c r="E29">
-        <v>0.00779</v>
+        <v>-0.009180000000000001</v>
       </c>
       <c r="F29">
-        <v>0.09</v>
+        <v>0.0771</v>
       </c>
       <c r="G29">
-        <v>0.1362453508003605</v>
+        <v>0.3065093907977993</v>
       </c>
       <c r="H29">
-        <v>0.1362453508003605</v>
+        <v>0.3065093907977993</v>
       </c>
       <c r="I29">
-        <v>0.126114094859664</v>
+        <v>0.09784831439457464</v>
       </c>
       <c r="J29">
-        <v>0.101683843749073</v>
+        <v>0.07721670768343342</v>
       </c>
       <c r="K29">
-        <v>695</v>
+        <v>479.8</v>
       </c>
       <c r="L29">
-        <v>0.08822372012135522</v>
+        <v>0.0535437288665201</v>
       </c>
       <c r="M29">
-        <v>99.2</v>
+        <v>58.3</v>
       </c>
       <c r="N29">
-        <v>0.007869518309322841</v>
+        <v>0.004094992589678933</v>
       </c>
       <c r="O29">
-        <v>0.1427338129496403</v>
+        <v>0.1215089620675281</v>
       </c>
       <c r="P29">
-        <v>81.2</v>
+        <v>-0</v>
       </c>
       <c r="Q29">
-        <v>0.006441581519324745</v>
+        <v>-0</v>
       </c>
       <c r="R29">
-        <v>0.1168345323741007</v>
+        <v>-0</v>
       </c>
       <c r="S29">
-        <v>18</v>
+        <v>58.3</v>
       </c>
       <c r="T29">
-        <v>0.1814516129032258</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>812.6</v>
+        <v>4593</v>
       </c>
       <c r="V29">
-        <v>0.06446341308624738</v>
+        <v>0.3226123664561808</v>
       </c>
       <c r="W29">
-        <v>0.1278090404207584</v>
+        <v>0.04516402315621029</v>
       </c>
       <c r="X29">
-        <v>0.04969172463566607</v>
+        <v>0.04618711154684345</v>
       </c>
       <c r="Y29">
-        <v>0.07811731578509232</v>
+        <v>-0.001023088390633156</v>
       </c>
       <c r="Z29">
-        <v>1.066477319851416</v>
+        <v>0.9054747754077273</v>
       </c>
       <c r="AA29">
-        <v>0.1084435131537015</v>
+        <v>0.069917781047381</v>
       </c>
       <c r="AB29">
-        <v>0.04448806522139582</v>
+        <v>0.03944138869874527</v>
       </c>
       <c r="AC29">
-        <v>0.06395544793230568</v>
+        <v>0.03047639234863573</v>
       </c>
       <c r="AD29">
-        <v>2569.1</v>
+        <v>3498.3</v>
       </c>
       <c r="AE29">
-        <v>241.554974620126</v>
+        <v>278.9551977082808</v>
       </c>
       <c r="AF29">
-        <v>2810.654974620126</v>
+        <v>3777.255197708281</v>
       </c>
       <c r="AG29">
-        <v>1998.054974620126</v>
+        <v>-815.7448022917188</v>
       </c>
       <c r="AH29">
-        <v>0.1823176237839426</v>
+        <v>0.2096826166007948</v>
       </c>
       <c r="AI29">
-        <v>0.3154475457924946</v>
+        <v>0.2371745639969789</v>
       </c>
       <c r="AJ29">
-        <v>0.1368188291282265</v>
+        <v>-0.06078052077298164</v>
       </c>
       <c r="AK29">
-        <v>0.2467509829795454</v>
+        <v>-0.07197924902515918</v>
       </c>
       <c r="AL29">
-        <v>160.5</v>
+        <v>175.9</v>
       </c>
       <c r="AM29">
-        <v>160.5</v>
+        <v>175.9</v>
       </c>
       <c r="AN29">
-        <v>2.256962136519371</v>
+        <v>2.884957941613063</v>
       </c>
       <c r="AO29">
-        <v>6.200623052959502</v>
+        <v>5.020466173962479</v>
       </c>
       <c r="AP29">
-        <v>1.755297350979641</v>
+        <v>-0.6727237360149422</v>
       </c>
       <c r="AQ29">
-        <v>6.200623052959502</v>
+        <v>5.020466173962479</v>
       </c>
     </row>
     <row r="30">
@@ -4271,7 +4277,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The Travelers Companies, Inc. (NYSE:TRV)</t>
+          <t>W. R. Berkley Corporation (NYSE:WRB)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4280,124 +4286,124 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.0292</v>
+        <v>0.0157</v>
       </c>
       <c r="E30">
-        <v>-0.0823</v>
+        <v>-0.0771</v>
       </c>
       <c r="F30">
-        <v>0.0922</v>
+        <v>0.101</v>
       </c>
       <c r="G30">
-        <v>0.1314428051350834</v>
+        <v>0.1402898550724638</v>
       </c>
       <c r="H30">
-        <v>0.1314428051350834</v>
+        <v>0.1402898550724638</v>
       </c>
       <c r="I30">
-        <v>0.1019989457619444</v>
+        <v>0.07362192590112047</v>
       </c>
       <c r="J30">
-        <v>0.08602758058925557</v>
+        <v>0.05540367400298827</v>
       </c>
       <c r="K30">
-        <v>2370</v>
+        <v>337.8</v>
       </c>
       <c r="L30">
-        <v>0.07568499712588618</v>
+        <v>0.04351690821256039</v>
       </c>
       <c r="M30">
-        <v>2178</v>
+        <v>427.3</v>
       </c>
       <c r="N30">
-        <v>0.061822661496801</v>
+        <v>0.03609745383276734</v>
       </c>
       <c r="O30">
-        <v>0.9189873417721519</v>
+        <v>1.264949674363529</v>
       </c>
       <c r="P30">
-        <v>836</v>
+        <v>97.2</v>
       </c>
       <c r="Q30">
-        <v>0.02372991047351957</v>
+        <v>0.008211262608343048</v>
       </c>
       <c r="R30">
-        <v>0.3527426160337553</v>
+        <v>0.2877442273534636</v>
       </c>
       <c r="S30">
-        <v>1342</v>
+        <v>330.1</v>
       </c>
       <c r="T30">
-        <v>0.6161616161616161</v>
+        <v>0.7725251579686403</v>
       </c>
       <c r="U30">
-        <v>508</v>
+        <v>2571.4</v>
       </c>
       <c r="V30">
-        <v>0.0144196106705119</v>
+        <v>0.2172267558754456</v>
       </c>
       <c r="W30">
-        <v>0.1055209260908281</v>
+        <v>0.05577662929511418</v>
       </c>
       <c r="X30">
-        <v>0.04944084252841692</v>
+        <v>0.04656199191690549</v>
       </c>
       <c r="Y30">
-        <v>0.05608008356241122</v>
+        <v>0.009214637378208684</v>
       </c>
       <c r="Z30">
-        <v>1.24449442851981</v>
+        <v>1.010564680634491</v>
       </c>
       <c r="AA30">
-        <v>0.1070608447423675</v>
+        <v>0.05598899612480729</v>
       </c>
       <c r="AB30">
-        <v>0.04475745834556995</v>
+        <v>0.03940422386404772</v>
       </c>
       <c r="AC30">
-        <v>0.06230338639679755</v>
+        <v>0.01658477226075957</v>
       </c>
       <c r="AD30">
-        <v>6949</v>
+        <v>3072.8</v>
       </c>
       <c r="AE30">
-        <v>455.0250620523712</v>
+        <v>264.5490009627617</v>
       </c>
       <c r="AF30">
-        <v>7404.025062052371</v>
+        <v>3337.349000962762</v>
       </c>
       <c r="AG30">
-        <v>6896.025062052371</v>
+        <v>765.9490009627616</v>
       </c>
       <c r="AH30">
-        <v>0.1736655120969327</v>
+        <v>0.2199277892999102</v>
       </c>
       <c r="AI30">
-        <v>0.224289462327652</v>
+        <v>0.3559061065608284</v>
       </c>
       <c r="AJ30">
-        <v>0.1637006527918292</v>
+        <v>0.06077345004920925</v>
       </c>
       <c r="AK30">
-        <v>0.2121656383947952</v>
+        <v>0.1125460629624605</v>
       </c>
       <c r="AL30">
-        <v>348</v>
+        <v>148.4</v>
       </c>
       <c r="AM30">
-        <v>348</v>
+        <v>148.4</v>
       </c>
       <c r="AN30">
-        <v>1.711576354679803</v>
+        <v>3.880287915140801</v>
       </c>
       <c r="AO30">
-        <v>9.074712643678161</v>
+        <v>3.875336927223719</v>
       </c>
       <c r="AP30">
-        <v>1.698528340406988</v>
+        <v>0.9672294493784084</v>
       </c>
       <c r="AQ30">
-        <v>9.074712643678161</v>
+        <v>3.875336927223719</v>
       </c>
     </row>
     <row r="31">
@@ -4408,7 +4414,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The Allstate Corporation (NYSE:ALL)</t>
+          <t>Old Republic International Corporation (NYSE:ORI)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4417,124 +4423,121 @@
         </is>
       </c>
       <c r="D31">
-        <v>0.0389</v>
+        <v>0.0276</v>
       </c>
       <c r="E31">
-        <v>-0.0162</v>
-      </c>
-      <c r="F31">
-        <v>0.08839999999999999</v>
+        <v>-0.0443</v>
       </c>
       <c r="G31">
-        <v>0.08584012744822415</v>
+        <v>0.2142251414650693</v>
       </c>
       <c r="H31">
-        <v>0.08584012744822415</v>
+        <v>0.2142251414650693</v>
       </c>
       <c r="I31">
-        <v>0.08707493254924406</v>
+        <v>0.06557993200546416</v>
       </c>
       <c r="J31">
-        <v>0.07000141636311778</v>
+        <v>0.05401205077759637</v>
       </c>
       <c r="K31">
-        <v>2624</v>
+        <v>314.7</v>
       </c>
       <c r="L31">
-        <v>0.06147502577078062</v>
+        <v>0.04852213330866367</v>
       </c>
       <c r="M31">
-        <v>2826</v>
+        <v>297.6</v>
       </c>
       <c r="N31">
-        <v>0.07804775661030805</v>
+        <v>0.05033488938502132</v>
       </c>
       <c r="O31">
-        <v>1.076981707317073</v>
+        <v>0.9456625357483318</v>
       </c>
       <c r="P31">
-        <v>649</v>
+        <v>247.6</v>
       </c>
       <c r="Q31">
-        <v>0.0179239186270665</v>
+        <v>0.041878086732968</v>
       </c>
       <c r="R31">
-        <v>0.2473323170731707</v>
+        <v>0.7867810613282491</v>
       </c>
       <c r="S31">
-        <v>2177</v>
+        <v>50.00000000000003</v>
       </c>
       <c r="T31">
-        <v>0.77034677990092</v>
+        <v>0.1680107526881721</v>
       </c>
       <c r="U31">
-        <v>587</v>
+        <v>95</v>
       </c>
       <c r="V31">
-        <v>0.01621161823434212</v>
+        <v>0.01606792503890129</v>
       </c>
       <c r="W31">
-        <v>0.123019221753399</v>
+        <v>0.05431574587065707</v>
       </c>
       <c r="X31">
-        <v>0.04952132260484209</v>
+        <v>0.04498675544024902</v>
       </c>
       <c r="Y31">
-        <v>0.07349789914855688</v>
+        <v>0.009328990430408052</v>
       </c>
       <c r="Z31">
-        <v>1.523369400141192</v>
+        <v>0.9337529950123857</v>
       </c>
       <c r="AA31">
-        <v>0.1066380156541166</v>
+        <v>0.05043391418034166</v>
       </c>
       <c r="AB31">
-        <v>0.04451489379084926</v>
+        <v>0.03956724503145451</v>
       </c>
       <c r="AC31">
-        <v>0.06212312186326731</v>
+        <v>0.01086666914888716</v>
       </c>
       <c r="AD31">
-        <v>7172</v>
+        <v>966.2</v>
       </c>
       <c r="AE31">
-        <v>586.4678953403346</v>
+        <v>287.8411749608055</v>
       </c>
       <c r="AF31">
-        <v>7758.467895340335</v>
+        <v>1254.041174960806</v>
       </c>
       <c r="AG31">
-        <v>7171.467895340335</v>
+        <v>1159.041174960806</v>
       </c>
       <c r="AH31">
-        <v>0.1764608891775243</v>
+        <v>0.1749879953445183</v>
       </c>
       <c r="AI31">
-        <v>0.2288737036521586</v>
+        <v>0.1711151010156412</v>
       </c>
       <c r="AJ31">
-        <v>0.165317120126284</v>
+        <v>0.1639045204907937</v>
       </c>
       <c r="AK31">
-        <v>0.2152852560527209</v>
+        <v>0.160229287979174</v>
       </c>
       <c r="AL31">
-        <v>326</v>
+        <v>41</v>
       </c>
       <c r="AM31">
-        <v>326</v>
+        <v>41</v>
       </c>
       <c r="AN31">
-        <v>1.613498312710911</v>
+        <v>1.897858966804164</v>
       </c>
       <c r="AO31">
-        <v>11.33435582822086</v>
+        <v>10.3390243902439</v>
       </c>
       <c r="AP31">
-        <v>1.61337860412606</v>
+        <v>2.276647367827157</v>
       </c>
       <c r="AQ31">
-        <v>11.33435582822086</v>
+        <v>10.3390243902439</v>
       </c>
     </row>
     <row r="32">
@@ -4545,7 +4548,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Markel Corporation (NYSE:MKL)</t>
+          <t>ICC Holdings, Inc. (NasdaqCM:ICCH)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4553,41 +4556,32 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D32">
-        <v>0.09480000000000001</v>
-      </c>
-      <c r="E32">
-        <v>0.118</v>
-      </c>
-      <c r="F32">
-        <v>0.189</v>
-      </c>
       <c r="G32">
-        <v>0.05844131455399061</v>
+        <v>0.109872029250457</v>
       </c>
       <c r="H32">
-        <v>0.05844131455399061</v>
+        <v>0.109872029250457</v>
       </c>
       <c r="I32">
-        <v>0.1215096433691733</v>
+        <v>0.0676600866418786</v>
       </c>
       <c r="J32">
-        <v>0.09092384765619925</v>
+        <v>0.05874413129935067</v>
       </c>
       <c r="K32">
-        <v>527.8</v>
+        <v>2.79</v>
       </c>
       <c r="L32">
-        <v>0.06607824726134584</v>
+        <v>0.05100548446069469</v>
       </c>
       <c r="M32">
-        <v>105.2</v>
+        <v>0.153</v>
       </c>
       <c r="N32">
-        <v>0.006680976997624824</v>
+        <v>0.003248407643312102</v>
       </c>
       <c r="O32">
-        <v>0.1993179234558545</v>
+        <v>0.05483870967741936</v>
       </c>
       <c r="P32">
         <v>-0</v>
@@ -4599,79 +4593,79 @@
         <v>-0</v>
       </c>
       <c r="S32">
-        <v>105.2</v>
+        <v>0.153</v>
       </c>
       <c r="T32">
         <v>1</v>
       </c>
       <c r="U32">
-        <v>2715.5</v>
+        <v>6.6</v>
       </c>
       <c r="V32">
-        <v>0.1724543064358385</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="W32">
-        <v>0.05394521668029435</v>
+        <v>0.04435612082670906</v>
       </c>
       <c r="X32">
-        <v>0.05082449949485272</v>
+        <v>0.04764247140321848</v>
       </c>
       <c r="Y32">
-        <v>0.003120717185441629</v>
+        <v>-0.003286350576509417</v>
       </c>
       <c r="Z32">
-        <v>0.8958002243056939</v>
+        <v>0.8443316886789871</v>
       </c>
       <c r="AA32">
-        <v>0.08144960312516003</v>
+        <v>0.04959953157996089</v>
       </c>
       <c r="AB32">
-        <v>0.04431898000629161</v>
+        <v>0.03930230406566449</v>
       </c>
       <c r="AC32">
-        <v>0.03713062311886842</v>
+        <v>0.0102972275142964</v>
       </c>
       <c r="AD32">
-        <v>4151.1</v>
+        <v>15.1</v>
       </c>
       <c r="AE32">
-        <v>270.208617943642</v>
+        <v>0.4349663034462016</v>
       </c>
       <c r="AF32">
-        <v>4421.308617943642</v>
+        <v>15.5349663034462</v>
       </c>
       <c r="AG32">
-        <v>1705.808617943642</v>
+        <v>8.934966303446201</v>
       </c>
       <c r="AH32">
-        <v>0.2192292911187785</v>
+        <v>0.2480238630317816</v>
       </c>
       <c r="AI32">
-        <v>0.2904588231868684</v>
+        <v>0.1859696243488556</v>
       </c>
       <c r="AJ32">
-        <v>0.09774282463909512</v>
+        <v>0.1594534072718215</v>
       </c>
       <c r="AK32">
-        <v>0.1363958518899976</v>
+        <v>0.1161366116442423</v>
       </c>
       <c r="AL32">
-        <v>168.5</v>
+        <v>0.183</v>
       </c>
       <c r="AM32">
-        <v>168.5</v>
+        <v>0.183</v>
       </c>
       <c r="AN32">
-        <v>3.241274303115484</v>
+        <v>3.37204108977222</v>
       </c>
       <c r="AO32">
-        <v>5.790504451038576</v>
+        <v>18.5792349726776</v>
       </c>
       <c r="AP32">
-        <v>1.331934581044462</v>
+        <v>1.99530288151992</v>
       </c>
       <c r="AQ32">
-        <v>5.790504451038576</v>
+        <v>18.5792349726776</v>
       </c>
     </row>
     <row r="33">
@@ -4691,124 +4685,124 @@
         </is>
       </c>
       <c r="D33">
-        <v>0.0101</v>
+        <v>0.0296</v>
       </c>
       <c r="E33">
-        <v>-0.0207</v>
+        <v>-0.0507</v>
       </c>
       <c r="F33">
-        <v>0.0382</v>
+        <v>0.05</v>
       </c>
       <c r="G33">
-        <v>0.1136341768498027</v>
+        <v>0.1334709968087104</v>
       </c>
       <c r="H33">
-        <v>0.1136341768498027</v>
+        <v>0.1334709968087104</v>
       </c>
       <c r="I33">
-        <v>0.08432902461216166</v>
+        <v>0.07266977814880396</v>
       </c>
       <c r="J33">
-        <v>0.07005628272043921</v>
+        <v>0.06173715665739098</v>
       </c>
       <c r="K33">
-        <v>643</v>
+        <v>576</v>
       </c>
       <c r="L33">
-        <v>0.0618685653805446</v>
+        <v>0.05406420123897128</v>
       </c>
       <c r="M33">
-        <v>398.1</v>
+        <v>419.244</v>
       </c>
       <c r="N33">
-        <v>0.03297549823567417</v>
+        <v>0.03965119688271401</v>
       </c>
       <c r="O33">
-        <v>0.6191290824261275</v>
+        <v>0.7278541666666666</v>
       </c>
       <c r="P33">
-        <v>380.1</v>
+        <v>396.244</v>
       </c>
       <c r="Q33">
-        <v>0.03148451866209433</v>
+        <v>0.03747590629226448</v>
       </c>
       <c r="R33">
-        <v>0.5911353032659409</v>
+        <v>0.6879236111111111</v>
       </c>
       <c r="S33">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="T33">
-        <v>0.0452147701582517</v>
+        <v>0.05486065393899495</v>
       </c>
       <c r="U33">
-        <v>340</v>
+        <v>442</v>
       </c>
       <c r="V33">
-        <v>0.02816294750095257</v>
+        <v>0.04180341047733442</v>
       </c>
       <c r="W33">
-        <v>0.05586446568201564</v>
+        <v>0.04751299183370453</v>
       </c>
       <c r="X33">
-        <v>0.05070282895008771</v>
+        <v>0.04683705312135733</v>
       </c>
       <c r="Y33">
-        <v>0.005161636731927932</v>
+        <v>0.000675938712347196</v>
       </c>
       <c r="Z33">
-        <v>0.7388821675661057</v>
+        <v>0.7272414062355992</v>
       </c>
       <c r="AA33">
-        <v>0.05176333802810204</v>
+        <v>0.04489781662450849</v>
       </c>
       <c r="AB33">
-        <v>0.04433640598678872</v>
+        <v>0.03937756198236071</v>
       </c>
       <c r="AC33">
-        <v>0.007426932041313325</v>
+        <v>0.005520254642147782</v>
       </c>
       <c r="AD33">
-        <v>2982</v>
+        <v>2776</v>
       </c>
       <c r="AE33">
-        <v>332.8422360290194</v>
+        <v>333.880918013213</v>
       </c>
       <c r="AF33">
-        <v>3314.84223602902</v>
+        <v>3109.880918013213</v>
       </c>
       <c r="AG33">
-        <v>2974.84223602902</v>
+        <v>2667.880918013213</v>
       </c>
       <c r="AH33">
-        <v>0.2154251619718489</v>
+        <v>0.2272776291307537</v>
       </c>
       <c r="AI33">
-        <v>0.2147218623787203</v>
+        <v>0.2055320463404692</v>
       </c>
       <c r="AJ33">
-        <v>0.1976975348611853</v>
+        <v>0.2014836089418464</v>
       </c>
       <c r="AK33">
-        <v>0.1970375759345232</v>
+        <v>0.1816258796639537</v>
       </c>
       <c r="AL33">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="AM33">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="AN33">
-        <v>2.937931034482759</v>
+        <v>3.074197120708749</v>
       </c>
       <c r="AO33">
-        <v>6.776119402985074</v>
+        <v>6.424</v>
       </c>
       <c r="AP33">
-        <v>2.930879050274896</v>
+        <v>2.954463918065573</v>
       </c>
       <c r="AQ33">
-        <v>6.776119402985074</v>
+        <v>6.424</v>
       </c>
     </row>
     <row r="34">
@@ -4819,7 +4813,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Donegal Group Inc. (NasdaqGS:DGIC.B)</t>
+          <t>Global Indemnity Group, LLC (NasdaqGS:GBLI)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4828,121 +4822,121 @@
         </is>
       </c>
       <c r="D34">
-        <v>0.06809999999999999</v>
+        <v>0.0498</v>
       </c>
       <c r="E34">
-        <v>-0.0171</v>
+        <v>-0.23</v>
       </c>
       <c r="G34">
-        <v>-0.04922961292747088</v>
+        <v>0.1811377245508982</v>
       </c>
       <c r="H34">
-        <v>-0.04922961292747088</v>
+        <v>0.1811377245508982</v>
       </c>
       <c r="I34">
-        <v>0.02630590003757986</v>
+        <v>0.03903498351863733</v>
       </c>
       <c r="J34">
-        <v>0.02486599814078602</v>
+        <v>0.03903498351863733</v>
       </c>
       <c r="K34">
-        <v>18</v>
+        <v>6.83</v>
       </c>
       <c r="L34">
-        <v>0.02254791431792559</v>
+        <v>0.0113606121091151</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>17.953</v>
       </c>
       <c r="N34">
-        <v>0.0388443797038116</v>
+        <v>0.04368126520681265</v>
       </c>
       <c r="O34">
-        <v>0.8888888888888888</v>
+        <v>2.628550512445095</v>
       </c>
       <c r="P34">
-        <v>16</v>
+        <v>17.8</v>
       </c>
       <c r="Q34">
-        <v>0.0388443797038116</v>
+        <v>0.04330900243309003</v>
       </c>
       <c r="R34">
-        <v>0.8888888888888888</v>
+        <v>2.606149341142021</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>0.1529999999999987</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>0.008522252548320543</v>
       </c>
       <c r="U34">
-        <v>55.3</v>
+        <v>37.2</v>
       </c>
       <c r="V34">
-        <v>0.1342558873512989</v>
+        <v>0.0905109489051095</v>
       </c>
       <c r="W34">
-        <v>0.04332129963898917</v>
+        <v>0.009655074922250494</v>
       </c>
       <c r="X34">
-        <v>0.04722586555470054</v>
+        <v>0.04945104329649855</v>
       </c>
       <c r="Y34">
-        <v>-0.003904565915711374</v>
+        <v>-0.03979596837424805</v>
       </c>
       <c r="Z34">
-        <v>1.902662249445861</v>
+        <v>0.6284161770454511</v>
       </c>
       <c r="AA34">
-        <v>0.04731159595726452</v>
+        <v>0.02453021511381426</v>
       </c>
       <c r="AB34">
-        <v>0.04556834260230395</v>
+        <v>0.03914719997262944</v>
       </c>
       <c r="AC34">
-        <v>0.001743253354960568</v>
+        <v>-0.01461698485881518</v>
       </c>
       <c r="AD34">
-        <v>40</v>
+        <v>144.2</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>24.31083954297618</v>
       </c>
       <c r="AF34">
-        <v>40</v>
+        <v>168.5108395429762</v>
       </c>
       <c r="AG34">
-        <v>-15.3</v>
+        <v>131.3108395429762</v>
       </c>
       <c r="AH34">
-        <v>0.08851515822084532</v>
+        <v>0.2907811692976616</v>
       </c>
       <c r="AI34">
-        <v>0.08288437629506838</v>
+        <v>0.1895060564371718</v>
       </c>
       <c r="AJ34">
-        <v>-0.03857791225416036</v>
+        <v>0.242132057794818</v>
       </c>
       <c r="AK34">
-        <v>-0.03580622513456587</v>
+        <v>0.1541187429181207</v>
       </c>
       <c r="AL34">
-        <v>1.93</v>
+        <v>18.1</v>
       </c>
       <c r="AM34">
-        <v>1.93</v>
+        <v>18.1</v>
       </c>
       <c r="AN34">
-        <v>1.503759398496241</v>
+        <v>4.093102469486233</v>
       </c>
       <c r="AO34">
-        <v>10.88082901554404</v>
+        <v>1.458563535911602</v>
       </c>
       <c r="AP34">
-        <v>-0.5751879699248119</v>
+        <v>3.727244948707811</v>
       </c>
       <c r="AQ34">
-        <v>10.88082901554404</v>
+        <v>1.458563535911602</v>
       </c>
     </row>
     <row r="35">
@@ -4953,7 +4947,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MBIA Inc. (NYSE:MBI)</t>
+          <t>Kingsway Financial Services Inc. (NYSE:KFS)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4962,34 +4956,34 @@
         </is>
       </c>
       <c r="D35">
-        <v>-0.252</v>
+        <v>-0.154</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.1732522796352584</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.1732522796352584</v>
       </c>
       <c r="I35">
-        <v>0.7712096236015914</v>
+        <v>0.03243781729117617</v>
       </c>
       <c r="J35">
-        <v>0.7712096236015914</v>
+        <v>0.03243781729117617</v>
       </c>
       <c r="K35">
-        <v>-123</v>
+        <v>-7.88</v>
       </c>
       <c r="L35">
-        <v>-0.3524355300859599</v>
+        <v>-0.1197568389057751</v>
       </c>
       <c r="M35">
-        <v>125</v>
+        <v>0.083</v>
       </c>
       <c r="N35">
-        <v>0.1684409109284463</v>
+        <v>0.0008042635658914728</v>
       </c>
       <c r="O35">
-        <v>-1.016260162601626</v>
+        <v>-0.01053299492385787</v>
       </c>
       <c r="P35">
         <v>-0</v>
@@ -5001,79 +4995,79 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>125</v>
+        <v>0.083</v>
       </c>
       <c r="T35">
         <v>1</v>
       </c>
       <c r="U35">
-        <v>81</v>
+        <v>20.5</v>
       </c>
       <c r="V35">
-        <v>0.1091497102816332</v>
+        <v>0.1986434108527132</v>
       </c>
       <c r="W35">
-        <v>-0.1110108303249097</v>
+        <v>-0.985</v>
       </c>
       <c r="X35">
-        <v>0.1777057655834619</v>
+        <v>0.0951419572528724</v>
       </c>
       <c r="Y35">
-        <v>-0.2887165959083716</v>
+        <v>-1.080141957252872</v>
       </c>
       <c r="Z35">
-        <v>0.0551757789055574</v>
+        <v>0.3641435724442781</v>
       </c>
       <c r="AA35">
-        <v>0.04255209168167955</v>
+        <v>0.01181202267070367</v>
       </c>
       <c r="AB35">
-        <v>0.04525283777333507</v>
+        <v>0.04104595504834039</v>
       </c>
       <c r="AC35">
-        <v>-0.00270074609165552</v>
+        <v>-0.02923393237763672</v>
       </c>
       <c r="AD35">
-        <v>4985</v>
+        <v>247.6</v>
       </c>
       <c r="AE35">
-        <v>29.2392068152229</v>
+        <v>3.737958111203036</v>
       </c>
       <c r="AF35">
-        <v>5014.239206815223</v>
+        <v>251.337958111203</v>
       </c>
       <c r="AG35">
-        <v>4933.239206815223</v>
+        <v>230.837958111203</v>
       </c>
       <c r="AH35">
-        <v>0.8710812595752887</v>
+        <v>0.708916922323926</v>
       </c>
       <c r="AI35">
-        <v>0.827126584048048</v>
+        <v>0.9062515633378433</v>
       </c>
       <c r="AJ35">
-        <v>0.8692412959019523</v>
+        <v>0.6910530749752573</v>
       </c>
       <c r="AK35">
-        <v>0.8247854727485445</v>
+        <v>0.8987688572545699</v>
       </c>
       <c r="AL35">
-        <v>406</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AM35">
-        <v>406</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AN35">
-        <v>1246.25</v>
+        <v>25.36365498873182</v>
       </c>
       <c r="AO35">
-        <v>0.6674876847290641</v>
+        <v>0.2621951219512195</v>
       </c>
       <c r="AP35">
-        <v>1233.309801703806</v>
+        <v>23.64658452276204</v>
       </c>
       <c r="AQ35">
-        <v>0.6674876847290641</v>
+        <v>0.2621951219512195</v>
       </c>
     </row>
     <row r="36">
@@ -5084,7 +5078,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tiptree Inc. (NasdaqCM:TIPT)</t>
+          <t>ACMAT Corporation (OTCPK:ACMT.A)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5093,121 +5087,118 @@
         </is>
       </c>
       <c r="D36">
-        <v>0.479</v>
-      </c>
-      <c r="E36">
-        <v>-0.122</v>
+        <v>-0.171</v>
       </c>
       <c r="G36">
-        <v>0.0279305966991113</v>
+        <v>1.16</v>
       </c>
       <c r="H36">
-        <v>0.0279305966991113</v>
+        <v>1.16</v>
       </c>
       <c r="I36">
-        <v>0.03438279099668745</v>
+        <v>-0.014</v>
       </c>
       <c r="J36">
-        <v>0.03438279099668745</v>
+        <v>-0.014</v>
       </c>
       <c r="K36">
-        <v>14.4</v>
+        <v>-0.064</v>
       </c>
       <c r="L36">
-        <v>0.02031316123571731</v>
+        <v>-0.032</v>
       </c>
       <c r="M36">
-        <v>14.81</v>
+        <v>0.721</v>
       </c>
       <c r="N36">
-        <v>0.05296852646638053</v>
+        <v>0.02621818181818182</v>
       </c>
       <c r="O36">
-        <v>1.028472222222222</v>
+        <v>-11.265625</v>
       </c>
       <c r="P36">
-        <v>5.36</v>
+        <v>-0</v>
       </c>
       <c r="Q36">
-        <v>0.01917024320457797</v>
+        <v>-0</v>
       </c>
       <c r="R36">
-        <v>0.3722222222222222</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>9.449999999999999</v>
+        <v>0.721</v>
       </c>
       <c r="T36">
-        <v>0.6380823767724511</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>136.1</v>
+        <v>1.92</v>
       </c>
       <c r="V36">
-        <v>0.486766809728183</v>
+        <v>0.06981818181818182</v>
       </c>
       <c r="W36">
-        <v>0.03721891961747222</v>
+        <v>-0.002077922077922078</v>
       </c>
       <c r="X36">
-        <v>0.07327046894606631</v>
+        <v>0.04110436106780208</v>
       </c>
       <c r="Y36">
-        <v>-0.0360515493285941</v>
+        <v>-0.04318228314572416</v>
       </c>
       <c r="Z36">
-        <v>1.151129001296066</v>
+        <v>0.06475635421725756</v>
       </c>
       <c r="AA36">
-        <v>0.03957902786178821</v>
+        <v>-0.000906588959041606</v>
       </c>
       <c r="AB36">
-        <v>0.04263029845230062</v>
+        <v>0.040365170257502</v>
       </c>
       <c r="AC36">
-        <v>-0.003051270590512412</v>
+        <v>-0.0412717592165436</v>
       </c>
       <c r="AD36">
-        <v>360.8</v>
+        <v>1.1</v>
       </c>
       <c r="AE36">
-        <v>38.03019731224136</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>398.8301973122414</v>
+        <v>1.1</v>
       </c>
       <c r="AG36">
-        <v>262.7301973122413</v>
+        <v>-0.8199999999999998</v>
       </c>
       <c r="AH36">
-        <v>0.5878721184468199</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AI36">
-        <v>0.4946852631442434</v>
+        <v>0.03571428571428572</v>
       </c>
       <c r="AJ36">
-        <v>0.4844469266404817</v>
+        <v>-0.03073463268365817</v>
       </c>
       <c r="AK36">
-        <v>0.3920584363546066</v>
+        <v>-0.02839335180055401</v>
       </c>
       <c r="AL36">
-        <v>27.3</v>
+        <v>0.074</v>
       </c>
       <c r="AM36">
-        <v>27.3</v>
+        <v>0.074</v>
       </c>
       <c r="AN36">
-        <v>7.950639048038784</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="AO36">
-        <v>0.9706959706959707</v>
+        <v>-0.3783783783783784</v>
       </c>
       <c r="AP36">
-        <v>5.789559217986808</v>
+        <v>-3.388429752066115</v>
       </c>
       <c r="AQ36">
-        <v>0.9706959706959707</v>
+        <v>-0.3783783783783784</v>
       </c>
     </row>
     <row r="37">
@@ -5218,7 +5209,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The National Security Group, Inc. (NasdaqGM:NSEC)</t>
+          <t>Protective Insurance Corporation (NasdaqGM:PTVC.B)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5227,121 +5218,112 @@
         </is>
       </c>
       <c r="D37">
-        <v>0.018</v>
-      </c>
-      <c r="E37">
-        <v>-0.283</v>
+        <v>0.0984</v>
       </c>
       <c r="G37">
-        <v>0.0394856278366112</v>
+        <v>0.03218038528896672</v>
       </c>
       <c r="H37">
-        <v>0.0394856278366112</v>
+        <v>0.03218038528896672</v>
       </c>
       <c r="I37">
-        <v>0.03313161875945538</v>
+        <v>-0.003921732552721685</v>
       </c>
       <c r="J37">
-        <v>0.03313161875945538</v>
+        <v>-0.003921732552721685</v>
       </c>
       <c r="K37">
-        <v>1.23</v>
+        <v>-3.74</v>
       </c>
       <c r="L37">
-        <v>0.01860816944024206</v>
+        <v>-0.00818739054290718</v>
       </c>
       <c r="M37">
-        <v>0.505</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N37">
-        <v>0.01304909560723514</v>
+        <v>0.04369663485685585</v>
       </c>
       <c r="O37">
-        <v>0.4105691056910569</v>
+        <v>-2.326203208556149</v>
       </c>
       <c r="P37">
-        <v>0.505</v>
+        <v>5.7</v>
       </c>
       <c r="Q37">
-        <v>0.01304909560723514</v>
+        <v>0.02862882973380211</v>
       </c>
       <c r="R37">
-        <v>0.4105691056910569</v>
+        <v>-1.524064171122995</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>2.999999999999999</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>0.3448275862068965</v>
       </c>
       <c r="U37">
-        <v>9.09</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="V37">
-        <v>0.2348837209302325</v>
+        <v>0.4540431943746862</v>
       </c>
       <c r="W37">
-        <v>0.02628205128205128</v>
+        <v>-0.01029168959823886</v>
       </c>
       <c r="X37">
-        <v>0.05266405632359886</v>
+        <v>0.04248248308833909</v>
       </c>
       <c r="Y37">
-        <v>-0.02638200504154757</v>
+        <v>-0.05277417268657794</v>
       </c>
       <c r="Z37">
-        <v>1.15863277826468</v>
+        <v>1.534290259675563</v>
       </c>
       <c r="AA37">
-        <v>0.03838737949167397</v>
+        <v>-0.006017076056693462</v>
       </c>
       <c r="AB37">
-        <v>0.04530120262637737</v>
+        <v>0.03986897728766979</v>
       </c>
       <c r="AC37">
-        <v>-0.006913823134703394</v>
+        <v>-0.04588605334436326</v>
       </c>
       <c r="AD37">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>0.1272371504163308</v>
       </c>
       <c r="AF37">
-        <v>14.5</v>
+        <v>20.12723715041633</v>
       </c>
       <c r="AG37">
-        <v>5.41</v>
+        <v>-70.27276284958367</v>
       </c>
       <c r="AH37">
-        <v>0.2725563909774436</v>
+        <v>0.09180992933194071</v>
       </c>
       <c r="AI37">
-        <v>0.2177177177177177</v>
+        <v>0.05516922833839289</v>
       </c>
       <c r="AJ37">
-        <v>0.1226479256404444</v>
+        <v>-0.5454806328535516</v>
       </c>
       <c r="AK37">
-        <v>0.09407059641801425</v>
+        <v>-0.2560706567587038</v>
       </c>
       <c r="AL37">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AN37">
-        <v>5.823293172690763</v>
-      </c>
-      <c r="AO37">
-        <v>1.825</v>
+        <v>4.701457451810062</v>
       </c>
       <c r="AP37">
-        <v>2.172690763052209</v>
-      </c>
-      <c r="AQ37">
-        <v>1.825</v>
+        <v>-16.51922022792282</v>
       </c>
     </row>
     <row r="38">
@@ -5352,7 +5334,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>State Auto Financial Corporation (NasdaqGS:STFC)</t>
+          <t>Kingstone Companies, Inc. (NasdaqCM:KINS)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5361,124 +5343,118 @@
         </is>
       </c>
       <c r="D38">
-        <v>0.0229</v>
-      </c>
-      <c r="E38">
-        <v>-0.124</v>
-      </c>
-      <c r="F38">
-        <v>0.03</v>
+        <v>0.168</v>
       </c>
       <c r="G38">
-        <v>0.02104699219347926</v>
+        <v>-0.0308095952023988</v>
       </c>
       <c r="H38">
-        <v>0.02104699219347926</v>
+        <v>-0.0308095952023988</v>
       </c>
       <c r="I38">
-        <v>0.02992499617327415</v>
+        <v>-0.005154297849064546</v>
       </c>
       <c r="J38">
-        <v>0.02642499662084443</v>
+        <v>-0.005154297849064546</v>
       </c>
       <c r="K38">
-        <v>30.2</v>
+        <v>-0.609</v>
       </c>
       <c r="L38">
-        <v>0.02311342415429359</v>
+        <v>-0.004565217391304347</v>
       </c>
       <c r="M38">
-        <v>7.4</v>
+        <v>3.142</v>
       </c>
       <c r="N38">
-        <v>0.005506362080511942</v>
+        <v>0.04425352112676057</v>
       </c>
       <c r="O38">
-        <v>0.2450331125827815</v>
+        <v>-5.159277504105091</v>
       </c>
       <c r="P38">
-        <v>6.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q38">
-        <v>0.00513431058858546</v>
+        <v>0.03098591549295775</v>
       </c>
       <c r="R38">
-        <v>0.228476821192053</v>
+        <v>-3.612479474548441</v>
       </c>
       <c r="S38">
-        <v>0.5</v>
+        <v>0.9420000000000002</v>
       </c>
       <c r="T38">
-        <v>0.06756756756756756</v>
+        <v>0.2998090388287715</v>
       </c>
       <c r="U38">
-        <v>38.3</v>
+        <v>24.4</v>
       </c>
       <c r="V38">
-        <v>0.02849914428156856</v>
+        <v>0.3436619718309859</v>
       </c>
       <c r="W38">
-        <v>0.03473659995399126</v>
+        <v>-0.007024221453287197</v>
       </c>
       <c r="X38">
-        <v>0.04710183798682566</v>
+        <v>0.05002700619168537</v>
       </c>
       <c r="Y38">
-        <v>-0.0123652380328344</v>
+        <v>-0.05705122764497257</v>
       </c>
       <c r="Z38">
-        <v>1.387196093003503</v>
+        <v>1.452796369845374</v>
       </c>
       <c r="AA38">
-        <v>0.03665665207006617</v>
+        <v>-0.007488145204222795</v>
       </c>
       <c r="AB38">
-        <v>0.04494198790537896</v>
+        <v>0.03910144224656664</v>
       </c>
       <c r="AC38">
-        <v>-0.008285335835312789</v>
+        <v>-0.04658958745078944</v>
       </c>
       <c r="AD38">
-        <v>122</v>
+        <v>29.6</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1.322916665326052</v>
       </c>
       <c r="AF38">
-        <v>122</v>
+        <v>30.92291666532605</v>
       </c>
       <c r="AG38">
-        <v>83.7</v>
+        <v>6.522916665326054</v>
       </c>
       <c r="AH38">
-        <v>0.08322532232758031</v>
+        <v>0.3033951311152574</v>
       </c>
       <c r="AI38">
-        <v>0.1144787463638923</v>
+        <v>0.2572131630395276</v>
       </c>
       <c r="AJ38">
-        <v>0.0586298683104511</v>
+        <v>0.0841417860151743</v>
       </c>
       <c r="AK38">
-        <v>0.08146778275257932</v>
+        <v>0.0680726165757215</v>
       </c>
       <c r="AL38">
-        <v>4.9</v>
+        <v>1.83</v>
       </c>
       <c r="AM38">
-        <v>4.9</v>
+        <v>1.83</v>
       </c>
       <c r="AN38">
-        <v>2.568421052631579</v>
+        <v>12.78065630397237</v>
       </c>
       <c r="AO38">
-        <v>7.979591836734693</v>
+        <v>-0.3710382513661202</v>
       </c>
       <c r="AP38">
-        <v>1.762105263157895</v>
+        <v>2.816457972938711</v>
       </c>
       <c r="AQ38">
-        <v>7.979591836734693</v>
+        <v>-0.3710382513661202</v>
       </c>
     </row>
     <row r="39">
@@ -5489,7 +5465,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FedNat Holding Company (NasdaqGM:FNHC)</t>
+          <t>Loews Corporation (NYSE:L)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5498,118 +5474,118 @@
         </is>
       </c>
       <c r="D39">
-        <v>0.16</v>
+        <v>-0.0127</v>
       </c>
       <c r="G39">
-        <v>0.06411530815109344</v>
+        <v>0.2139607843137255</v>
       </c>
       <c r="H39">
-        <v>0.06411530815109344</v>
+        <v>0.2139607843137255</v>
       </c>
       <c r="I39">
-        <v>0.01585396573653585</v>
+        <v>-0.02665656436467048</v>
       </c>
       <c r="J39">
-        <v>0.01585396573653585</v>
+        <v>-0.02665656436467048</v>
       </c>
       <c r="K39">
-        <v>-1.4</v>
+        <v>-1111</v>
       </c>
       <c r="L39">
-        <v>-0.003479125248508947</v>
+        <v>-0.08713725490196078</v>
       </c>
       <c r="M39">
-        <v>4.17</v>
+        <v>1158</v>
       </c>
       <c r="N39">
-        <v>0.01682129891085115</v>
+        <v>0.09357726993567574</v>
       </c>
       <c r="O39">
-        <v>-2.978571428571429</v>
+        <v>-1.042304230423042</v>
       </c>
       <c r="P39">
-        <v>4.17</v>
+        <v>72</v>
       </c>
       <c r="Q39">
-        <v>0.01682129891085115</v>
+        <v>0.005818275850922844</v>
       </c>
       <c r="R39">
-        <v>-2.978571428571429</v>
+        <v>-0.06480648064806481</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1086</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>0.9378238341968912</v>
       </c>
       <c r="U39">
-        <v>121.4</v>
+        <v>886</v>
       </c>
       <c r="V39">
-        <v>0.4897135941912061</v>
+        <v>0.07159711672107832</v>
       </c>
       <c r="W39">
-        <v>-0.006280843427545984</v>
+        <v>-0.05720906282183316</v>
       </c>
       <c r="X39">
-        <v>0.05442487605467514</v>
+        <v>0.0606523739471355</v>
       </c>
       <c r="Y39">
-        <v>-0.06070571948222112</v>
+        <v>-0.1178614367689687</v>
       </c>
       <c r="Z39">
-        <v>1.947142428985699</v>
+        <v>0.4183022012308195</v>
       </c>
       <c r="AA39">
-        <v>0.03086992935329446</v>
+        <v>-0.01115049955099268</v>
       </c>
       <c r="AB39">
-        <v>0.04387021264213451</v>
+        <v>0.03913489915326851</v>
       </c>
       <c r="AC39">
-        <v>-0.01300028328884005</v>
+        <v>-0.05028539870426119</v>
       </c>
       <c r="AD39">
-        <v>106.3</v>
+        <v>10439</v>
       </c>
       <c r="AE39">
-        <v>8.861820938089872</v>
+        <v>779.355978247743</v>
       </c>
       <c r="AF39">
-        <v>115.1618209380899</v>
+        <v>11218.35597824774</v>
       </c>
       <c r="AG39">
-        <v>-6.238179061910131</v>
+        <v>10332.35597824774</v>
       </c>
       <c r="AH39">
-        <v>0.3171961751321892</v>
+        <v>0.4754919599815627</v>
       </c>
       <c r="AI39">
-        <v>0.3266429150827207</v>
+        <v>0.3759709813243719</v>
       </c>
       <c r="AJ39">
-        <v>-0.02581367233638556</v>
+        <v>0.4550264237470159</v>
       </c>
       <c r="AK39">
-        <v>-0.02698619969593011</v>
+        <v>0.3568744452441303</v>
       </c>
       <c r="AL39">
-        <v>9.9</v>
+        <v>546</v>
       </c>
       <c r="AM39">
-        <v>9.9</v>
+        <v>546</v>
       </c>
       <c r="AN39">
-        <v>11.08215179316097</v>
+        <v>13.7536231884058</v>
       </c>
       <c r="AO39">
-        <v>0.7424242424242423</v>
+        <v>-0.5457875457875457</v>
       </c>
       <c r="AP39">
-        <v>-0.6503522791816234</v>
+        <v>13.61311723089294</v>
       </c>
       <c r="AQ39">
-        <v>0.7424242424242423</v>
+        <v>-0.5457875457875457</v>
       </c>
     </row>
     <row r="40">
@@ -5620,7 +5596,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Loews Corporation (NYSE:L)</t>
+          <t>Ambac Financial Group, Inc. (NYSE:AMBC)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5629,124 +5605,118 @@
         </is>
       </c>
       <c r="D40">
-        <v>-0.00337</v>
-      </c>
-      <c r="E40">
-        <v>0.243</v>
-      </c>
-      <c r="F40">
-        <v>0.146</v>
+        <v>-0.234</v>
       </c>
       <c r="G40">
-        <v>0.1636452377632129</v>
+        <v>1.394285714285714</v>
       </c>
       <c r="H40">
-        <v>0.1636452377632129</v>
+        <v>1.394285714285714</v>
       </c>
       <c r="I40">
-        <v>0.0799767497154894</v>
+        <v>-1.647673916069659</v>
       </c>
       <c r="J40">
-        <v>0.05877178497914033</v>
+        <v>-1.647673916069659</v>
       </c>
       <c r="K40">
-        <v>550</v>
+        <v>-533</v>
       </c>
       <c r="L40">
-        <v>0.03834890531306652</v>
+        <v>-3.045714285714286</v>
       </c>
       <c r="M40">
-        <v>857</v>
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>0.05539825983529199</v>
+        <v>0.0042583392476934</v>
       </c>
       <c r="O40">
-        <v>1.558181818181818</v>
+        <v>-0.005628517823639775</v>
       </c>
       <c r="P40">
-        <v>77</v>
+        <v>-0</v>
       </c>
       <c r="Q40">
-        <v>0.004977439915189595</v>
+        <v>-0</v>
       </c>
       <c r="R40">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>780</v>
+        <v>3</v>
       </c>
       <c r="T40">
-        <v>0.9101516919486581</v>
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>442</v>
+        <v>37</v>
       </c>
       <c r="V40">
-        <v>0.02857179795472469</v>
+        <v>0.0525195173882186</v>
       </c>
       <c r="W40">
-        <v>0.02902068383284086</v>
+        <v>-0.339771785554918</v>
       </c>
       <c r="X40">
-        <v>0.06152659258567239</v>
+        <v>0.3232225097345772</v>
       </c>
       <c r="Y40">
-        <v>-0.03250590875283153</v>
+        <v>-0.6629942952894952</v>
       </c>
       <c r="Z40">
-        <v>0.481455030370996</v>
+        <v>0.01628889662912605</v>
       </c>
       <c r="AA40">
-        <v>0.02829597152208966</v>
+        <v>-0.026838790097366</v>
       </c>
       <c r="AB40">
-        <v>0.04384854410903308</v>
+        <v>0.04130459427833045</v>
       </c>
       <c r="AC40">
-        <v>-0.01555257258694342</v>
+        <v>-0.06814338437569645</v>
       </c>
       <c r="AD40">
-        <v>12189</v>
+        <v>8802</v>
       </c>
       <c r="AE40">
-        <v>604.8672779022548</v>
+        <v>36.71467656095189</v>
       </c>
       <c r="AF40">
-        <v>12793.86727790225</v>
+        <v>8838.714676560952</v>
       </c>
       <c r="AG40">
-        <v>12351.86727790225</v>
+        <v>8801.714676560952</v>
       </c>
       <c r="AH40">
-        <v>0.4526612612619116</v>
+        <v>0.9261779155266915</v>
       </c>
       <c r="AI40">
-        <v>0.364998166188079</v>
+        <v>0.889769332454887</v>
       </c>
       <c r="AJ40">
-        <v>0.4439657463560028</v>
+        <v>0.9258905858988169</v>
       </c>
       <c r="AK40">
-        <v>0.3568886057470867</v>
+        <v>0.8893572224939089</v>
       </c>
       <c r="AL40">
-        <v>593</v>
+        <v>254</v>
       </c>
       <c r="AM40">
-        <v>593</v>
+        <v>254</v>
       </c>
       <c r="AN40">
-        <v>5.6015625</v>
+        <v>-39.12</v>
       </c>
       <c r="AO40">
-        <v>2.011804384485666</v>
+        <v>-1.122047244094488</v>
       </c>
       <c r="AP40">
-        <v>5.676409594624197</v>
+        <v>-39.11873189582646</v>
       </c>
       <c r="AQ40">
-        <v>2.011804384485666</v>
+        <v>-1.122047244094488</v>
       </c>
     </row>
     <row r="41">
@@ -5757,7 +5727,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ICC Holdings, Inc. (NasdaqCM:ICCH)</t>
+          <t>State Auto Financial Corporation (NasdaqGS:STFC)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5765,116 +5735,122 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D41">
+        <v>0.0135</v>
+      </c>
+      <c r="F41">
+        <v>0.03</v>
+      </c>
       <c r="G41">
-        <v>0.03286467486818981</v>
+        <v>0.08608942512420156</v>
       </c>
       <c r="H41">
-        <v>0.03286467486818981</v>
+        <v>0.08608942512420156</v>
       </c>
       <c r="I41">
-        <v>0.03144831054252505</v>
+        <v>-0.03016323633782825</v>
       </c>
       <c r="J41">
-        <v>0.02702151014131611</v>
+        <v>-0.03016323633782825</v>
       </c>
       <c r="K41">
-        <v>1.35</v>
+        <v>-36</v>
       </c>
       <c r="L41">
-        <v>0.02372583479789104</v>
+        <v>-0.0255500354861604</v>
       </c>
       <c r="M41">
-        <v>0.103</v>
+        <v>8</v>
       </c>
       <c r="N41">
-        <v>0.002356979405034325</v>
+        <v>0.01028674296001029</v>
       </c>
       <c r="O41">
-        <v>0.07629629629629629</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="P41">
-        <v>-0</v>
+        <v>7.1</v>
       </c>
       <c r="Q41">
-        <v>-0</v>
+        <v>0.009129484377009129</v>
       </c>
       <c r="R41">
-        <v>-0</v>
+        <v>-0.1972222222222222</v>
       </c>
       <c r="S41">
-        <v>0.103</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="T41">
-        <v>1</v>
+        <v>0.1125</v>
       </c>
       <c r="U41">
-        <v>2.03</v>
+        <v>131.4</v>
       </c>
       <c r="V41">
-        <v>0.04645308924485125</v>
+        <v>0.168959753118169</v>
       </c>
       <c r="W41">
-        <v>0.02276559865092749</v>
+        <v>-0.03814771643530783</v>
       </c>
       <c r="X41">
-        <v>0.04693184796263715</v>
+        <v>0.043740834010689</v>
       </c>
       <c r="Y41">
-        <v>-0.02416624931170966</v>
+        <v>-0.08188855044599683</v>
       </c>
       <c r="Z41">
-        <v>0.9452148230781999</v>
+        <v>1.371423009538641</v>
       </c>
       <c r="AA41">
-        <v>0.02554113192752989</v>
+        <v>-0.04136655635584972</v>
       </c>
       <c r="AB41">
-        <v>0.04497566005370795</v>
+        <v>0.03971012405258734</v>
       </c>
       <c r="AC41">
-        <v>-0.01943452812617806</v>
+        <v>-0.08107668040843705</v>
       </c>
       <c r="AD41">
-        <v>3.48</v>
+        <v>122</v>
       </c>
       <c r="AE41">
-        <v>0.1079556506516242</v>
+        <v>0</v>
       </c>
       <c r="AF41">
-        <v>3.587955650651624</v>
+        <v>122</v>
       </c>
       <c r="AG41">
-        <v>1.557955650651624</v>
+        <v>-9.400000000000006</v>
       </c>
       <c r="AH41">
-        <v>0.07587461968451965</v>
+        <v>0.1356007558074914</v>
       </c>
       <c r="AI41">
-        <v>0.05396399416315126</v>
+        <v>0.1144357940155708</v>
       </c>
       <c r="AJ41">
-        <v>0.03442390687457384</v>
+        <v>-0.01223480411297671</v>
       </c>
       <c r="AK41">
-        <v>0.02417010646591728</v>
+        <v>-0.0100567026853536</v>
       </c>
       <c r="AL41">
-        <v>0.129</v>
+        <v>4.8</v>
       </c>
       <c r="AM41">
-        <v>0.129</v>
+        <v>4.8</v>
       </c>
       <c r="AN41">
-        <v>1.317682695948504</v>
+        <v>-3.848580441640379</v>
       </c>
       <c r="AO41">
-        <v>13.17829457364341</v>
+        <v>-8.854166666666668</v>
       </c>
       <c r="AP41">
-        <v>0.5899112649192065</v>
+        <v>0.2965299684542589</v>
       </c>
       <c r="AQ41">
-        <v>13.17829457364341</v>
+        <v>-8.854166666666668</v>
       </c>
     </row>
     <row r="42">
@@ -5885,7 +5861,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ProAssurance Corporation (NYSE:PRA)</t>
+          <t>Tiptree Inc. (NasdaqCM:TIPT)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5894,124 +5870,118 @@
         </is>
       </c>
       <c r="D42">
-        <v>0.0237</v>
-      </c>
-      <c r="E42">
-        <v>-0.292</v>
-      </c>
-      <c r="F42">
-        <v>0.273</v>
+        <v>0.14</v>
       </c>
       <c r="G42">
-        <v>0.07141320714132073</v>
+        <v>0.08325673013788575</v>
       </c>
       <c r="H42">
-        <v>0.07141320714132073</v>
+        <v>0.08325673013788575</v>
       </c>
       <c r="I42">
-        <v>0.04250512209063324</v>
+        <v>-0.03050238432011804</v>
       </c>
       <c r="J42">
-        <v>0.04250512209063324</v>
+        <v>-0.03050238432011804</v>
       </c>
       <c r="K42">
-        <v>35.9</v>
+        <v>-39.3</v>
       </c>
       <c r="L42">
-        <v>0.03861045386104538</v>
+        <v>-0.05160866710439921</v>
       </c>
       <c r="M42">
-        <v>68.02</v>
+        <v>14.79</v>
       </c>
       <c r="N42">
-        <v>0.03519428778392922</v>
+        <v>0.08761848341232227</v>
       </c>
       <c r="O42">
-        <v>1.894707520891365</v>
+        <v>-0.3763358778625954</v>
       </c>
       <c r="P42">
-        <v>66.3</v>
+        <v>5.62</v>
       </c>
       <c r="Q42">
-        <v>0.03430434107724944</v>
+        <v>0.03329383886255924</v>
       </c>
       <c r="R42">
-        <v>1.846796657381616</v>
+        <v>-0.1430025445292621</v>
       </c>
       <c r="S42">
-        <v>1.719999999999999</v>
+        <v>9.169999999999998</v>
       </c>
       <c r="T42">
-        <v>0.02528668038812112</v>
+        <v>0.6200135226504394</v>
       </c>
       <c r="U42">
-        <v>92.09999999999999</v>
+        <v>103.5</v>
       </c>
       <c r="V42">
-        <v>0.04765354167744606</v>
+        <v>0.6131516587677724</v>
       </c>
       <c r="W42">
-        <v>0.02262272354905791</v>
+        <v>-0.09954407294832826</v>
       </c>
       <c r="X42">
-        <v>0.04869129136679325</v>
+        <v>0.1069403418015336</v>
       </c>
       <c r="Y42">
-        <v>-0.02606856781773534</v>
+        <v>-0.2064844147498619</v>
       </c>
       <c r="Z42">
-        <v>0.5808913047412456</v>
+        <v>1.444730762343165</v>
       </c>
       <c r="AA42">
-        <v>0.02469085582941389</v>
+        <v>-0.04406773295208835</v>
       </c>
       <c r="AB42">
-        <v>0.04465127030561605</v>
+        <v>0.0374908797146353</v>
       </c>
       <c r="AC42">
-        <v>-0.01996041447620216</v>
+        <v>-0.08155861266672365</v>
       </c>
       <c r="AD42">
-        <v>308.2</v>
+        <v>461.4</v>
       </c>
       <c r="AE42">
-        <v>24.04368740064604</v>
+        <v>37.98782829884945</v>
       </c>
       <c r="AF42">
-        <v>332.243687400646</v>
+        <v>499.3878282988494</v>
       </c>
       <c r="AG42">
-        <v>240.143687400646</v>
+        <v>395.8878282988494</v>
       </c>
       <c r="AH42">
-        <v>0.1466896017101177</v>
+        <v>0.747376421941491</v>
       </c>
       <c r="AI42">
-        <v>0.1728865766953758</v>
+        <v>0.5799499329649469</v>
       </c>
       <c r="AJ42">
-        <v>0.1105204616388802</v>
+        <v>0.701073776446504</v>
       </c>
       <c r="AK42">
-        <v>0.1312516142100954</v>
+        <v>0.5225636071632893</v>
       </c>
       <c r="AL42">
-        <v>17.7</v>
+        <v>30.4</v>
       </c>
       <c r="AM42">
-        <v>17.7</v>
+        <v>30.4</v>
       </c>
       <c r="AN42">
-        <v>4.881989545382544</v>
+        <v>1647.857142857141</v>
       </c>
       <c r="AO42">
-        <v>2.231638418079096</v>
+        <v>-0.7500000000000001</v>
       </c>
       <c r="AP42">
-        <v>3.803955130692952</v>
+        <v>1413.885101067318</v>
       </c>
       <c r="AQ42">
-        <v>2.231638418079096</v>
+        <v>-0.7500000000000001</v>
       </c>
     </row>
     <row r="43">
@@ -6022,7 +5992,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ambac Financial Group, Inc. (NasdaqGS:AMBC)</t>
+          <t>Universal Insurance Holdings, Inc. (NYSE:UVE)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6031,118 +6001,118 @@
         </is>
       </c>
       <c r="D43">
-        <v>-0.0378</v>
+        <v>0.163</v>
       </c>
       <c r="G43">
-        <v>1.294166840894836</v>
+        <v>0.06612127045235804</v>
       </c>
       <c r="H43">
-        <v>1.294166840894836</v>
+        <v>0.06612127045235804</v>
       </c>
       <c r="I43">
-        <v>0.4076030784041237</v>
+        <v>-0.01693936477382098</v>
       </c>
       <c r="J43">
-        <v>0.4076030784041237</v>
+        <v>-0.01693936477382098</v>
       </c>
       <c r="K43">
-        <v>-207.7</v>
+        <v>-14.3</v>
       </c>
       <c r="L43">
-        <v>-0.4342462889399958</v>
+        <v>-0.01376323387872955</v>
       </c>
       <c r="M43">
-        <v>2.61</v>
+        <v>65.2</v>
       </c>
       <c r="N43">
-        <v>0.002652439024390244</v>
+        <v>0.1376979936642027</v>
       </c>
       <c r="O43">
-        <v>-0.01256620125180549</v>
+        <v>-4.559440559440559</v>
       </c>
       <c r="P43">
-        <v>-0</v>
+        <v>20.6</v>
       </c>
       <c r="Q43">
-        <v>-0</v>
+        <v>0.04350580781414995</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>-1.440559440559441</v>
       </c>
       <c r="S43">
-        <v>2.61</v>
+        <v>44.6</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>0.6840490797546012</v>
       </c>
       <c r="U43">
-        <v>52</v>
+        <v>405.1</v>
       </c>
       <c r="V43">
-        <v>0.05284552845528456</v>
+        <v>0.8555438225976769</v>
       </c>
       <c r="W43">
-        <v>-0.1181657848324515</v>
+        <v>-0.02513181019332162</v>
       </c>
       <c r="X43">
-        <v>0.2292942063579959</v>
+        <v>0.04062222426123495</v>
       </c>
       <c r="Y43">
-        <v>-0.3474599911904473</v>
+        <v>-0.06575403445455656</v>
       </c>
       <c r="Z43">
-        <v>0.03997269775990225</v>
+        <v>2.465590887517798</v>
       </c>
       <c r="AA43">
-        <v>0.01629299465905378</v>
+        <v>-0.041765543426673</v>
       </c>
       <c r="AB43">
-        <v>0.04118331038544286</v>
+        <v>0.04013568648966402</v>
       </c>
       <c r="AC43">
-        <v>-0.02489031572638908</v>
+        <v>-0.08190122991633703</v>
       </c>
       <c r="AD43">
-        <v>9219.700000000001</v>
+        <v>8.82</v>
       </c>
       <c r="AE43">
-        <v>19.96723799653801</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>9239.667237996538</v>
+        <v>8.82</v>
       </c>
       <c r="AG43">
-        <v>9187.667237996538</v>
+        <v>-396.28</v>
       </c>
       <c r="AH43">
-        <v>0.9037527359710088</v>
+        <v>0.01828661469563775</v>
       </c>
       <c r="AI43">
-        <v>0.850143083654189</v>
+        <v>0.0182374591621521</v>
       </c>
       <c r="AJ43">
-        <v>0.9032606968969412</v>
+        <v>-5.131831131831134</v>
       </c>
       <c r="AK43">
-        <v>0.8494226421715249</v>
+        <v>-5.046867040244525</v>
       </c>
       <c r="AL43">
-        <v>287.7</v>
+        <v>0.248</v>
       </c>
       <c r="AM43">
-        <v>287.7</v>
+        <v>0.248</v>
       </c>
       <c r="AN43">
-        <v>18.13295309273282</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="AO43">
-        <v>0.6718804310045187</v>
+        <v>-70.96774193548387</v>
       </c>
       <c r="AP43">
-        <v>18.06995228242018</v>
+        <v>31.45079365079365</v>
       </c>
       <c r="AQ43">
-        <v>0.6718804310045187</v>
+        <v>-70.96774193548387</v>
       </c>
     </row>
     <row r="44">
@@ -6153,7 +6123,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1347 Property Insurance Holdings, Inc. (NasdaqGM:PIH)</t>
+          <t>Conifer Holdings, Inc. (NasdaqGM:CNFR)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6162,34 +6132,34 @@
         </is>
       </c>
       <c r="D44">
-        <v>0.295</v>
+        <v>0.0764</v>
       </c>
       <c r="G44">
-        <v>0.03515358361774744</v>
+        <v>-0.05890132248219736</v>
       </c>
       <c r="H44">
-        <v>0.03515358361774744</v>
+        <v>-0.05890132248219736</v>
       </c>
       <c r="I44">
-        <v>0.008238353624973325</v>
+        <v>-0.03600340596825179</v>
       </c>
       <c r="J44">
-        <v>0.008238353624973325</v>
+        <v>-0.03600340596825179</v>
       </c>
       <c r="K44">
-        <v>-7.14</v>
+        <v>-5.71</v>
       </c>
       <c r="L44">
-        <v>-0.1218430034129693</v>
+        <v>-0.05808748728382503</v>
       </c>
       <c r="M44">
-        <v>-0</v>
+        <v>0.037</v>
       </c>
       <c r="N44">
-        <v>-0</v>
+        <v>0.001163522012578616</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>-0.00647985989492119</v>
       </c>
       <c r="P44">
         <v>-0</v>
@@ -6201,70 +6171,79 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>0.037</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>7.55</v>
       </c>
       <c r="V44">
-        <v>0.05294117647058823</v>
+        <v>0.2374213836477987</v>
       </c>
       <c r="W44">
-        <v>-0.1615384615384615</v>
+        <v>-0.1254945054945055</v>
       </c>
       <c r="X44">
-        <v>0.04564371429595702</v>
+        <v>0.07153253463952014</v>
       </c>
       <c r="Y44">
-        <v>-0.2071821758344186</v>
+        <v>-0.1970270401340256</v>
       </c>
       <c r="Z44">
-        <v>1.809526499346062</v>
+        <v>1.90630689586909</v>
       </c>
       <c r="AA44">
-        <v>0.01490751919537292</v>
+        <v>-0.06863354107205273</v>
       </c>
       <c r="AB44">
-        <v>0.04532192648396938</v>
+        <v>0.04089413996268927</v>
       </c>
       <c r="AC44">
-        <v>-0.03041440728859646</v>
+        <v>-0.109527681034742</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>40.9</v>
       </c>
       <c r="AE44">
-        <v>0.5561623878828159</v>
+        <v>3.265674033395753</v>
       </c>
       <c r="AF44">
-        <v>0.5561623878828159</v>
+        <v>44.16567403339575</v>
       </c>
       <c r="AG44">
-        <v>-1.243837612117184</v>
+        <v>36.61567403339576</v>
       </c>
       <c r="AH44">
-        <v>0.01609444884649099</v>
+        <v>0.5813898789863933</v>
       </c>
       <c r="AI44">
-        <v>0.009886248266422976</v>
+        <v>0.5090224276526287</v>
       </c>
       <c r="AJ44">
-        <v>-0.03797262931439446</v>
+        <v>0.535194230718571</v>
       </c>
       <c r="AK44">
-        <v>-0.02284108092776574</v>
+        <v>0.4622276396708979</v>
       </c>
       <c r="AL44">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AM44">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AN44">
-        <v>0</v>
+        <v>-16.72117743254293</v>
+      </c>
+      <c r="AO44">
+        <v>-1.288659793814433</v>
       </c>
       <c r="AP44">
-        <v>-1.727552239051645</v>
+        <v>-14.96961325976932</v>
+      </c>
+      <c r="AQ44">
+        <v>-1.288659793814433</v>
       </c>
     </row>
     <row r="45">
@@ -6275,7 +6254,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>United Fire Group, Inc. (NasdaqGS:UFCS)</t>
+          <t>MBIA Inc. (NYSE:MBI)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6284,115 +6263,118 @@
         </is>
       </c>
       <c r="D45">
-        <v>0.0473</v>
-      </c>
-      <c r="E45">
-        <v>-0.298</v>
+        <v>-0.21</v>
       </c>
       <c r="G45">
-        <v>-0.003431330287093714</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>-0.003431330287093714</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0.006209338395263281</v>
+        <v>-1.5992008020735</v>
       </c>
       <c r="J45">
-        <v>0.006209338395263281</v>
+        <v>-1.5992008020735</v>
       </c>
       <c r="K45">
-        <v>8.65</v>
+        <v>-711</v>
       </c>
       <c r="L45">
-        <v>0.007457539443055435</v>
+        <v>-2.703422053231939</v>
       </c>
       <c r="M45">
-        <v>40.23</v>
+        <v>210</v>
       </c>
       <c r="N45">
-        <v>0.03691164327002477</v>
+        <v>0.5918827508455468</v>
       </c>
       <c r="O45">
-        <v>4.650867052023122</v>
+        <v>-0.2953586497890295</v>
       </c>
       <c r="P45">
-        <v>32.1</v>
+        <v>-0</v>
       </c>
       <c r="Q45">
-        <v>0.0294522433250757</v>
+        <v>-0</v>
       </c>
       <c r="R45">
-        <v>3.710982658959538</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>8.130000000000003</v>
+        <v>210</v>
       </c>
       <c r="T45">
-        <v>0.2020879940343028</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>129.7</v>
+        <v>111</v>
       </c>
       <c r="V45">
-        <v>0.1190017432791999</v>
+        <v>0.3128523111612176</v>
       </c>
       <c r="W45">
-        <v>0.009782854557792355</v>
+        <v>-0.6869565217391305</v>
       </c>
       <c r="X45">
-        <v>0.04600253414656279</v>
+        <v>0.3385200054247026</v>
       </c>
       <c r="Y45">
-        <v>-0.03621967958877043</v>
+        <v>-1.025476527163833</v>
       </c>
       <c r="Z45">
-        <v>1.360923441421054</v>
+        <v>0.04423923528678459</v>
       </c>
       <c r="AA45">
-        <v>0.008450434177829593</v>
+        <v>-0.07074742055374418</v>
       </c>
       <c r="AB45">
-        <v>0.04516972384233874</v>
+        <v>0.0413087839638379</v>
       </c>
       <c r="AC45">
-        <v>-0.03671928966450914</v>
+        <v>-0.1120562045175821</v>
       </c>
       <c r="AD45">
-        <v>17.4</v>
+        <v>4664</v>
       </c>
       <c r="AE45">
-        <v>20.3889419766706</v>
+        <v>27.94905472665197</v>
       </c>
       <c r="AF45">
-        <v>37.7889419766706</v>
+        <v>4691.949054726652</v>
       </c>
       <c r="AG45">
-        <v>-91.91105802332939</v>
+        <v>4580.949054726652</v>
       </c>
       <c r="AH45">
-        <v>0.03351007584629873</v>
+        <v>0.9296973167968984</v>
       </c>
       <c r="AI45">
-        <v>0.03771393115588938</v>
+        <v>0.950759370095775</v>
       </c>
       <c r="AJ45">
-        <v>-0.09209626896394803</v>
+        <v>0.9281162806159623</v>
       </c>
       <c r="AK45">
-        <v>-0.1053676753198914</v>
+        <v>0.9496263336856965</v>
       </c>
       <c r="AL45">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AM45">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AN45">
-        <v>1.04379124175165</v>
+        <v>1554.666666666667</v>
+      </c>
+      <c r="AO45">
+        <v>-1.509025270758123</v>
       </c>
       <c r="AP45">
-        <v>-5.513560769245913</v>
+        <v>1526.983018242217</v>
+      </c>
+      <c r="AQ45">
+        <v>-1.509025270758123</v>
       </c>
     </row>
     <row r="46">
@@ -6403,7 +6385,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Unico American Corporation (NasdaqGM:UNAM)</t>
+          <t>The National Security Group, Inc. (NasdaqGM:NSEC)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6412,112 +6394,118 @@
         </is>
       </c>
       <c r="D46">
-        <v>0.004079999999999999</v>
+        <v>0.0104</v>
       </c>
       <c r="G46">
-        <v>-0.1083333333333333</v>
+        <v>0.09160419790104947</v>
       </c>
       <c r="H46">
-        <v>-0.1083333333333333</v>
+        <v>0.09160419790104947</v>
       </c>
       <c r="I46">
-        <v>-0.04519230769230769</v>
+        <v>-0.0734632683658171</v>
       </c>
       <c r="J46">
-        <v>-0.04519230769230769</v>
+        <v>-0.0734632683658171</v>
       </c>
       <c r="K46">
-        <v>-1.2</v>
+        <v>-4.58</v>
       </c>
       <c r="L46">
-        <v>-0.03846153846153846</v>
+        <v>-0.06866566716641678</v>
       </c>
       <c r="M46">
-        <v>0.002</v>
+        <v>0.607</v>
       </c>
       <c r="N46">
-        <v>5.333333333333333e-05</v>
+        <v>0.02231617647058824</v>
       </c>
       <c r="O46">
-        <v>-0.001666666666666667</v>
+        <v>-0.132532751091703</v>
       </c>
       <c r="P46">
-        <v>-0</v>
+        <v>0.607</v>
       </c>
       <c r="Q46">
-        <v>-0</v>
+        <v>0.02231617647058824</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>-0.132532751091703</v>
       </c>
       <c r="S46">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>7.53</v>
+        <v>15.1</v>
       </c>
       <c r="V46">
-        <v>0.2008</v>
+        <v>0.5551470588235294</v>
       </c>
       <c r="W46">
-        <v>-0.02146690518783542</v>
+        <v>-0.08790786948176584</v>
       </c>
       <c r="X46">
-        <v>0.04532322702417096</v>
+        <v>0.05264235809711745</v>
       </c>
       <c r="Y46">
-        <v>-0.06679013221200639</v>
+        <v>-0.1405502275788833</v>
       </c>
       <c r="Z46">
-        <v>0.6059429015342785</v>
+        <v>1.159798295948531</v>
       </c>
       <c r="AA46">
-        <v>-0.02738395805010682</v>
+        <v>-0.08520257346548428</v>
       </c>
       <c r="AB46">
-        <v>0.04532322702417096</v>
+        <v>0.04170979005311836</v>
       </c>
       <c r="AC46">
-        <v>-0.07270718507427779</v>
+        <v>-0.1269123635186026</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE46">
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG46">
-        <v>-7.53</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>0.3554502369668246</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>0.2415458937198068</v>
       </c>
       <c r="AJ46">
-        <v>-0.2512512512512513</v>
+        <v>-0.003690036900368991</v>
       </c>
       <c r="AK46">
-        <v>-0.1506904142485491</v>
+        <v>-0.002127659574468077</v>
       </c>
       <c r="AL46">
-        <v>0</v>
+        <v>0.946</v>
       </c>
       <c r="AM46">
-        <v>0</v>
+        <v>0.946</v>
       </c>
       <c r="AN46">
-        <v>-0</v>
+        <v>-3.318584070796461</v>
+      </c>
+      <c r="AO46">
+        <v>-5.17970401691332</v>
       </c>
       <c r="AP46">
-        <v>8.586088939566705</v>
+        <v>0.02212389380530966</v>
+      </c>
+      <c r="AQ46">
+        <v>-5.17970401691332</v>
       </c>
     </row>
     <row r="47">
@@ -6528,7 +6516,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Protective Insurance Corporation (NasdaqGM:PTVC.B)</t>
+          <t>ProAssurance Corporation (NYSE:PRA)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6537,112 +6525,118 @@
         </is>
       </c>
       <c r="D47">
-        <v>0.103</v>
+        <v>0.0216</v>
       </c>
       <c r="G47">
-        <v>-0.07235466332078629</v>
+        <v>0.007264193115780063</v>
       </c>
       <c r="H47">
-        <v>-0.07235466332078629</v>
+        <v>0.007264193115780063</v>
       </c>
       <c r="I47">
-        <v>-0.04987246494939249</v>
+        <v>-0.1623625089281791</v>
       </c>
       <c r="J47">
-        <v>-0.04987246494939249</v>
+        <v>-0.1623625089281791</v>
       </c>
       <c r="K47">
-        <v>-21</v>
+        <v>-249.4</v>
       </c>
       <c r="L47">
-        <v>-0.04391468005018821</v>
+        <v>-0.2787215020116227</v>
       </c>
       <c r="M47">
-        <v>20.91</v>
+        <v>57.22</v>
       </c>
       <c r="N47">
-        <v>0.09138986013986014</v>
+        <v>0.05968499009074788</v>
       </c>
       <c r="O47">
-        <v>-0.9957142857142858</v>
+        <v>-0.2294306335204491</v>
       </c>
       <c r="P47">
-        <v>8.609999999999999</v>
+        <v>52.6</v>
       </c>
       <c r="Q47">
-        <v>0.03763111888111888</v>
+        <v>0.05486596432669239</v>
       </c>
       <c r="R47">
-        <v>-0.41</v>
+        <v>-0.210906174819567</v>
       </c>
       <c r="S47">
-        <v>12.3</v>
+        <v>4.619999999999997</v>
       </c>
       <c r="T47">
-        <v>0.5882352941176471</v>
+        <v>0.08074099965047182</v>
       </c>
       <c r="U47">
-        <v>85.8</v>
+        <v>224.4</v>
       </c>
       <c r="V47">
-        <v>0.3749999999999999</v>
+        <v>0.2340669656826953</v>
       </c>
       <c r="W47">
-        <v>-0.05412371134020619</v>
+        <v>-0.1569046870084932</v>
       </c>
       <c r="X47">
-        <v>0.04709194506856675</v>
+        <v>0.04745310885221814</v>
       </c>
       <c r="Y47">
-        <v>-0.1012156564087729</v>
+        <v>-0.2043577958607114</v>
       </c>
       <c r="Z47">
-        <v>1.596900697223326</v>
+        <v>0.560384826575663</v>
       </c>
       <c r="AA47">
-        <v>-0.07964137404993075</v>
+        <v>-0.09098548640810719</v>
       </c>
       <c r="AB47">
-        <v>0.04494393283821681</v>
+        <v>0.03931963234612495</v>
       </c>
       <c r="AC47">
-        <v>-0.1245853068881476</v>
+        <v>-0.1303051187542321</v>
       </c>
       <c r="AD47">
-        <v>20.2</v>
+        <v>285</v>
       </c>
       <c r="AE47">
-        <v>0.4550636939974191</v>
+        <v>23.15986494467344</v>
       </c>
       <c r="AF47">
-        <v>20.65506369399742</v>
+        <v>308.1598649446734</v>
       </c>
       <c r="AG47">
-        <v>-65.14493630600258</v>
+        <v>83.75986494467341</v>
       </c>
       <c r="AH47">
-        <v>0.08280073929200595</v>
+        <v>0.2432470026652328</v>
       </c>
       <c r="AI47">
-        <v>0.05378151636728504</v>
+        <v>0.1881249101693128</v>
       </c>
       <c r="AJ47">
-        <v>-0.3980624542593483</v>
+        <v>0.08034828750852561</v>
       </c>
       <c r="AK47">
-        <v>-0.2184202189198697</v>
+        <v>0.05925036638707397</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AN47">
-        <v>-1.163728540154396</v>
+        <v>-2.375989995831597</v>
+      </c>
+      <c r="AO47">
+        <v>-9.341935483870968</v>
       </c>
       <c r="AP47">
-        <v>3.753020872566112</v>
+        <v>-0.6982898286342094</v>
+      </c>
+      <c r="AQ47">
+        <v>-9.341935483870968</v>
       </c>
     </row>
     <row r="48">
@@ -6653,7 +6647,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Positive Physicians Holdings, Inc. (NasdaqCM:PPHI)</t>
+          <t>United Fire Group, Inc. (NasdaqGS:UFCS)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6661,107 +6655,116 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D48">
+        <v>0.00813</v>
+      </c>
+      <c r="F48">
+        <v>0.06</v>
+      </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.02673389782133004</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>0.02673389782133004</v>
       </c>
       <c r="I48">
-        <v>-0.2159851301115241</v>
+        <v>-0.1572958963306936</v>
       </c>
       <c r="J48">
-        <v>-0.2159851301115241</v>
+        <v>-0.1572958963306936</v>
       </c>
       <c r="K48">
-        <v>-4.23</v>
+        <v>-127</v>
       </c>
       <c r="L48">
-        <v>-0.1572490706319703</v>
+        <v>-0.1208258015412425</v>
       </c>
       <c r="M48">
+        <v>39.31</v>
+      </c>
+      <c r="N48">
+        <v>0.06256565335031036</v>
+      </c>
+      <c r="O48">
+        <v>-0.3095275590551181</v>
+      </c>
+      <c r="P48">
+        <v>33</v>
+      </c>
+      <c r="Q48">
+        <v>0.05252268024828904</v>
+      </c>
+      <c r="R48">
+        <v>-0.2598425196850394</v>
+      </c>
+      <c r="S48">
+        <v>6.310000000000002</v>
+      </c>
+      <c r="T48">
+        <v>0.1605189519206309</v>
+      </c>
+      <c r="U48">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="V48">
+        <v>0.1585229985675633</v>
+      </c>
+      <c r="W48">
+        <v>-0.1317154117403028</v>
+      </c>
+      <c r="X48">
+        <v>0.0407861290502624</v>
+      </c>
+      <c r="Y48">
+        <v>-0.1725015407905652</v>
+      </c>
+      <c r="Z48">
+        <v>1.235471103185954</v>
+      </c>
+      <c r="AA48">
+        <v>-0.1943345345663055</v>
+      </c>
+      <c r="AB48">
+        <v>0.0401104646102139</v>
+      </c>
+      <c r="AC48">
+        <v>-0.2344449991765193</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>16.26858316596015</v>
+      </c>
+      <c r="AF48">
+        <v>16.26858316596015</v>
+      </c>
+      <c r="AG48">
+        <v>-83.33141683403984</v>
+      </c>
+      <c r="AH48">
+        <v>0.02523949132930576</v>
+      </c>
+      <c r="AI48">
+        <v>0.01944680148565029</v>
+      </c>
+      <c r="AJ48">
+        <v>-0.152910496876593</v>
+      </c>
+      <c r="AK48">
+        <v>-0.1130732282725737</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
         <v>-0</v>
       </c>
-      <c r="N48">
-        <v>-0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>-0</v>
-      </c>
-      <c r="Q48">
-        <v>-0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>18.7</v>
-      </c>
-      <c r="V48">
-        <v>0.453883495145631</v>
-      </c>
-      <c r="W48">
-        <v>-0.05786593707250343</v>
-      </c>
-      <c r="X48">
-        <v>0.04536174610285346</v>
-      </c>
-      <c r="Y48">
-        <v>-0.1032276831753569</v>
-      </c>
-      <c r="Z48">
-        <v>0.3672705924115615</v>
-      </c>
-      <c r="AA48">
-        <v>-0.07932498668814768</v>
-      </c>
-      <c r="AB48">
-        <v>0.04532866062928617</v>
-      </c>
-      <c r="AC48">
-        <v>-0.1246536473174338</v>
-      </c>
-      <c r="AD48">
-        <v>0.081</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0.081</v>
-      </c>
-      <c r="AG48">
-        <v>-18.619</v>
-      </c>
-      <c r="AH48">
-        <v>0.001962161769336983</v>
-      </c>
-      <c r="AI48">
-        <v>0.001111400776608444</v>
-      </c>
-      <c r="AJ48">
-        <v>-0.8245427571852441</v>
-      </c>
-      <c r="AK48">
-        <v>-0.3436444510068105</v>
-      </c>
-      <c r="AL48">
-        <v>0.005</v>
-      </c>
-      <c r="AM48">
-        <v>0.005</v>
-      </c>
-      <c r="AO48">
-        <v>-1162</v>
-      </c>
-      <c r="AQ48">
-        <v>-1162</v>
+      <c r="AP48">
+        <v>0.5552466473483466</v>
       </c>
     </row>
     <row r="49">
@@ -6781,121 +6784,121 @@
         </is>
       </c>
       <c r="D49">
-        <v>0.244</v>
+        <v>0.196</v>
       </c>
       <c r="F49">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G49">
-        <v>0.02978135209851722</v>
+        <v>-0.01384973648731462</v>
       </c>
       <c r="H49">
-        <v>0.02978135209851722</v>
+        <v>-0.01384973648731462</v>
       </c>
       <c r="I49">
-        <v>-0.04614081305351073</v>
+        <v>-0.101491382589723</v>
       </c>
       <c r="J49">
-        <v>-0.04614081305351073</v>
+        <v>-0.101491382589723</v>
       </c>
       <c r="K49">
-        <v>-32.8</v>
+        <v>-70.7</v>
       </c>
       <c r="L49">
-        <v>-0.04121638602663986</v>
+        <v>-0.08665277607549945</v>
       </c>
       <c r="M49">
-        <v>10.718</v>
+        <v>10.682</v>
       </c>
       <c r="N49">
-        <v>0.02001120238984317</v>
+        <v>0.04335227272727273</v>
       </c>
       <c r="O49">
-        <v>-0.3267682926829268</v>
+        <v>-0.1510891089108911</v>
       </c>
       <c r="P49">
         <v>10.3</v>
       </c>
       <c r="Q49">
-        <v>0.01923076923076923</v>
+        <v>0.04180194805194806</v>
       </c>
       <c r="R49">
-        <v>-0.3140243902439025</v>
+        <v>-0.1456859971711457</v>
       </c>
       <c r="S49">
-        <v>0.4179999999999993</v>
+        <v>0.3819999999999997</v>
       </c>
       <c r="T49">
-        <v>0.03899981339802195</v>
+        <v>0.03576109342819694</v>
       </c>
       <c r="U49">
-        <v>270.6</v>
+        <v>323.3</v>
       </c>
       <c r="V49">
-        <v>0.5052277819268111</v>
+        <v>1.312094155844156</v>
       </c>
       <c r="W49">
-        <v>-0.06201550387596899</v>
+        <v>-0.1370686312524234</v>
       </c>
       <c r="X49">
-        <v>0.05120879208975267</v>
+        <v>0.05480727072396616</v>
       </c>
       <c r="Y49">
-        <v>-0.1132242959657217</v>
+        <v>-0.1918759019763896</v>
       </c>
       <c r="Z49">
-        <v>2.113149376583971</v>
+        <v>2.44846566992364</v>
       </c>
       <c r="AA49">
-        <v>-0.09750243033910373</v>
+        <v>-0.2484981660640225</v>
       </c>
       <c r="AB49">
-        <v>0.04426503361278399</v>
+        <v>0.03877640575406827</v>
       </c>
       <c r="AC49">
-        <v>-0.1417674639518877</v>
+        <v>-0.2872745718180908</v>
       </c>
       <c r="AD49">
-        <v>159.9</v>
+        <v>158.1</v>
       </c>
       <c r="AE49">
-        <v>0.9942951399192199</v>
+        <v>1.42909527477491</v>
       </c>
       <c r="AF49">
-        <v>160.8942951399192</v>
+        <v>159.5290952747749</v>
       </c>
       <c r="AG49">
-        <v>-109.7057048600808</v>
+        <v>-163.7709047252251</v>
       </c>
       <c r="AH49">
-        <v>0.2310059052351564</v>
+        <v>0.3929974400253056</v>
       </c>
       <c r="AI49">
-        <v>0.2307077879202306</v>
+        <v>0.2512549770706859</v>
       </c>
       <c r="AJ49">
-        <v>-0.257589045244288</v>
+        <v>-1.982000458562703</v>
       </c>
       <c r="AK49">
-        <v>-0.2570458558358076</v>
+        <v>-0.5255314962834978</v>
       </c>
       <c r="AL49">
-        <v>9.869999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AM49">
-        <v>9.869999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AN49">
-        <v>-6.241217798594848</v>
+        <v>-2.198245296923013</v>
       </c>
       <c r="AO49">
-        <v>-3.738601823708207</v>
+        <v>-8.614583333333334</v>
       </c>
       <c r="AP49">
-        <v>4.282033757224075</v>
+        <v>2.277094377514566</v>
       </c>
       <c r="AQ49">
-        <v>-3.738601823708207</v>
+        <v>-8.614583333333334</v>
       </c>
     </row>
     <row r="50">
@@ -6906,7 +6909,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Kingstone Companies, Inc. (NasdaqCM:KINS)</t>
+          <t>FedNat Holding Company (NasdaqGM:FNHC)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6915,118 +6918,118 @@
         </is>
       </c>
       <c r="D50">
-        <v>0.245</v>
+        <v>0.142</v>
       </c>
       <c r="G50">
-        <v>0.04807552650689906</v>
+        <v>0.03135964912280702</v>
       </c>
       <c r="H50">
-        <v>0.04807552650689906</v>
+        <v>0.03135964912280702</v>
       </c>
       <c r="I50">
-        <v>-0.06435831750446941</v>
+        <v>-0.142488064159864</v>
       </c>
       <c r="J50">
-        <v>-0.06435831750446941</v>
+        <v>-0.142488064159864</v>
       </c>
       <c r="K50">
-        <v>-8.300000000000001</v>
+        <v>-47</v>
       </c>
       <c r="L50">
-        <v>-0.06027596223674656</v>
+        <v>-0.1030701754385965</v>
       </c>
       <c r="M50">
-        <v>4.742</v>
+        <v>18.9</v>
       </c>
       <c r="N50">
-        <v>0.05832718327183272</v>
+        <v>0.2327586206896551</v>
       </c>
       <c r="O50">
-        <v>-0.5713253012048193</v>
+        <v>-0.4021276595744681</v>
       </c>
       <c r="P50">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="Q50">
-        <v>0.04797047970479705</v>
+        <v>0.06157635467980296</v>
       </c>
       <c r="R50">
-        <v>-0.4698795180722891</v>
+        <v>-0.1063829787234043</v>
       </c>
       <c r="S50">
-        <v>0.8420000000000001</v>
+        <v>13.9</v>
       </c>
       <c r="T50">
-        <v>0.1775622100379587</v>
+        <v>0.7354497354497355</v>
       </c>
       <c r="U50">
-        <v>25.6</v>
+        <v>49.3</v>
       </c>
       <c r="V50">
-        <v>0.3148831488314883</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="W50">
-        <v>-0.09080962800875274</v>
+        <v>-0.1979780960404381</v>
       </c>
       <c r="X50">
-        <v>0.05292901459784853</v>
+        <v>0.07010111130852675</v>
       </c>
       <c r="Y50">
-        <v>-0.1437386426066013</v>
+        <v>-0.2680792073489648</v>
       </c>
       <c r="Z50">
-        <v>1.50227957667362</v>
+        <v>2.040060468016999</v>
       </c>
       <c r="AA50">
-        <v>-0.09668418597604075</v>
+        <v>-0.2906842668568083</v>
       </c>
       <c r="AB50">
-        <v>0.04530062998305143</v>
+        <v>0.03813443998208416</v>
       </c>
       <c r="AC50">
-        <v>-0.1419848159590922</v>
+        <v>-0.3288187068388924</v>
       </c>
       <c r="AD50">
-        <v>30.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AE50">
-        <v>0.8607016018271939</v>
+        <v>9.02278628448985</v>
       </c>
       <c r="AF50">
-        <v>31.56070160182719</v>
+        <v>107.6227862844898</v>
       </c>
       <c r="AG50">
-        <v>5.960701601827193</v>
+        <v>58.32278628448985</v>
       </c>
       <c r="AH50">
-        <v>0.2796429683130398</v>
+        <v>0.569967154929808</v>
       </c>
       <c r="AI50">
-        <v>0.2668739587567233</v>
+        <v>0.3481554613882237</v>
       </c>
       <c r="AJ50">
-        <v>0.06830911845089244</v>
+        <v>0.4180162096646241</v>
       </c>
       <c r="AK50">
-        <v>0.06432825889276077</v>
+        <v>0.2244714065248689</v>
       </c>
       <c r="AL50">
-        <v>1.83</v>
+        <v>7.66</v>
       </c>
       <c r="AM50">
-        <v>1.83</v>
+        <v>7.66</v>
       </c>
       <c r="AN50">
-        <v>-4.873015873015873</v>
+        <v>-1.606648199445983</v>
       </c>
       <c r="AO50">
-        <v>-4.841530054644808</v>
+        <v>-8.381201044386422</v>
       </c>
       <c r="AP50">
-        <v>-0.9461431114011417</v>
+        <v>-0.9503468516292953</v>
       </c>
       <c r="AQ50">
-        <v>-4.841530054644808</v>
+        <v>-8.381201044386422</v>
       </c>
     </row>
     <row r="51">
@@ -7037,7 +7040,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Conifer Holdings, Inc. (NasdaqGM:CNFR)</t>
+          <t>Hallmark Financial Services, Inc. (NasdaqGM:HALL)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7045,32 +7048,35 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D51">
+        <v>0.0558</v>
+      </c>
       <c r="G51">
-        <v>-0.06157894736842105</v>
+        <v>0.02004527680592715</v>
       </c>
       <c r="H51">
-        <v>-0.06157894736842105</v>
+        <v>0.02004527680592715</v>
       </c>
       <c r="I51">
-        <v>-0.07308574168738269</v>
+        <v>-0.1944748313324507</v>
       </c>
       <c r="J51">
-        <v>-0.07308574168738269</v>
+        <v>-0.1944748313324507</v>
       </c>
       <c r="K51">
-        <v>-9.57</v>
+        <v>-119.6</v>
       </c>
       <c r="L51">
-        <v>-0.1007368421052632</v>
+        <v>-0.2461411813130274</v>
       </c>
       <c r="M51">
-        <v>1.31</v>
+        <v>-0</v>
       </c>
       <c r="N51">
-        <v>0.03411458333333334</v>
+        <v>-0</v>
       </c>
       <c r="O51">
-        <v>-0.1368861024033438</v>
+        <v>0</v>
       </c>
       <c r="P51">
         <v>-0</v>
@@ -7082,79 +7088,76 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <v>1.31</v>
-      </c>
-      <c r="T51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>30.9</v>
+        <v>186.7</v>
       </c>
       <c r="V51">
-        <v>0.8046875</v>
+        <v>2.890092879256966</v>
       </c>
       <c r="W51">
-        <v>-0.2058064516129032</v>
+        <v>-0.4035087719298246</v>
       </c>
       <c r="X51">
-        <v>0.06494918262860677</v>
+        <v>0.08414097570094607</v>
       </c>
       <c r="Y51">
-        <v>-0.27075563424151</v>
+        <v>-0.4876497476307707</v>
       </c>
       <c r="Z51">
-        <v>1.471368851099165</v>
+        <v>1.550283210741642</v>
       </c>
       <c r="AA51">
-        <v>-0.1075360837782946</v>
+        <v>-0.3014910659265109</v>
       </c>
       <c r="AB51">
-        <v>0.04528278909752692</v>
+        <v>0.0409886284498701</v>
       </c>
       <c r="AC51">
-        <v>-0.1528188728758215</v>
+        <v>-0.342479694376381</v>
       </c>
       <c r="AD51">
-        <v>33.7</v>
+        <v>105</v>
       </c>
       <c r="AE51">
-        <v>4.765727301506778</v>
+        <v>20.82660272218892</v>
       </c>
       <c r="AF51">
-        <v>38.46572730150678</v>
+        <v>125.8266027221889</v>
       </c>
       <c r="AG51">
-        <v>7.565727301506783</v>
+        <v>-60.87339727781108</v>
       </c>
       <c r="AH51">
-        <v>0.5004275462147711</v>
+        <v>0.6607616841526908</v>
       </c>
       <c r="AI51">
-        <v>0.4581122386206796</v>
+        <v>0.4166076815356797</v>
       </c>
       <c r="AJ51">
-        <v>0.1645949655464012</v>
+        <v>-16.33482338091986</v>
       </c>
       <c r="AK51">
-        <v>0.1425727618604024</v>
+        <v>-0.5278348259720218</v>
       </c>
       <c r="AL51">
-        <v>2.97</v>
+        <v>5.59</v>
       </c>
       <c r="AM51">
-        <v>2.97</v>
+        <v>5.59</v>
       </c>
       <c r="AN51">
-        <v>-6.061151079136691</v>
+        <v>-1.239230496872418</v>
       </c>
       <c r="AO51">
-        <v>-2.387205387205387</v>
+        <v>-16.60107334525939</v>
       </c>
       <c r="AP51">
-        <v>-1.360742320414889</v>
+        <v>0.7184397176656565</v>
       </c>
       <c r="AQ51">
-        <v>-2.387205387205387</v>
+        <v>-16.60107334525939</v>
       </c>
     </row>
     <row r="52">
@@ -7165,7 +7168,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Atlas Financial Holdings, Inc. (NasdaqCM:AFH)</t>
+          <t>FG Financial Group, Inc. (NasdaqGM:FGF)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7173,35 +7176,32 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D52">
-        <v>0.245</v>
-      </c>
       <c r="G52">
-        <v>-0.06807935076645626</v>
+        <v>-0.257936507936508</v>
       </c>
       <c r="H52">
-        <v>-0.06807935076645626</v>
+        <v>-0.257936507936508</v>
       </c>
       <c r="I52">
-        <v>-0.08205590622182145</v>
+        <v>1.34843965375843</v>
       </c>
       <c r="J52">
-        <v>-0.08205590622182145</v>
+        <v>1.34843965375843</v>
       </c>
       <c r="K52">
-        <v>-36.9</v>
+        <v>-12.2</v>
       </c>
       <c r="L52">
-        <v>-0.166366095581605</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="M52">
-        <v>-0</v>
+        <v>2.54</v>
       </c>
       <c r="N52">
-        <v>-0</v>
+        <v>0.1215311004784689</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>-0.2081967213114754</v>
       </c>
       <c r="P52">
         <v>-0</v>
@@ -7213,76 +7213,73 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>2.54</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
       </c>
       <c r="U52">
-        <v>34.9</v>
+        <v>15.2</v>
       </c>
       <c r="V52">
-        <v>6.685823754789272</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="W52">
-        <v>-0.4072847682119206</v>
+        <v>-0.319371727748691</v>
       </c>
       <c r="X52">
-        <v>0.1365293213758024</v>
+        <v>0.0402146484967702</v>
       </c>
       <c r="Y52">
-        <v>-0.5438140895877229</v>
+        <v>-0.3595863762454612</v>
       </c>
       <c r="Z52">
-        <v>3.346914139127811</v>
+        <v>-0.23371550931945</v>
       </c>
       <c r="AA52">
-        <v>-0.2746340727327599</v>
+        <v>-0.3151512604646941</v>
       </c>
       <c r="AB52">
-        <v>0.05297393487742846</v>
+        <v>0.04020268797508605</v>
       </c>
       <c r="AC52">
-        <v>-0.3276080076101884</v>
+        <v>-0.3553539484397802</v>
       </c>
       <c r="AD52">
-        <v>24.3</v>
+        <v>0</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>0.01169818678104894</v>
       </c>
       <c r="AF52">
-        <v>24.3</v>
+        <v>0.01169818678104894</v>
       </c>
       <c r="AG52">
-        <v>-10.6</v>
+        <v>-15.18830181321895</v>
       </c>
       <c r="AH52">
-        <v>0.8231707317073171</v>
+        <v>0.0005594087422533543</v>
       </c>
       <c r="AI52">
-        <v>0.332421340629275</v>
+        <v>0.000321275506597928</v>
       </c>
       <c r="AJ52">
-        <v>1.970260223048327</v>
+        <v>-2.65915692960987</v>
       </c>
       <c r="AK52">
-        <v>-0.2774869109947643</v>
+        <v>-0.7160342222238563</v>
       </c>
       <c r="AL52">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AM52">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AN52">
-        <v>-1.609271523178808</v>
-      </c>
-      <c r="AO52">
-        <v>-9.732620320855615</v>
+        <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.7019867549668873</v>
-      </c>
-      <c r="AQ52">
-        <v>-9.732620320855615</v>
+        <v>-1265.691817768246</v>
       </c>
     </row>
     <row r="53">
@@ -7293,7 +7290,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AS Capital, Inc. (OTCPK:ASIN)</t>
+          <t>Unico American Corporation (NasdaqGM:UNAM)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7301,17 +7298,35 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D53">
+        <v>0.00114</v>
+      </c>
+      <c r="G53">
+        <v>-0.08271604938271605</v>
+      </c>
+      <c r="H53">
+        <v>-0.08271604938271605</v>
+      </c>
+      <c r="I53">
+        <v>-0.5648148148148149</v>
+      </c>
+      <c r="J53">
+        <v>-0.5648148148148149</v>
+      </c>
       <c r="K53">
-        <v>-0.021</v>
+        <v>-21.8</v>
+      </c>
+      <c r="L53">
+        <v>-0.6728395061728396</v>
       </c>
       <c r="M53">
-        <v>-0</v>
+        <v>0.01</v>
       </c>
       <c r="N53">
-        <v>-0</v>
+        <v>0.0004149377593360996</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>-0.0004587155963302752</v>
       </c>
       <c r="P53">
         <v>-0</v>
@@ -7323,61 +7338,445 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>5.71</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>0.2369294605809129</v>
       </c>
       <c r="W53">
-        <v>0.5833333333333334</v>
+        <v>-0.3791304347826087</v>
       </c>
       <c r="X53">
-        <v>0.04532760033226653</v>
+        <v>0.04020202202468138</v>
       </c>
       <c r="Y53">
-        <v>0.5380057330010668</v>
+        <v>-0.4193324568072901</v>
+      </c>
+      <c r="Z53">
+        <v>0.6483890334200521</v>
+      </c>
+      <c r="AA53">
+        <v>-0.3662197318391035</v>
       </c>
       <c r="AB53">
-        <v>0.04532384500971972</v>
+        <v>0.04020202202468138</v>
+      </c>
+      <c r="AC53">
+        <v>-0.4064217538637849</v>
       </c>
       <c r="AD53">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AE53">
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG53">
-        <v>0.001</v>
+        <v>-5.71</v>
       </c>
       <c r="AH53">
-        <v>0.0002231644722160232</v>
+        <v>0</v>
       </c>
       <c r="AI53">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ53">
-        <v>0.0002231644722160232</v>
+        <v>-0.310494834148994</v>
       </c>
       <c r="AK53">
-        <v>-0.5</v>
+        <v>-0.1819050653074227</v>
       </c>
       <c r="AL53">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AM53">
-        <v>0.002</v>
-      </c>
-      <c r="AO53">
-        <v>-9.5</v>
-      </c>
-      <c r="AQ53">
-        <v>-9.5</v>
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>-0</v>
+      </c>
+      <c r="AP53">
+        <v>0.3244318181818182</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Atlas Financial Holdings, Inc. (OTCPK:AFHI.F)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Insurance (Prop/Cas.)</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>0.0348</v>
+      </c>
+      <c r="G54">
+        <v>-0.03150912106135987</v>
+      </c>
+      <c r="H54">
+        <v>-0.03150912106135987</v>
+      </c>
+      <c r="I54">
+        <v>-0.04597150343391879</v>
+      </c>
+      <c r="J54">
+        <v>-0.04597150343391879</v>
+      </c>
+      <c r="K54">
+        <v>-20.4</v>
+      </c>
+      <c r="L54">
+        <v>-0.1691542288557214</v>
+      </c>
+      <c r="M54">
+        <v>-0</v>
+      </c>
+      <c r="N54">
+        <v>-0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>-0</v>
+      </c>
+      <c r="Q54">
+        <v>-0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="V54">
+        <v>6.270833333333333</v>
+      </c>
+      <c r="W54">
+        <v>-3.578947368421052</v>
+      </c>
+      <c r="X54">
+        <v>0.5708872982277243</v>
+      </c>
+      <c r="Y54">
+        <v>-4.149834666648776</v>
+      </c>
+      <c r="Z54">
+        <v>52.99196848953208</v>
+      </c>
+      <c r="AA54">
+        <v>-2.43612046138664</v>
+      </c>
+      <c r="AB54">
+        <v>0.08817210421054665</v>
+      </c>
+      <c r="AC54">
+        <v>-2.524292565597187</v>
+      </c>
+      <c r="AD54">
+        <v>32.1</v>
+      </c>
+      <c r="AE54">
+        <v>1.775816570653024</v>
+      </c>
+      <c r="AF54">
+        <v>33.87581657065302</v>
+      </c>
+      <c r="AG54">
+        <v>24.84581657065302</v>
+      </c>
+      <c r="AH54">
+        <v>0.9592250685434633</v>
+      </c>
+      <c r="AI54">
+        <v>1.332863592105419</v>
+      </c>
+      <c r="AJ54">
+        <v>0.9452176044777053</v>
+      </c>
+      <c r="AK54">
+        <v>1.516300177261343</v>
+      </c>
+      <c r="AL54">
+        <v>1.47</v>
+      </c>
+      <c r="AM54">
+        <v>1.47</v>
+      </c>
+      <c r="AN54">
+        <v>-11.26711126711127</v>
+      </c>
+      <c r="AO54">
+        <v>-4.176870748299319</v>
+      </c>
+      <c r="AP54">
+        <v>-8.720890337189548</v>
+      </c>
+      <c r="AQ54">
+        <v>-4.176870748299319</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Root, Inc. (NasdaqGS:ROOT)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Insurance (Prop/Cas.)</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>0.303</v>
+      </c>
+      <c r="G55">
+        <v>-0.6376739562624255</v>
+      </c>
+      <c r="H55">
+        <v>-0.6376739562624255</v>
+      </c>
+      <c r="I55">
+        <v>-0.684095905811036</v>
+      </c>
+      <c r="J55">
+        <v>-0.684095905811036</v>
+      </c>
+      <c r="K55">
+        <v>-314.9</v>
+      </c>
+      <c r="L55">
+        <v>-0.7825546719681908</v>
+      </c>
+      <c r="M55">
+        <v>0.2</v>
+      </c>
+      <c r="N55">
+        <v>5.076142131979696e-05</v>
+      </c>
+      <c r="O55">
+        <v>-0.0006351222610352494</v>
+      </c>
+      <c r="P55">
+        <v>-0</v>
+      </c>
+      <c r="Q55">
+        <v>-0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0.2</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>217.8</v>
+      </c>
+      <c r="V55">
+        <v>0.05527918781725889</v>
+      </c>
+      <c r="X55">
+        <v>0.04154694784779676</v>
+      </c>
+      <c r="Z55">
+        <v>27.00496697588008</v>
+      </c>
+      <c r="AA55">
+        <v>-18.4739873447618</v>
+      </c>
+      <c r="AB55">
+        <v>0.04044069010539285</v>
+      </c>
+      <c r="AC55">
+        <v>-18.51442803486719</v>
+      </c>
+      <c r="AD55">
+        <v>220</v>
+      </c>
+      <c r="AE55">
+        <v>14.90096249180419</v>
+      </c>
+      <c r="AF55">
+        <v>234.9009624918042</v>
+      </c>
+      <c r="AG55">
+        <v>17.10096249180418</v>
+      </c>
+      <c r="AH55">
+        <v>0.05626503828526815</v>
+      </c>
+      <c r="AI55">
+        <v>1.044464016023784</v>
+      </c>
+      <c r="AJ55">
+        <v>0.004321588621038274</v>
+      </c>
+      <c r="AK55">
+        <v>2.408259797392514</v>
+      </c>
+      <c r="AL55">
+        <v>39.3</v>
+      </c>
+      <c r="AM55">
+        <v>39.3</v>
+      </c>
+      <c r="AN55">
+        <v>-0.844205679201842</v>
+      </c>
+      <c r="AO55">
+        <v>-7.012722646310434</v>
+      </c>
+      <c r="AP55">
+        <v>-0.0656214984336308</v>
+      </c>
+      <c r="AQ55">
+        <v>-7.012722646310434</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Lemonade, Inc. (NYSE:LMND)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Insurance (Prop/Cas.)</t>
+        </is>
+      </c>
+      <c r="G56">
+        <v>-1.101642710472279</v>
+      </c>
+      <c r="H56">
+        <v>-1.101642710472279</v>
+      </c>
+      <c r="I56">
+        <v>-1.229979466119096</v>
+      </c>
+      <c r="J56">
+        <v>-1.229979466119096</v>
+      </c>
+      <c r="K56">
+        <v>-121.1</v>
+      </c>
+      <c r="L56">
+        <v>-1.243326488706365</v>
+      </c>
+      <c r="M56">
+        <v>-0</v>
+      </c>
+      <c r="N56">
+        <v>-0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>-0</v>
+      </c>
+      <c r="Q56">
+        <v>-0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>575.4</v>
+      </c>
+      <c r="V56">
+        <v>0.0830027552183258</v>
+      </c>
+      <c r="W56">
+        <v>0.9869600651996739</v>
+      </c>
+      <c r="X56">
+        <v>0.04020202202468138</v>
+      </c>
+      <c r="Y56">
+        <v>0.9467580431749926</v>
+      </c>
+      <c r="Z56">
+        <v>16.79310344827583</v>
+      </c>
+      <c r="AA56">
+        <v>-20.65517241379306</v>
+      </c>
+      <c r="AB56">
+        <v>0.04020202202468138</v>
+      </c>
+      <c r="AC56">
+        <v>-20.69537443581774</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>-575.4</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>-0.09051581745819502</v>
+      </c>
+      <c r="AK56">
+        <v>89.90625000000031</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>-0</v>
+      </c>
+      <c r="AP56">
+        <v>4.859797297297296</v>
       </c>
     </row>
   </sheetData>
